--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,17 +708,20 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>710400</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>1095200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>693000</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -735,20 +738,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>747100</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>1263000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>728800</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -768,17 +774,20 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>-167800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-35800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>558800</v>
+        <v>593600</v>
       </c>
       <c r="E12" s="3">
-        <v>367900</v>
+        <v>545100</v>
       </c>
       <c r="F12" s="3">
-        <v>209100</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>358900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>204000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,23 +921,26 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>50700</v>
+        <v>90200</v>
       </c>
       <c r="E15" s="3">
-        <v>24100</v>
+        <v>49400</v>
       </c>
       <c r="F15" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>23500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2087200</v>
+        <v>2645800</v>
       </c>
       <c r="E17" s="3">
-        <v>710700</v>
+        <v>2036000</v>
       </c>
       <c r="F17" s="3">
-        <v>373400</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>693300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>364300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,17 +999,20 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1376800</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-1550600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1343000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,16 +1050,17 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14700</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>22700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14300</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1047,17 +1080,20 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1294100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-1388600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1262500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1077,23 +1113,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17700</v>
+        <v>51900</v>
       </c>
       <c r="E22" s="3">
-        <v>2600</v>
+        <v>17300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1379800</v>
+        <v>-1579800</v>
       </c>
       <c r="E23" s="3">
-        <v>-719300</v>
+        <v>-1346000</v>
       </c>
       <c r="F23" s="3">
-        <v>-368600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-701700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-359500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,24 +1179,27 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1383000</v>
+        <v>-1580900</v>
       </c>
       <c r="E26" s="3">
-        <v>-720400</v>
+        <v>-1349100</v>
       </c>
       <c r="F26" s="3">
-        <v>-369200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-702800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-360200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3347100</v>
+        <v>-1597400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1084900</v>
+        <v>-3265000</v>
       </c>
       <c r="F27" s="3">
-        <v>-504700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-1058300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-492300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,17 +1443,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>-22700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-14300</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3347100</v>
+        <v>-1597400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1084900</v>
+        <v>-3265000</v>
       </c>
       <c r="F33" s="3">
-        <v>-504700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-1058300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-492300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3347100</v>
+        <v>-1597400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1084900</v>
+        <v>-3265000</v>
       </c>
       <c r="F35" s="3">
-        <v>-504700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-1058300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-492300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>449600</v>
+        <v>120900</v>
       </c>
       <c r="E41" s="3">
-        <v>1077000</v>
+        <v>439200</v>
       </c>
       <c r="F41" s="3">
-        <v>83400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>1052000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>81500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,17 +1676,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>739600</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>15600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>722500</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1617,26 +1706,29 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>287300</v>
+        <v>395200</v>
       </c>
       <c r="E43" s="3">
-        <v>72600</v>
+        <v>280600</v>
       </c>
       <c r="F43" s="3">
-        <v>26200</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>70900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>25600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>210200</v>
+        <v>124700</v>
       </c>
       <c r="E44" s="3">
-        <v>12800</v>
+        <v>205400</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>12500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59400</v>
+        <v>34300</v>
       </c>
       <c r="E45" s="3">
-        <v>29900</v>
+        <v>58000</v>
       </c>
       <c r="F45" s="3">
-        <v>15900</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>29200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>15500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1746100</v>
+        <v>690700</v>
       </c>
       <c r="E46" s="3">
-        <v>1192300</v>
+        <v>1705700</v>
       </c>
       <c r="F46" s="3">
-        <v>125500</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>1164700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>122600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,23 +1841,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>104900</v>
+        <v>108300</v>
       </c>
       <c r="E47" s="3">
-        <v>13900</v>
+        <v>102400</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>13600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>696300</v>
+        <v>1077200</v>
       </c>
       <c r="E48" s="3">
-        <v>274200</v>
+        <v>680200</v>
       </c>
       <c r="F48" s="3">
-        <v>119500</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>267800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>116800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,24 +1907,27 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31200</v>
+        <v>29500</v>
       </c>
       <c r="E49" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>125100</v>
+        <v>138000</v>
       </c>
       <c r="E52" s="3">
-        <v>20900</v>
+        <v>122200</v>
       </c>
       <c r="F52" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>20400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>7900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2703500</v>
+        <v>2043800</v>
       </c>
       <c r="E54" s="3">
-        <v>1502000</v>
+        <v>2641000</v>
       </c>
       <c r="F54" s="3">
-        <v>254000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1467200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>248200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>559200</v>
+        <v>593400</v>
       </c>
       <c r="E57" s="3">
-        <v>92500</v>
+        <v>546200</v>
       </c>
       <c r="F57" s="3">
-        <v>27400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>90400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>26700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>296800</v>
+        <v>175000</v>
       </c>
       <c r="E58" s="3">
-        <v>12000</v>
+        <v>290000</v>
       </c>
       <c r="F58" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>377000</v>
+        <v>563000</v>
       </c>
       <c r="E59" s="3">
-        <v>127700</v>
+        <v>368200</v>
       </c>
       <c r="F59" s="3">
-        <v>74100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>124700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>72400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1233000</v>
+        <v>1331400</v>
       </c>
       <c r="E60" s="3">
-        <v>232200</v>
+        <v>1204400</v>
       </c>
       <c r="F60" s="3">
-        <v>104200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>226900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>101800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>167600</v>
+        <v>1015300</v>
       </c>
       <c r="E61" s="3">
-        <v>92200</v>
+        <v>163700</v>
       </c>
       <c r="F61" s="3">
-        <v>5400</v>
+        <v>90000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>133600</v>
+        <v>373000</v>
       </c>
       <c r="E62" s="3">
-        <v>20200</v>
+        <v>130500</v>
       </c>
       <c r="F62" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>19800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1722600</v>
+        <v>2926800</v>
       </c>
       <c r="E66" s="3">
-        <v>346300</v>
+        <v>1682700</v>
       </c>
       <c r="F66" s="3">
-        <v>116700</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>338300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>114000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>2820500</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>697500</v>
+        <v>2755200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>681400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5027500</v>
+        <v>-6493100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1680400</v>
+        <v>-4911200</v>
       </c>
       <c r="F72" s="3">
-        <v>-585000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-1641500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-571400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>981000</v>
+        <v>-883000</v>
       </c>
       <c r="E76" s="3">
-        <v>-1664800</v>
+        <v>958300</v>
       </c>
       <c r="F76" s="3">
-        <v>-560200</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-1626300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-547300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3347100</v>
+        <v>-1597400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1084900</v>
+        <v>-3265000</v>
       </c>
       <c r="F81" s="3">
-        <v>-504700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-1058300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-492300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>68000</v>
+        <v>139800</v>
       </c>
       <c r="E83" s="3">
-        <v>24100</v>
+        <v>66400</v>
       </c>
       <c r="F83" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>23500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>6500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1135200</v>
+        <v>-1220700</v>
       </c>
       <c r="E89" s="3">
-        <v>-656400</v>
+        <v>-1107300</v>
       </c>
       <c r="F89" s="3">
-        <v>-315900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-640300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-308100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-379400</v>
+        <v>-238900</v>
       </c>
       <c r="E91" s="3">
-        <v>-159800</v>
+        <v>-370000</v>
       </c>
       <c r="F91" s="3">
-        <v>-93900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-155900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-91600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1139400</v>
+        <v>473400</v>
       </c>
       <c r="E94" s="3">
-        <v>-170800</v>
+        <v>-1111400</v>
       </c>
       <c r="F94" s="3">
-        <v>16900</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-166600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>16500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1664800</v>
+        <v>433200</v>
       </c>
       <c r="E100" s="3">
-        <v>1846200</v>
+        <v>1624000</v>
       </c>
       <c r="F100" s="3">
-        <v>329000</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>1800900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>320900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,23 +3454,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8200</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-24100</v>
+        <v>-8000</v>
       </c>
       <c r="F101" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>-23500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>5700</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-617900</v>
+        <v>-312700</v>
       </c>
       <c r="E102" s="3">
-        <v>994900</v>
+        <v>-602700</v>
       </c>
       <c r="F102" s="3">
-        <v>35800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>970500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>34900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -718,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1095200</v>
+        <v>1136400</v>
       </c>
       <c r="E8" s="3">
-        <v>693000</v>
+        <v>719100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1263000</v>
+        <v>1310500</v>
       </c>
       <c r="E9" s="3">
-        <v>728800</v>
+        <v>756200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -784,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-167800</v>
+        <v>-174100</v>
       </c>
       <c r="E10" s="3">
-        <v>-35800</v>
+        <v>-37200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>593600</v>
+        <v>616000</v>
       </c>
       <c r="E12" s="3">
-        <v>545100</v>
+        <v>565600</v>
       </c>
       <c r="F12" s="3">
-        <v>358900</v>
+        <v>372400</v>
       </c>
       <c r="G12" s="3">
-        <v>204000</v>
+        <v>211700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>90200</v>
+        <v>93600</v>
       </c>
       <c r="E15" s="3">
-        <v>49400</v>
+        <v>51300</v>
       </c>
       <c r="F15" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G15" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2645800</v>
+        <v>2745400</v>
       </c>
       <c r="E17" s="3">
-        <v>2036000</v>
+        <v>2112600</v>
       </c>
       <c r="F17" s="3">
-        <v>693300</v>
+        <v>719400</v>
       </c>
       <c r="G17" s="3">
-        <v>364300</v>
+        <v>378000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1550600</v>
+        <v>-1609000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1343000</v>
+        <v>-1393600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22700</v>
+        <v>23500</v>
       </c>
       <c r="E20" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1090,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1388600</v>
+        <v>-1441000</v>
       </c>
       <c r="E21" s="3">
-        <v>-1262500</v>
+        <v>-1310100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51900</v>
+        <v>53800</v>
       </c>
       <c r="E22" s="3">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="F22" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1579800</v>
+        <v>-1639300</v>
       </c>
       <c r="E23" s="3">
-        <v>-1346000</v>
+        <v>-1396700</v>
       </c>
       <c r="F23" s="3">
-        <v>-701700</v>
+        <v>-728100</v>
       </c>
       <c r="G23" s="3">
-        <v>-359500</v>
+        <v>-373100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1192,7 +1192,7 @@
         <v>1100</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F24" s="3">
         <v>1100</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1580900</v>
+        <v>-1640500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1349100</v>
+        <v>-1399900</v>
       </c>
       <c r="F26" s="3">
-        <v>-702800</v>
+        <v>-729200</v>
       </c>
       <c r="G26" s="3">
-        <v>-360200</v>
+        <v>-373700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1597400</v>
+        <v>-1657500</v>
       </c>
       <c r="E27" s="3">
-        <v>-3265000</v>
+        <v>-3387900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1058300</v>
+        <v>-1098200</v>
       </c>
       <c r="G27" s="3">
-        <v>-492300</v>
+        <v>-510900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22700</v>
+        <v>-23500</v>
       </c>
       <c r="E32" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1597400</v>
+        <v>-1657500</v>
       </c>
       <c r="E33" s="3">
-        <v>-3265000</v>
+        <v>-3387900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1058300</v>
+        <v>-1098200</v>
       </c>
       <c r="G33" s="3">
-        <v>-492300</v>
+        <v>-510900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1597400</v>
+        <v>-1657500</v>
       </c>
       <c r="E35" s="3">
-        <v>-3265000</v>
+        <v>-3387900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1058300</v>
+        <v>-1098200</v>
       </c>
       <c r="G35" s="3">
-        <v>-492300</v>
+        <v>-510900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120900</v>
+        <v>125300</v>
       </c>
       <c r="E41" s="3">
-        <v>439200</v>
+        <v>455100</v>
       </c>
       <c r="F41" s="3">
-        <v>1052000</v>
+        <v>1090100</v>
       </c>
       <c r="G41" s="3">
-        <v>81500</v>
+        <v>84400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,10 +1686,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="E42" s="3">
-        <v>722500</v>
+        <v>748600</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>395200</v>
+        <v>409500</v>
       </c>
       <c r="E43" s="3">
-        <v>280600</v>
+        <v>290800</v>
       </c>
       <c r="F43" s="3">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="G43" s="3">
-        <v>25600</v>
+        <v>26600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>124700</v>
+        <v>129200</v>
       </c>
       <c r="E44" s="3">
-        <v>205400</v>
+        <v>212800</v>
       </c>
       <c r="F44" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34300</v>
+        <v>35500</v>
       </c>
       <c r="E45" s="3">
-        <v>58000</v>
+        <v>60100</v>
       </c>
       <c r="F45" s="3">
-        <v>29200</v>
+        <v>30300</v>
       </c>
       <c r="G45" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>690700</v>
+        <v>715700</v>
       </c>
       <c r="E46" s="3">
-        <v>1705700</v>
+        <v>1767400</v>
       </c>
       <c r="F46" s="3">
-        <v>1164700</v>
+        <v>1206900</v>
       </c>
       <c r="G46" s="3">
-        <v>122600</v>
+        <v>127100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>108300</v>
+        <v>112300</v>
       </c>
       <c r="E47" s="3">
-        <v>102400</v>
+        <v>106200</v>
       </c>
       <c r="F47" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1077200</v>
+        <v>1116200</v>
       </c>
       <c r="E48" s="3">
-        <v>680200</v>
+        <v>704800</v>
       </c>
       <c r="F48" s="3">
-        <v>267800</v>
+        <v>277500</v>
       </c>
       <c r="G48" s="3">
-        <v>116800</v>
+        <v>121000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="E49" s="3">
-        <v>30400</v>
+        <v>31500</v>
       </c>
       <c r="F49" s="3">
         <v>600</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>138000</v>
+        <v>143000</v>
       </c>
       <c r="E52" s="3">
-        <v>122200</v>
+        <v>126600</v>
       </c>
       <c r="F52" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="G52" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2043800</v>
+        <v>2117700</v>
       </c>
       <c r="E54" s="3">
-        <v>2641000</v>
+        <v>2736500</v>
       </c>
       <c r="F54" s="3">
-        <v>1467200</v>
+        <v>1520300</v>
       </c>
       <c r="G54" s="3">
-        <v>248200</v>
+        <v>257100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>593400</v>
+        <v>614800</v>
       </c>
       <c r="E57" s="3">
-        <v>546200</v>
+        <v>566000</v>
       </c>
       <c r="F57" s="3">
-        <v>90400</v>
+        <v>93600</v>
       </c>
       <c r="G57" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>175000</v>
+        <v>181300</v>
       </c>
       <c r="E58" s="3">
-        <v>290000</v>
+        <v>300500</v>
       </c>
       <c r="F58" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="G58" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>563000</v>
+        <v>583400</v>
       </c>
       <c r="E59" s="3">
-        <v>368200</v>
+        <v>381500</v>
       </c>
       <c r="F59" s="3">
-        <v>124700</v>
+        <v>129200</v>
       </c>
       <c r="G59" s="3">
-        <v>72400</v>
+        <v>75000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1331400</v>
+        <v>1379500</v>
       </c>
       <c r="E60" s="3">
-        <v>1204400</v>
+        <v>1248000</v>
       </c>
       <c r="F60" s="3">
-        <v>226900</v>
+        <v>235100</v>
       </c>
       <c r="G60" s="3">
-        <v>101800</v>
+        <v>105500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1015300</v>
+        <v>1052000</v>
       </c>
       <c r="E61" s="3">
-        <v>163700</v>
+        <v>169600</v>
       </c>
       <c r="F61" s="3">
-        <v>90000</v>
+        <v>93300</v>
       </c>
       <c r="G61" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>373000</v>
+        <v>386500</v>
       </c>
       <c r="E62" s="3">
-        <v>130500</v>
+        <v>135200</v>
       </c>
       <c r="F62" s="3">
-        <v>19800</v>
+        <v>20500</v>
       </c>
       <c r="G62" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2926800</v>
+        <v>3032700</v>
       </c>
       <c r="E66" s="3">
-        <v>1682700</v>
+        <v>1743600</v>
       </c>
       <c r="F66" s="3">
-        <v>338300</v>
+        <v>350500</v>
       </c>
       <c r="G66" s="3">
-        <v>114000</v>
+        <v>118200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>2755200</v>
+        <v>2854900</v>
       </c>
       <c r="G70" s="3">
-        <v>681400</v>
+        <v>706000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6493100</v>
+        <v>-6728000</v>
       </c>
       <c r="E72" s="3">
-        <v>-4911200</v>
+        <v>-5088800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1641500</v>
+        <v>-1700900</v>
       </c>
       <c r="G72" s="3">
-        <v>-571400</v>
+        <v>-592100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-883000</v>
+        <v>-914900</v>
       </c>
       <c r="E76" s="3">
-        <v>958300</v>
+        <v>992900</v>
       </c>
       <c r="F76" s="3">
-        <v>-1626300</v>
+        <v>-1685100</v>
       </c>
       <c r="G76" s="3">
-        <v>-547300</v>
+        <v>-567000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1597400</v>
+        <v>-1657500</v>
       </c>
       <c r="E81" s="3">
-        <v>-3265000</v>
+        <v>-3387900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1058300</v>
+        <v>-1098200</v>
       </c>
       <c r="G81" s="3">
-        <v>-492300</v>
+        <v>-510900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>139800</v>
+        <v>145100</v>
       </c>
       <c r="E83" s="3">
-        <v>66400</v>
+        <v>68900</v>
       </c>
       <c r="F83" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G83" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1220700</v>
+        <v>-1266700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1107300</v>
+        <v>-1149000</v>
       </c>
       <c r="F89" s="3">
-        <v>-640300</v>
+        <v>-664400</v>
       </c>
       <c r="G89" s="3">
-        <v>-308100</v>
+        <v>-319700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-238900</v>
+        <v>-247900</v>
       </c>
       <c r="E91" s="3">
-        <v>-370000</v>
+        <v>-384000</v>
       </c>
       <c r="F91" s="3">
-        <v>-155900</v>
+        <v>-161800</v>
       </c>
       <c r="G91" s="3">
-        <v>-91600</v>
+        <v>-95000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>473400</v>
+        <v>491200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1111400</v>
+        <v>-1153200</v>
       </c>
       <c r="F94" s="3">
-        <v>-166600</v>
+        <v>-172900</v>
       </c>
       <c r="G94" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>433200</v>
+        <v>449500</v>
       </c>
       <c r="E100" s="3">
-        <v>1624000</v>
+        <v>1685100</v>
       </c>
       <c r="F100" s="3">
-        <v>1800900</v>
+        <v>1868700</v>
       </c>
       <c r="G100" s="3">
-        <v>320900</v>
+        <v>333000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="F101" s="3">
-        <v>-23500</v>
+        <v>-24400</v>
       </c>
       <c r="G101" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-312700</v>
+        <v>-324500</v>
       </c>
       <c r="E102" s="3">
-        <v>-602700</v>
+        <v>-625400</v>
       </c>
       <c r="F102" s="3">
-        <v>970500</v>
+        <v>1007100</v>
       </c>
       <c r="G102" s="3">
-        <v>34900</v>
+        <v>36200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -718,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1136400</v>
+        <v>1190300</v>
       </c>
       <c r="E8" s="3">
-        <v>719100</v>
+        <v>753200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1310500</v>
+        <v>1372700</v>
       </c>
       <c r="E9" s="3">
-        <v>756200</v>
+        <v>792100</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -784,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-174100</v>
+        <v>-182400</v>
       </c>
       <c r="E10" s="3">
-        <v>-37200</v>
+        <v>-38900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>616000</v>
+        <v>645200</v>
       </c>
       <c r="E12" s="3">
-        <v>565600</v>
+        <v>592400</v>
       </c>
       <c r="F12" s="3">
-        <v>372400</v>
+        <v>390000</v>
       </c>
       <c r="G12" s="3">
-        <v>211700</v>
+        <v>221700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>93600</v>
+        <v>98000</v>
       </c>
       <c r="E15" s="3">
-        <v>51300</v>
+        <v>53700</v>
       </c>
       <c r="F15" s="3">
-        <v>24400</v>
+        <v>25500</v>
       </c>
       <c r="G15" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2745400</v>
+        <v>2875700</v>
       </c>
       <c r="E17" s="3">
-        <v>2112600</v>
+        <v>2212900</v>
       </c>
       <c r="F17" s="3">
-        <v>719400</v>
+        <v>753500</v>
       </c>
       <c r="G17" s="3">
-        <v>378000</v>
+        <v>395900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1609000</v>
+        <v>-1685400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1393600</v>
+        <v>-1459700</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="E20" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1090,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1441000</v>
+        <v>-1508800</v>
       </c>
       <c r="E21" s="3">
-        <v>-1310100</v>
+        <v>-1372000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53800</v>
+        <v>56400</v>
       </c>
       <c r="E22" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="F22" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1639300</v>
+        <v>-1717100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1396700</v>
+        <v>-1462900</v>
       </c>
       <c r="F23" s="3">
-        <v>-728100</v>
+        <v>-762600</v>
       </c>
       <c r="G23" s="3">
-        <v>-373100</v>
+        <v>-390800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="F24" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1640500</v>
+        <v>-1718300</v>
       </c>
       <c r="E26" s="3">
-        <v>-1399900</v>
+        <v>-1466300</v>
       </c>
       <c r="F26" s="3">
-        <v>-729200</v>
+        <v>-763800</v>
       </c>
       <c r="G26" s="3">
-        <v>-373700</v>
+        <v>-391400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1657500</v>
+        <v>-1736200</v>
       </c>
       <c r="E27" s="3">
-        <v>-3387900</v>
+        <v>-3548600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1098200</v>
+        <v>-1150300</v>
       </c>
       <c r="G27" s="3">
-        <v>-510900</v>
+        <v>-535100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23500</v>
+        <v>-24600</v>
       </c>
       <c r="E32" s="3">
-        <v>-14900</v>
+        <v>-15600</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1657500</v>
+        <v>-1736200</v>
       </c>
       <c r="E33" s="3">
-        <v>-3387900</v>
+        <v>-3548600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1098200</v>
+        <v>-1150300</v>
       </c>
       <c r="G33" s="3">
-        <v>-510900</v>
+        <v>-535100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1657500</v>
+        <v>-1736200</v>
       </c>
       <c r="E35" s="3">
-        <v>-3387900</v>
+        <v>-3548600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1098200</v>
+        <v>-1150300</v>
       </c>
       <c r="G35" s="3">
-        <v>-510900</v>
+        <v>-535100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>125300</v>
+        <v>131300</v>
       </c>
       <c r="E41" s="3">
-        <v>455100</v>
+        <v>476700</v>
       </c>
       <c r="F41" s="3">
-        <v>1090100</v>
+        <v>1141800</v>
       </c>
       <c r="G41" s="3">
-        <v>84400</v>
+        <v>88400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,10 +1686,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16100</v>
+        <v>16900</v>
       </c>
       <c r="E42" s="3">
-        <v>748600</v>
+        <v>784100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>409500</v>
+        <v>429000</v>
       </c>
       <c r="E43" s="3">
-        <v>290800</v>
+        <v>304600</v>
       </c>
       <c r="F43" s="3">
-        <v>73500</v>
+        <v>77000</v>
       </c>
       <c r="G43" s="3">
-        <v>26600</v>
+        <v>27800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>129200</v>
+        <v>135300</v>
       </c>
       <c r="E44" s="3">
-        <v>212800</v>
+        <v>222900</v>
       </c>
       <c r="F44" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35500</v>
+        <v>37200</v>
       </c>
       <c r="E45" s="3">
-        <v>60100</v>
+        <v>62900</v>
       </c>
       <c r="F45" s="3">
-        <v>30300</v>
+        <v>31700</v>
       </c>
       <c r="G45" s="3">
-        <v>16100</v>
+        <v>16900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>715700</v>
+        <v>749600</v>
       </c>
       <c r="E46" s="3">
-        <v>1767400</v>
+        <v>1851200</v>
       </c>
       <c r="F46" s="3">
-        <v>1206900</v>
+        <v>1264100</v>
       </c>
       <c r="G46" s="3">
-        <v>127100</v>
+        <v>133100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,13 +1851,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>112300</v>
+        <v>117600</v>
       </c>
       <c r="E47" s="3">
-        <v>106200</v>
+        <v>111200</v>
       </c>
       <c r="F47" s="3">
-        <v>14100</v>
+        <v>14800</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1116200</v>
+        <v>1169200</v>
       </c>
       <c r="E48" s="3">
-        <v>704800</v>
+        <v>738300</v>
       </c>
       <c r="F48" s="3">
-        <v>277500</v>
+        <v>290700</v>
       </c>
       <c r="G48" s="3">
-        <v>121000</v>
+        <v>126700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30500</v>
+        <v>32000</v>
       </c>
       <c r="E49" s="3">
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="F49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>143000</v>
+        <v>149800</v>
       </c>
       <c r="E52" s="3">
-        <v>126600</v>
+        <v>132600</v>
       </c>
       <c r="F52" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="G52" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2117700</v>
+        <v>2218200</v>
       </c>
       <c r="E54" s="3">
-        <v>2736500</v>
+        <v>2866300</v>
       </c>
       <c r="F54" s="3">
-        <v>1520300</v>
+        <v>1592400</v>
       </c>
       <c r="G54" s="3">
-        <v>257100</v>
+        <v>269300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>614800</v>
+        <v>644000</v>
       </c>
       <c r="E57" s="3">
-        <v>566000</v>
+        <v>592900</v>
       </c>
       <c r="F57" s="3">
-        <v>93600</v>
+        <v>98100</v>
       </c>
       <c r="G57" s="3">
-        <v>27700</v>
+        <v>29000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>181300</v>
+        <v>189900</v>
       </c>
       <c r="E58" s="3">
-        <v>300500</v>
+        <v>314700</v>
       </c>
       <c r="F58" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="G58" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>583400</v>
+        <v>611100</v>
       </c>
       <c r="E59" s="3">
-        <v>381500</v>
+        <v>399700</v>
       </c>
       <c r="F59" s="3">
-        <v>129200</v>
+        <v>135400</v>
       </c>
       <c r="G59" s="3">
-        <v>75000</v>
+        <v>78500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1379500</v>
+        <v>1445000</v>
       </c>
       <c r="E60" s="3">
-        <v>1248000</v>
+        <v>1307200</v>
       </c>
       <c r="F60" s="3">
-        <v>235100</v>
+        <v>246200</v>
       </c>
       <c r="G60" s="3">
-        <v>105500</v>
+        <v>110500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1052000</v>
+        <v>1101900</v>
       </c>
       <c r="E61" s="3">
-        <v>169600</v>
+        <v>177700</v>
       </c>
       <c r="F61" s="3">
-        <v>93300</v>
+        <v>97700</v>
       </c>
       <c r="G61" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>386500</v>
+        <v>404900</v>
       </c>
       <c r="E62" s="3">
-        <v>135200</v>
+        <v>141600</v>
       </c>
       <c r="F62" s="3">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="G62" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3032700</v>
+        <v>3176500</v>
       </c>
       <c r="E66" s="3">
-        <v>1743600</v>
+        <v>1826300</v>
       </c>
       <c r="F66" s="3">
-        <v>350500</v>
+        <v>367100</v>
       </c>
       <c r="G66" s="3">
-        <v>118200</v>
+        <v>123800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>2854900</v>
+        <v>2990300</v>
       </c>
       <c r="G70" s="3">
-        <v>706000</v>
+        <v>739500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6728000</v>
+        <v>-7047200</v>
       </c>
       <c r="E72" s="3">
-        <v>-5088800</v>
+        <v>-5330300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1700900</v>
+        <v>-1781600</v>
       </c>
       <c r="G72" s="3">
-        <v>-592100</v>
+        <v>-620200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-914900</v>
+        <v>-958300</v>
       </c>
       <c r="E76" s="3">
-        <v>992900</v>
+        <v>1040100</v>
       </c>
       <c r="F76" s="3">
-        <v>-1685100</v>
+        <v>-1765000</v>
       </c>
       <c r="G76" s="3">
-        <v>-567000</v>
+        <v>-594000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1657500</v>
+        <v>-1736200</v>
       </c>
       <c r="E81" s="3">
-        <v>-3387900</v>
+        <v>-3548600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1098200</v>
+        <v>-1150300</v>
       </c>
       <c r="G81" s="3">
-        <v>-510900</v>
+        <v>-535100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>145100</v>
+        <v>152000</v>
       </c>
       <c r="E83" s="3">
-        <v>68900</v>
+        <v>72100</v>
       </c>
       <c r="F83" s="3">
-        <v>24400</v>
+        <v>25500</v>
       </c>
       <c r="G83" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1266700</v>
+        <v>-1326700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1149000</v>
+        <v>-1203500</v>
       </c>
       <c r="F89" s="3">
-        <v>-664400</v>
+        <v>-695900</v>
       </c>
       <c r="G89" s="3">
-        <v>-319700</v>
+        <v>-334900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-247900</v>
+        <v>-259600</v>
       </c>
       <c r="E91" s="3">
-        <v>-384000</v>
+        <v>-402200</v>
       </c>
       <c r="F91" s="3">
-        <v>-161800</v>
+        <v>-169400</v>
       </c>
       <c r="G91" s="3">
-        <v>-95000</v>
+        <v>-99600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>491200</v>
+        <v>514500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1153200</v>
+        <v>-1208000</v>
       </c>
       <c r="F94" s="3">
-        <v>-172900</v>
+        <v>-181100</v>
       </c>
       <c r="G94" s="3">
-        <v>17100</v>
+        <v>17900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>449500</v>
+        <v>470800</v>
       </c>
       <c r="E100" s="3">
-        <v>1685100</v>
+        <v>1765100</v>
       </c>
       <c r="F100" s="3">
-        <v>1868700</v>
+        <v>1957400</v>
       </c>
       <c r="G100" s="3">
-        <v>333000</v>
+        <v>348800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3467,13 +3467,13 @@
         <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-8300</v>
+        <v>-8700</v>
       </c>
       <c r="F101" s="3">
-        <v>-24400</v>
+        <v>-25600</v>
       </c>
       <c r="G101" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-324500</v>
+        <v>-339900</v>
       </c>
       <c r="E102" s="3">
-        <v>-625400</v>
+        <v>-655100</v>
       </c>
       <c r="F102" s="3">
-        <v>1007100</v>
+        <v>1054800</v>
       </c>
       <c r="G102" s="3">
-        <v>36200</v>
+        <v>38000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -718,10 +718,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1190300</v>
+        <v>1195500</v>
       </c>
       <c r="E8" s="3">
-        <v>753200</v>
+        <v>756400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -751,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1372700</v>
+        <v>1378600</v>
       </c>
       <c r="E9" s="3">
-        <v>792100</v>
+        <v>795500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -784,10 +784,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-182400</v>
+        <v>-183200</v>
       </c>
       <c r="E10" s="3">
-        <v>-38900</v>
+        <v>-39100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>645200</v>
+        <v>648000</v>
       </c>
       <c r="E12" s="3">
-        <v>592400</v>
+        <v>595000</v>
       </c>
       <c r="F12" s="3">
-        <v>390000</v>
+        <v>391700</v>
       </c>
       <c r="G12" s="3">
-        <v>221700</v>
+        <v>222700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -931,13 +931,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>98000</v>
+        <v>98500</v>
       </c>
       <c r="E15" s="3">
-        <v>53700</v>
+        <v>54000</v>
       </c>
       <c r="F15" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="G15" s="3">
         <v>7000</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2875700</v>
+        <v>2888200</v>
       </c>
       <c r="E17" s="3">
-        <v>2212900</v>
+        <v>2222500</v>
       </c>
       <c r="F17" s="3">
-        <v>753500</v>
+        <v>756800</v>
       </c>
       <c r="G17" s="3">
-        <v>395900</v>
+        <v>397600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1685400</v>
+        <v>-1692700</v>
       </c>
       <c r="E18" s="3">
-        <v>-1459700</v>
+        <v>-1466000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="E20" s="3">
         <v>15600</v>
@@ -1090,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1508800</v>
+        <v>-1514800</v>
       </c>
       <c r="E21" s="3">
-        <v>-1372000</v>
+        <v>-1377700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56400</v>
+        <v>56600</v>
       </c>
       <c r="E22" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="F22" s="3">
         <v>2800</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1717100</v>
+        <v>-1724500</v>
       </c>
       <c r="E23" s="3">
-        <v>-1462900</v>
+        <v>-1469300</v>
       </c>
       <c r="F23" s="3">
-        <v>-762600</v>
+        <v>-765900</v>
       </c>
       <c r="G23" s="3">
-        <v>-390800</v>
+        <v>-392500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1718300</v>
+        <v>-1725700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1466300</v>
+        <v>-1472600</v>
       </c>
       <c r="F26" s="3">
-        <v>-763800</v>
+        <v>-767100</v>
       </c>
       <c r="G26" s="3">
-        <v>-391400</v>
+        <v>-393100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1736200</v>
+        <v>-1743700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3548600</v>
+        <v>-3564000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1150300</v>
+        <v>-1155300</v>
       </c>
       <c r="G27" s="3">
-        <v>-535100</v>
+        <v>-537400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24600</v>
+        <v>-24700</v>
       </c>
       <c r="E32" s="3">
         <v>-15600</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1736200</v>
+        <v>-1743700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3548600</v>
+        <v>-3564000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1150300</v>
+        <v>-1155300</v>
       </c>
       <c r="G33" s="3">
-        <v>-535100</v>
+        <v>-537400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1736200</v>
+        <v>-1743700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3548600</v>
+        <v>-3564000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1150300</v>
+        <v>-1155300</v>
       </c>
       <c r="G35" s="3">
-        <v>-535100</v>
+        <v>-537400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131300</v>
+        <v>131800</v>
       </c>
       <c r="E41" s="3">
-        <v>476700</v>
+        <v>478800</v>
       </c>
       <c r="F41" s="3">
-        <v>1141800</v>
+        <v>1146800</v>
       </c>
       <c r="G41" s="3">
-        <v>88400</v>
+        <v>88800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,10 +1686,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="E42" s="3">
-        <v>784100</v>
+        <v>787500</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>429000</v>
+        <v>430800</v>
       </c>
       <c r="E43" s="3">
-        <v>304600</v>
+        <v>305900</v>
       </c>
       <c r="F43" s="3">
-        <v>77000</v>
+        <v>77300</v>
       </c>
       <c r="G43" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>135300</v>
+        <v>135900</v>
       </c>
       <c r="E44" s="3">
-        <v>222900</v>
+        <v>223900</v>
       </c>
       <c r="F44" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37200</v>
+        <v>37400</v>
       </c>
       <c r="E45" s="3">
-        <v>62900</v>
+        <v>63200</v>
       </c>
       <c r="F45" s="3">
-        <v>31700</v>
+        <v>31900</v>
       </c>
       <c r="G45" s="3">
         <v>16900</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>749600</v>
+        <v>752900</v>
       </c>
       <c r="E46" s="3">
-        <v>1851200</v>
+        <v>1859300</v>
       </c>
       <c r="F46" s="3">
-        <v>1264100</v>
+        <v>1269600</v>
       </c>
       <c r="G46" s="3">
-        <v>133100</v>
+        <v>133700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>117600</v>
+        <v>118100</v>
       </c>
       <c r="E47" s="3">
-        <v>111200</v>
+        <v>111700</v>
       </c>
       <c r="F47" s="3">
         <v>14800</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1169200</v>
+        <v>1174200</v>
       </c>
       <c r="E48" s="3">
-        <v>738300</v>
+        <v>741500</v>
       </c>
       <c r="F48" s="3">
-        <v>290700</v>
+        <v>292000</v>
       </c>
       <c r="G48" s="3">
-        <v>126700</v>
+        <v>127300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="E49" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149800</v>
+        <v>150500</v>
       </c>
       <c r="E52" s="3">
-        <v>132600</v>
+        <v>133200</v>
       </c>
       <c r="F52" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="G52" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2218200</v>
+        <v>2227800</v>
       </c>
       <c r="E54" s="3">
-        <v>2866300</v>
+        <v>2878800</v>
       </c>
       <c r="F54" s="3">
-        <v>1592400</v>
+        <v>1599300</v>
       </c>
       <c r="G54" s="3">
-        <v>269300</v>
+        <v>270500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>644000</v>
+        <v>646800</v>
       </c>
       <c r="E57" s="3">
-        <v>592900</v>
+        <v>595400</v>
       </c>
       <c r="F57" s="3">
-        <v>98100</v>
+        <v>98500</v>
       </c>
       <c r="G57" s="3">
-        <v>29000</v>
+        <v>29100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>189900</v>
+        <v>190700</v>
       </c>
       <c r="E58" s="3">
-        <v>314700</v>
+        <v>316100</v>
       </c>
       <c r="F58" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="G58" s="3">
         <v>3000</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>611100</v>
+        <v>613700</v>
       </c>
       <c r="E59" s="3">
-        <v>399700</v>
+        <v>401400</v>
       </c>
       <c r="F59" s="3">
-        <v>135400</v>
+        <v>136000</v>
       </c>
       <c r="G59" s="3">
-        <v>78500</v>
+        <v>78900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1445000</v>
+        <v>1451200</v>
       </c>
       <c r="E60" s="3">
-        <v>1307200</v>
+        <v>1312900</v>
       </c>
       <c r="F60" s="3">
-        <v>246200</v>
+        <v>247300</v>
       </c>
       <c r="G60" s="3">
-        <v>110500</v>
+        <v>111000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,13 +2277,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1101900</v>
+        <v>1106700</v>
       </c>
       <c r="E61" s="3">
-        <v>177700</v>
+        <v>178400</v>
       </c>
       <c r="F61" s="3">
-        <v>97700</v>
+        <v>98100</v>
       </c>
       <c r="G61" s="3">
         <v>5700</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>404900</v>
+        <v>406600</v>
       </c>
       <c r="E62" s="3">
-        <v>141600</v>
+        <v>142200</v>
       </c>
       <c r="F62" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="G62" s="3">
         <v>9300</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3176500</v>
+        <v>3190300</v>
       </c>
       <c r="E66" s="3">
-        <v>1826300</v>
+        <v>1834200</v>
       </c>
       <c r="F66" s="3">
-        <v>367100</v>
+        <v>368700</v>
       </c>
       <c r="G66" s="3">
-        <v>123800</v>
+        <v>124300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>2990300</v>
+        <v>3003300</v>
       </c>
       <c r="G70" s="3">
-        <v>739500</v>
+        <v>742800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7047200</v>
+        <v>-7077700</v>
       </c>
       <c r="E72" s="3">
-        <v>-5330300</v>
+        <v>-5353400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1781600</v>
+        <v>-1789400</v>
       </c>
       <c r="G72" s="3">
-        <v>-620200</v>
+        <v>-622900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-958300</v>
+        <v>-962500</v>
       </c>
       <c r="E76" s="3">
-        <v>1040100</v>
+        <v>1044600</v>
       </c>
       <c r="F76" s="3">
-        <v>-1765000</v>
+        <v>-1772700</v>
       </c>
       <c r="G76" s="3">
-        <v>-594000</v>
+        <v>-596600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1736200</v>
+        <v>-1743700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3548600</v>
+        <v>-3564000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1150300</v>
+        <v>-1155300</v>
       </c>
       <c r="G81" s="3">
-        <v>-535100</v>
+        <v>-537400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>152000</v>
+        <v>152600</v>
       </c>
       <c r="E83" s="3">
-        <v>72100</v>
+        <v>72500</v>
       </c>
       <c r="F83" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="G83" s="3">
         <v>7000</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1326700</v>
+        <v>-1332500</v>
       </c>
       <c r="E89" s="3">
-        <v>-1203500</v>
+        <v>-1208800</v>
       </c>
       <c r="F89" s="3">
-        <v>-695900</v>
+        <v>-698900</v>
       </c>
       <c r="G89" s="3">
-        <v>-334900</v>
+        <v>-336400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-259600</v>
+        <v>-260800</v>
       </c>
       <c r="E91" s="3">
-        <v>-402200</v>
+        <v>-403900</v>
       </c>
       <c r="F91" s="3">
-        <v>-169400</v>
+        <v>-170200</v>
       </c>
       <c r="G91" s="3">
-        <v>-99600</v>
+        <v>-100000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>514500</v>
+        <v>516700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1208000</v>
+        <v>-1213200</v>
       </c>
       <c r="F94" s="3">
-        <v>-181100</v>
+        <v>-181800</v>
       </c>
       <c r="G94" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>470800</v>
+        <v>472800</v>
       </c>
       <c r="E100" s="3">
-        <v>1765100</v>
+        <v>1772700</v>
       </c>
       <c r="F100" s="3">
-        <v>1957400</v>
+        <v>1965900</v>
       </c>
       <c r="G100" s="3">
-        <v>348800</v>
+        <v>350300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
         <v>-8700</v>
       </c>
       <c r="F101" s="3">
-        <v>-25600</v>
+        <v>-25700</v>
       </c>
       <c r="G101" s="3">
         <v>6200</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-339900</v>
+        <v>-341400</v>
       </c>
       <c r="E102" s="3">
-        <v>-655100</v>
+        <v>-657900</v>
       </c>
       <c r="F102" s="3">
-        <v>1054800</v>
+        <v>1059400</v>
       </c>
       <c r="G102" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,20 +711,23 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1195500</v>
+        <v>2536400</v>
       </c>
       <c r="E8" s="3">
-        <v>756400</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>1220800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>772400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -741,23 +744,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1378600</v>
+        <v>2244100</v>
       </c>
       <c r="E9" s="3">
-        <v>795500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>1407800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>812400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -777,20 +783,23 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-183200</v>
+        <v>292300</v>
       </c>
       <c r="E10" s="3">
-        <v>-39100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>-187000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-39900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>648000</v>
+        <v>348200</v>
       </c>
       <c r="E12" s="3">
-        <v>595000</v>
+        <v>661700</v>
       </c>
       <c r="F12" s="3">
-        <v>391700</v>
+        <v>607600</v>
       </c>
       <c r="G12" s="3">
-        <v>222700</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>400000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>227400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,26 +943,29 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>98500</v>
+        <v>90600</v>
       </c>
       <c r="E15" s="3">
-        <v>54000</v>
+        <v>100500</v>
       </c>
       <c r="F15" s="3">
-        <v>25600</v>
+        <v>55100</v>
       </c>
       <c r="G15" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>26200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>7200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2888200</v>
+        <v>3255200</v>
       </c>
       <c r="E17" s="3">
-        <v>2222500</v>
+        <v>2949200</v>
       </c>
       <c r="F17" s="3">
-        <v>756800</v>
+        <v>2269400</v>
       </c>
       <c r="G17" s="3">
-        <v>397600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>772800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>406000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,20 +1028,23 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1692700</v>
+        <v>-718800</v>
       </c>
       <c r="E18" s="3">
-        <v>-1466000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-1728500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1497000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,19 +1083,20 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24700</v>
+        <v>-41200</v>
       </c>
       <c r="E20" s="3">
-        <v>15600</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>25300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>16000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1083,20 +1116,23 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1514800</v>
+        <v>-597000</v>
       </c>
       <c r="E21" s="3">
-        <v>-1377700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-1547500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1407200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1116,26 +1152,29 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56600</v>
+        <v>66500</v>
       </c>
       <c r="E22" s="3">
-        <v>18900</v>
+        <v>57800</v>
       </c>
       <c r="F22" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1724500</v>
+        <v>-826500</v>
       </c>
       <c r="E23" s="3">
-        <v>-1469300</v>
+        <v>-1761000</v>
       </c>
       <c r="F23" s="3">
-        <v>-765900</v>
+        <v>-1500300</v>
       </c>
       <c r="G23" s="3">
-        <v>-392500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-782100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-400800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,27 +1224,30 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1725700</v>
+        <v>-827500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1472600</v>
+        <v>-1762200</v>
       </c>
       <c r="F26" s="3">
-        <v>-767100</v>
+        <v>-1503800</v>
       </c>
       <c r="G26" s="3">
-        <v>-393100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-783400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-401500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1743700</v>
+        <v>-875300</v>
       </c>
       <c r="E27" s="3">
-        <v>-3564000</v>
+        <v>-1780600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1155300</v>
+        <v>-3639400</v>
       </c>
       <c r="G27" s="3">
-        <v>-537400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-1179700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-548800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,20 +1512,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24700</v>
+        <v>41200</v>
       </c>
       <c r="E32" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>-25300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-16000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1743700</v>
+        <v>-875300</v>
       </c>
       <c r="E33" s="3">
-        <v>-3564000</v>
+        <v>-1780600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1155300</v>
+        <v>-3639400</v>
       </c>
       <c r="G33" s="3">
-        <v>-537400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-1179700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-548800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1743700</v>
+        <v>-875300</v>
       </c>
       <c r="E35" s="3">
-        <v>-3564000</v>
+        <v>-1780600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1155300</v>
+        <v>-3639400</v>
       </c>
       <c r="G35" s="3">
-        <v>-537400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-1179700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-548800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131800</v>
+        <v>5994800</v>
       </c>
       <c r="E41" s="3">
-        <v>478800</v>
+        <v>134600</v>
       </c>
       <c r="F41" s="3">
-        <v>1146800</v>
+        <v>488900</v>
       </c>
       <c r="G41" s="3">
-        <v>88800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>1171000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>90700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,20 +1765,23 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17000</v>
+        <v>616400</v>
       </c>
       <c r="E42" s="3">
-        <v>787500</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>17300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>804200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1709,29 +1798,32 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>430800</v>
+        <v>373800</v>
       </c>
       <c r="E43" s="3">
-        <v>305900</v>
+        <v>439900</v>
       </c>
       <c r="F43" s="3">
-        <v>77300</v>
+        <v>312400</v>
       </c>
       <c r="G43" s="3">
-        <v>27900</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>78900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>28500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,26 +1837,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>135900</v>
+        <v>168700</v>
       </c>
       <c r="E44" s="3">
-        <v>223900</v>
+        <v>138800</v>
       </c>
       <c r="F44" s="3">
-        <v>13700</v>
+        <v>228600</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>14000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37400</v>
+        <v>55100</v>
       </c>
       <c r="E45" s="3">
-        <v>63200</v>
+        <v>38200</v>
       </c>
       <c r="F45" s="3">
-        <v>31900</v>
+        <v>64500</v>
       </c>
       <c r="G45" s="3">
-        <v>16900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>32500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>17300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>752900</v>
+        <v>7208700</v>
       </c>
       <c r="E46" s="3">
-        <v>1859300</v>
+        <v>768800</v>
       </c>
       <c r="F46" s="3">
-        <v>1269600</v>
+        <v>1898600</v>
       </c>
       <c r="G46" s="3">
-        <v>133700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>1296400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>136500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,26 +1945,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118100</v>
+        <v>247900</v>
       </c>
       <c r="E47" s="3">
-        <v>111700</v>
+        <v>120600</v>
       </c>
       <c r="F47" s="3">
-        <v>14800</v>
+        <v>114000</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>15200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1174200</v>
+        <v>1005100</v>
       </c>
       <c r="E48" s="3">
-        <v>741500</v>
+        <v>1199100</v>
       </c>
       <c r="F48" s="3">
-        <v>292000</v>
+        <v>757100</v>
       </c>
       <c r="G48" s="3">
-        <v>127300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>298100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>130000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,27 +2017,30 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32100</v>
+        <v>31900</v>
       </c>
       <c r="E49" s="3">
-        <v>33200</v>
+        <v>32800</v>
       </c>
       <c r="F49" s="3">
+        <v>33900</v>
+      </c>
+      <c r="G49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>150500</v>
+        <v>31000</v>
       </c>
       <c r="E52" s="3">
-        <v>133200</v>
+        <v>153700</v>
       </c>
       <c r="F52" s="3">
-        <v>22200</v>
+        <v>136000</v>
       </c>
       <c r="G52" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>22700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2227800</v>
+        <v>8524700</v>
       </c>
       <c r="E54" s="3">
-        <v>2878800</v>
+        <v>2274900</v>
       </c>
       <c r="F54" s="3">
-        <v>1599300</v>
+        <v>2939600</v>
       </c>
       <c r="G54" s="3">
-        <v>270500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1633100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>276200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>646800</v>
+        <v>1105100</v>
       </c>
       <c r="E57" s="3">
-        <v>595400</v>
+        <v>660500</v>
       </c>
       <c r="F57" s="3">
-        <v>98500</v>
+        <v>608000</v>
       </c>
       <c r="G57" s="3">
-        <v>29100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>100600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>29700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>190700</v>
+        <v>306400</v>
       </c>
       <c r="E58" s="3">
-        <v>316100</v>
+        <v>194800</v>
       </c>
       <c r="F58" s="3">
-        <v>12800</v>
+        <v>322800</v>
       </c>
       <c r="G58" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>613700</v>
+        <v>768900</v>
       </c>
       <c r="E59" s="3">
-        <v>401400</v>
+        <v>626700</v>
       </c>
       <c r="F59" s="3">
-        <v>136000</v>
+        <v>409900</v>
       </c>
       <c r="G59" s="3">
-        <v>78900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>138800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>80500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1451200</v>
+        <v>2180400</v>
       </c>
       <c r="E60" s="3">
-        <v>1312900</v>
+        <v>1481900</v>
       </c>
       <c r="F60" s="3">
-        <v>247300</v>
+        <v>1340700</v>
       </c>
       <c r="G60" s="3">
-        <v>111000</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>252500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>113400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1106700</v>
+        <v>935000</v>
       </c>
       <c r="E61" s="3">
-        <v>178400</v>
+        <v>1130100</v>
       </c>
       <c r="F61" s="3">
-        <v>98100</v>
+        <v>182200</v>
       </c>
       <c r="G61" s="3">
-        <v>5700</v>
+        <v>100200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>406600</v>
+        <v>438400</v>
       </c>
       <c r="E62" s="3">
-        <v>142200</v>
+        <v>415200</v>
       </c>
       <c r="F62" s="3">
-        <v>21600</v>
+        <v>145200</v>
       </c>
       <c r="G62" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>22000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>9500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3190300</v>
+        <v>4286100</v>
       </c>
       <c r="E66" s="3">
-        <v>1834200</v>
+        <v>3257800</v>
       </c>
       <c r="F66" s="3">
-        <v>368700</v>
+        <v>1873000</v>
       </c>
       <c r="G66" s="3">
-        <v>124300</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>376500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>126900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>3003300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>742800</v>
+        <v>3066800</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>758500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7077700</v>
+        <v>-8057700</v>
       </c>
       <c r="E72" s="3">
-        <v>-5353400</v>
+        <v>-7227400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1789400</v>
+        <v>-5466600</v>
       </c>
       <c r="G72" s="3">
-        <v>-622900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-1827200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-636000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-962500</v>
+        <v>4238600</v>
       </c>
       <c r="E76" s="3">
-        <v>1044600</v>
+        <v>-982800</v>
       </c>
       <c r="F76" s="3">
-        <v>-1772700</v>
+        <v>1066600</v>
       </c>
       <c r="G76" s="3">
-        <v>-596600</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-1810200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-609200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1743700</v>
+        <v>-875300</v>
       </c>
       <c r="E81" s="3">
-        <v>-3564000</v>
+        <v>-1780600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1155300</v>
+        <v>-3639400</v>
       </c>
       <c r="G81" s="3">
-        <v>-537400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-1179700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-548800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>152600</v>
+        <v>163300</v>
       </c>
       <c r="E83" s="3">
-        <v>72500</v>
+        <v>155800</v>
       </c>
       <c r="F83" s="3">
-        <v>25600</v>
+        <v>74000</v>
       </c>
       <c r="G83" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>26200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1332500</v>
+        <v>304400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1208800</v>
+        <v>-1360700</v>
       </c>
       <c r="F89" s="3">
-        <v>-698900</v>
+        <v>-1234300</v>
       </c>
       <c r="G89" s="3">
-        <v>-336400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-713700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-343500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-260800</v>
+        <v>-175900</v>
       </c>
       <c r="E91" s="3">
-        <v>-403900</v>
+        <v>-266300</v>
       </c>
       <c r="F91" s="3">
-        <v>-170200</v>
+        <v>-412500</v>
       </c>
       <c r="G91" s="3">
-        <v>-100000</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-173800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-102100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>516700</v>
+        <v>-791100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1213200</v>
+        <v>527600</v>
       </c>
       <c r="F94" s="3">
-        <v>-181800</v>
+        <v>-1238900</v>
       </c>
       <c r="G94" s="3">
-        <v>18000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-185700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>18400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>472800</v>
+        <v>6452200</v>
       </c>
       <c r="E100" s="3">
-        <v>1772700</v>
+        <v>482800</v>
       </c>
       <c r="F100" s="3">
-        <v>1965900</v>
+        <v>1810200</v>
       </c>
       <c r="G100" s="3">
-        <v>350300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>2007400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>357700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,26 +3702,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-8700</v>
-      </c>
       <c r="F101" s="3">
-        <v>-25700</v>
+        <v>-8900</v>
       </c>
       <c r="G101" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-341400</v>
+        <v>5859000</v>
       </c>
       <c r="E102" s="3">
-        <v>-657900</v>
+        <v>-348600</v>
       </c>
       <c r="F102" s="3">
-        <v>1059400</v>
+        <v>-671900</v>
       </c>
       <c r="G102" s="3">
-        <v>38100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>1081800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>38900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2536400</v>
+        <v>2503400</v>
       </c>
       <c r="E8" s="3">
-        <v>1220800</v>
+        <v>1204900</v>
       </c>
       <c r="F8" s="3">
-        <v>772400</v>
+        <v>762400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -757,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2244100</v>
+        <v>2214900</v>
       </c>
       <c r="E9" s="3">
-        <v>1407800</v>
+        <v>1389500</v>
       </c>
       <c r="F9" s="3">
-        <v>812400</v>
+        <v>801800</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -793,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>292300</v>
+        <v>288500</v>
       </c>
       <c r="E10" s="3">
-        <v>-187000</v>
+        <v>-184600</v>
       </c>
       <c r="F10" s="3">
-        <v>-39900</v>
+        <v>-39400</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>348200</v>
+        <v>343700</v>
       </c>
       <c r="E12" s="3">
-        <v>661700</v>
+        <v>653100</v>
       </c>
       <c r="F12" s="3">
-        <v>607600</v>
+        <v>599700</v>
       </c>
       <c r="G12" s="3">
-        <v>400000</v>
+        <v>394800</v>
       </c>
       <c r="H12" s="3">
-        <v>227400</v>
+        <v>224400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>90600</v>
+        <v>89500</v>
       </c>
       <c r="E15" s="3">
-        <v>100500</v>
+        <v>99200</v>
       </c>
       <c r="F15" s="3">
-        <v>55100</v>
+        <v>54400</v>
       </c>
       <c r="G15" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H15" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3255200</v>
+        <v>3212900</v>
       </c>
       <c r="E17" s="3">
-        <v>2949200</v>
+        <v>2910900</v>
       </c>
       <c r="F17" s="3">
-        <v>2269400</v>
+        <v>2239900</v>
       </c>
       <c r="G17" s="3">
-        <v>772800</v>
+        <v>762800</v>
       </c>
       <c r="H17" s="3">
-        <v>406000</v>
+        <v>400700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-718800</v>
+        <v>-709500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1728500</v>
+        <v>-1706000</v>
       </c>
       <c r="F18" s="3">
-        <v>-1497000</v>
+        <v>-1477500</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41200</v>
+        <v>-40700</v>
       </c>
       <c r="E20" s="3">
-        <v>25300</v>
+        <v>24900</v>
       </c>
       <c r="F20" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1126,13 +1126,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-597000</v>
+        <v>-588800</v>
       </c>
       <c r="E21" s="3">
-        <v>-1547500</v>
+        <v>-1527000</v>
       </c>
       <c r="F21" s="3">
-        <v>-1407200</v>
+        <v>-1388600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66500</v>
+        <v>65600</v>
       </c>
       <c r="E22" s="3">
-        <v>57800</v>
+        <v>57100</v>
       </c>
       <c r="F22" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="G22" s="3">
         <v>2800</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-826500</v>
+        <v>-815700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1761000</v>
+        <v>-1738100</v>
       </c>
       <c r="F23" s="3">
-        <v>-1500300</v>
+        <v>-1480800</v>
       </c>
       <c r="G23" s="3">
-        <v>-782100</v>
+        <v>-771900</v>
       </c>
       <c r="H23" s="3">
-        <v>-400800</v>
+        <v>-395600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-827500</v>
+        <v>-816700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1762200</v>
+        <v>-1739300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1503800</v>
+        <v>-1484200</v>
       </c>
       <c r="G26" s="3">
-        <v>-783400</v>
+        <v>-773200</v>
       </c>
       <c r="H26" s="3">
-        <v>-401500</v>
+        <v>-396200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-875300</v>
+        <v>-863900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1780600</v>
+        <v>-1757400</v>
       </c>
       <c r="F27" s="3">
-        <v>-3639400</v>
+        <v>-3592000</v>
       </c>
       <c r="G27" s="3">
-        <v>-1179700</v>
+        <v>-1164300</v>
       </c>
       <c r="H27" s="3">
-        <v>-548800</v>
+        <v>-541600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41200</v>
+        <v>40700</v>
       </c>
       <c r="E32" s="3">
-        <v>-25300</v>
+        <v>-24900</v>
       </c>
       <c r="F32" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-875300</v>
+        <v>-863900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1780600</v>
+        <v>-1757400</v>
       </c>
       <c r="F33" s="3">
-        <v>-3639400</v>
+        <v>-3592000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1179700</v>
+        <v>-1164300</v>
       </c>
       <c r="H33" s="3">
-        <v>-548800</v>
+        <v>-541600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-875300</v>
+        <v>-863900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1780600</v>
+        <v>-1757400</v>
       </c>
       <c r="F35" s="3">
-        <v>-3639400</v>
+        <v>-3592000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1179700</v>
+        <v>-1164300</v>
       </c>
       <c r="H35" s="3">
-        <v>-548800</v>
+        <v>-541600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5994800</v>
+        <v>5916800</v>
       </c>
       <c r="E41" s="3">
-        <v>134600</v>
+        <v>132900</v>
       </c>
       <c r="F41" s="3">
-        <v>488900</v>
+        <v>482500</v>
       </c>
       <c r="G41" s="3">
-        <v>1171000</v>
+        <v>1155800</v>
       </c>
       <c r="H41" s="3">
-        <v>90700</v>
+        <v>89500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>616400</v>
+        <v>608300</v>
       </c>
       <c r="E42" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="F42" s="3">
-        <v>804200</v>
+        <v>793700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>373800</v>
+        <v>368900</v>
       </c>
       <c r="E43" s="3">
-        <v>439900</v>
+        <v>434200</v>
       </c>
       <c r="F43" s="3">
-        <v>312400</v>
+        <v>308300</v>
       </c>
       <c r="G43" s="3">
-        <v>78900</v>
+        <v>77900</v>
       </c>
       <c r="H43" s="3">
-        <v>28500</v>
+        <v>28200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>168700</v>
+        <v>166500</v>
       </c>
       <c r="E44" s="3">
-        <v>138800</v>
+        <v>137000</v>
       </c>
       <c r="F44" s="3">
-        <v>228600</v>
+        <v>225600</v>
       </c>
       <c r="G44" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55100</v>
+        <v>54400</v>
       </c>
       <c r="E45" s="3">
-        <v>38200</v>
+        <v>37700</v>
       </c>
       <c r="F45" s="3">
-        <v>64500</v>
+        <v>63700</v>
       </c>
       <c r="G45" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="H45" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7208700</v>
+        <v>7114900</v>
       </c>
       <c r="E46" s="3">
-        <v>768800</v>
+        <v>758800</v>
       </c>
       <c r="F46" s="3">
-        <v>1898600</v>
+        <v>1873900</v>
       </c>
       <c r="G46" s="3">
-        <v>1296400</v>
+        <v>1279600</v>
       </c>
       <c r="H46" s="3">
-        <v>136500</v>
+        <v>134700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>247900</v>
+        <v>244700</v>
       </c>
       <c r="E47" s="3">
-        <v>120600</v>
+        <v>119000</v>
       </c>
       <c r="F47" s="3">
-        <v>114000</v>
+        <v>112600</v>
       </c>
       <c r="G47" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1005100</v>
+        <v>992000</v>
       </c>
       <c r="E48" s="3">
-        <v>1199100</v>
+        <v>1183500</v>
       </c>
       <c r="F48" s="3">
-        <v>757100</v>
+        <v>747300</v>
       </c>
       <c r="G48" s="3">
-        <v>298100</v>
+        <v>294300</v>
       </c>
       <c r="H48" s="3">
-        <v>130000</v>
+        <v>128300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="E49" s="3">
-        <v>32800</v>
+        <v>32400</v>
       </c>
       <c r="F49" s="3">
-        <v>33900</v>
+        <v>33400</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31000</v>
+        <v>30600</v>
       </c>
       <c r="E52" s="3">
-        <v>153700</v>
+        <v>151700</v>
       </c>
       <c r="F52" s="3">
-        <v>136000</v>
+        <v>134200</v>
       </c>
       <c r="G52" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="H52" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8524700</v>
+        <v>8413800</v>
       </c>
       <c r="E54" s="3">
-        <v>2274900</v>
+        <v>2245300</v>
       </c>
       <c r="F54" s="3">
-        <v>2939600</v>
+        <v>2901400</v>
       </c>
       <c r="G54" s="3">
-        <v>1633100</v>
+        <v>1611900</v>
       </c>
       <c r="H54" s="3">
-        <v>276200</v>
+        <v>272600</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1105100</v>
+        <v>1090800</v>
       </c>
       <c r="E57" s="3">
-        <v>660500</v>
+        <v>651900</v>
       </c>
       <c r="F57" s="3">
-        <v>608000</v>
+        <v>600100</v>
       </c>
       <c r="G57" s="3">
-        <v>100600</v>
+        <v>99300</v>
       </c>
       <c r="H57" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>306400</v>
+        <v>302400</v>
       </c>
       <c r="E58" s="3">
-        <v>194800</v>
+        <v>192200</v>
       </c>
       <c r="F58" s="3">
-        <v>322800</v>
+        <v>318600</v>
       </c>
       <c r="G58" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="H58" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>768900</v>
+        <v>758900</v>
       </c>
       <c r="E59" s="3">
-        <v>626700</v>
+        <v>618500</v>
       </c>
       <c r="F59" s="3">
-        <v>409900</v>
+        <v>404500</v>
       </c>
       <c r="G59" s="3">
-        <v>138800</v>
+        <v>137000</v>
       </c>
       <c r="H59" s="3">
-        <v>80500</v>
+        <v>79500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2180400</v>
+        <v>2152100</v>
       </c>
       <c r="E60" s="3">
-        <v>1481900</v>
+        <v>1462600</v>
       </c>
       <c r="F60" s="3">
-        <v>1340700</v>
+        <v>1323200</v>
       </c>
       <c r="G60" s="3">
-        <v>252500</v>
+        <v>249200</v>
       </c>
       <c r="H60" s="3">
-        <v>113400</v>
+        <v>111900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>935000</v>
+        <v>922900</v>
       </c>
       <c r="E61" s="3">
-        <v>1130100</v>
+        <v>1115400</v>
       </c>
       <c r="F61" s="3">
-        <v>182200</v>
+        <v>179900</v>
       </c>
       <c r="G61" s="3">
-        <v>100200</v>
+        <v>98900</v>
       </c>
       <c r="H61" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>438400</v>
+        <v>432700</v>
       </c>
       <c r="E62" s="3">
-        <v>415200</v>
+        <v>409800</v>
       </c>
       <c r="F62" s="3">
-        <v>145200</v>
+        <v>143300</v>
       </c>
       <c r="G62" s="3">
-        <v>22000</v>
+        <v>21700</v>
       </c>
       <c r="H62" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4286100</v>
+        <v>4230300</v>
       </c>
       <c r="E66" s="3">
-        <v>3257800</v>
+        <v>3215400</v>
       </c>
       <c r="F66" s="3">
-        <v>1873000</v>
+        <v>1848600</v>
       </c>
       <c r="G66" s="3">
-        <v>376500</v>
+        <v>371600</v>
       </c>
       <c r="H66" s="3">
-        <v>126900</v>
+        <v>125300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3066800</v>
+        <v>3026900</v>
       </c>
       <c r="H70" s="3">
-        <v>758500</v>
+        <v>748600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8057700</v>
+        <v>-7952800</v>
       </c>
       <c r="E72" s="3">
-        <v>-7227400</v>
+        <v>-7133300</v>
       </c>
       <c r="F72" s="3">
-        <v>-5466600</v>
+        <v>-5395400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1827200</v>
+        <v>-1803400</v>
       </c>
       <c r="H72" s="3">
-        <v>-636000</v>
+        <v>-627800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4238600</v>
+        <v>4183500</v>
       </c>
       <c r="E76" s="3">
-        <v>-982800</v>
+        <v>-970000</v>
       </c>
       <c r="F76" s="3">
-        <v>1066600</v>
+        <v>1052800</v>
       </c>
       <c r="G76" s="3">
-        <v>-1810200</v>
+        <v>-1786600</v>
       </c>
       <c r="H76" s="3">
-        <v>-609200</v>
+        <v>-601300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-875300</v>
+        <v>-863900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1780600</v>
+        <v>-1757400</v>
       </c>
       <c r="F81" s="3">
-        <v>-3639400</v>
+        <v>-3592000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1179700</v>
+        <v>-1164300</v>
       </c>
       <c r="H81" s="3">
-        <v>-548800</v>
+        <v>-541600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>163300</v>
+        <v>161100</v>
       </c>
       <c r="E83" s="3">
-        <v>155800</v>
+        <v>153800</v>
       </c>
       <c r="F83" s="3">
-        <v>74000</v>
+        <v>73000</v>
       </c>
       <c r="G83" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H83" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>304400</v>
+        <v>300400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1360700</v>
+        <v>-1343000</v>
       </c>
       <c r="F89" s="3">
-        <v>-1234300</v>
+        <v>-1218300</v>
       </c>
       <c r="G89" s="3">
-        <v>-713700</v>
+        <v>-704400</v>
       </c>
       <c r="H89" s="3">
-        <v>-343500</v>
+        <v>-339000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-175900</v>
+        <v>-173600</v>
       </c>
       <c r="E91" s="3">
-        <v>-266300</v>
+        <v>-262800</v>
       </c>
       <c r="F91" s="3">
-        <v>-412500</v>
+        <v>-407100</v>
       </c>
       <c r="G91" s="3">
-        <v>-173800</v>
+        <v>-171500</v>
       </c>
       <c r="H91" s="3">
-        <v>-102100</v>
+        <v>-100800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-791100</v>
+        <v>-780800</v>
       </c>
       <c r="E94" s="3">
-        <v>527600</v>
+        <v>520800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1238900</v>
+        <v>-1222700</v>
       </c>
       <c r="G94" s="3">
-        <v>-185700</v>
+        <v>-183300</v>
       </c>
       <c r="H94" s="3">
-        <v>18400</v>
+        <v>18100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6452200</v>
+        <v>6368200</v>
       </c>
       <c r="E100" s="3">
-        <v>482800</v>
+        <v>476600</v>
       </c>
       <c r="F100" s="3">
-        <v>1810200</v>
+        <v>1786600</v>
       </c>
       <c r="G100" s="3">
-        <v>2007400</v>
+        <v>1981300</v>
       </c>
       <c r="H100" s="3">
-        <v>357700</v>
+        <v>353000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-106400</v>
+        <v>-105000</v>
       </c>
       <c r="E101" s="3">
         <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="G101" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="H101" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5859000</v>
+        <v>5782800</v>
       </c>
       <c r="E102" s="3">
-        <v>-348600</v>
+        <v>-344100</v>
       </c>
       <c r="F102" s="3">
-        <v>-671900</v>
+        <v>-663100</v>
       </c>
       <c r="G102" s="3">
-        <v>1081800</v>
+        <v>1067700</v>
       </c>
       <c r="H102" s="3">
-        <v>38900</v>
+        <v>38400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2503400</v>
+        <v>2545300</v>
       </c>
       <c r="E8" s="3">
-        <v>1204900</v>
+        <v>1225100</v>
       </c>
       <c r="F8" s="3">
-        <v>762400</v>
+        <v>775200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -757,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2214900</v>
+        <v>2252000</v>
       </c>
       <c r="E9" s="3">
-        <v>1389500</v>
+        <v>1412800</v>
       </c>
       <c r="F9" s="3">
-        <v>801800</v>
+        <v>815200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -793,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>288500</v>
+        <v>293300</v>
       </c>
       <c r="E10" s="3">
-        <v>-184600</v>
+        <v>-187700</v>
       </c>
       <c r="F10" s="3">
-        <v>-39400</v>
+        <v>-40100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>343700</v>
+        <v>349500</v>
       </c>
       <c r="E12" s="3">
-        <v>653100</v>
+        <v>664000</v>
       </c>
       <c r="F12" s="3">
-        <v>599700</v>
+        <v>609700</v>
       </c>
       <c r="G12" s="3">
-        <v>394800</v>
+        <v>401400</v>
       </c>
       <c r="H12" s="3">
-        <v>224400</v>
+        <v>228200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>89500</v>
+        <v>91000</v>
       </c>
       <c r="E15" s="3">
-        <v>99200</v>
+        <v>100900</v>
       </c>
       <c r="F15" s="3">
-        <v>54400</v>
+        <v>55300</v>
       </c>
       <c r="G15" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="H15" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3212900</v>
+        <v>3266700</v>
       </c>
       <c r="E17" s="3">
-        <v>2910900</v>
+        <v>2959600</v>
       </c>
       <c r="F17" s="3">
-        <v>2239900</v>
+        <v>2277400</v>
       </c>
       <c r="G17" s="3">
-        <v>762800</v>
+        <v>775500</v>
       </c>
       <c r="H17" s="3">
-        <v>400700</v>
+        <v>407500</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-709500</v>
+        <v>-721400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1706000</v>
+        <v>-1734600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1477500</v>
+        <v>-1502300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-40700</v>
+        <v>-41300</v>
       </c>
       <c r="E20" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="F20" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1126,13 +1126,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-588800</v>
+        <v>-599000</v>
       </c>
       <c r="E21" s="3">
-        <v>-1527000</v>
+        <v>-1552900</v>
       </c>
       <c r="F21" s="3">
-        <v>-1388600</v>
+        <v>-1412100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65600</v>
+        <v>66700</v>
       </c>
       <c r="E22" s="3">
-        <v>57100</v>
+        <v>58000</v>
       </c>
       <c r="F22" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="G22" s="3">
         <v>2800</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-815700</v>
+        <v>-829400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1738100</v>
+        <v>-1767200</v>
       </c>
       <c r="F23" s="3">
-        <v>-1480800</v>
+        <v>-1505600</v>
       </c>
       <c r="G23" s="3">
-        <v>-771900</v>
+        <v>-784900</v>
       </c>
       <c r="H23" s="3">
-        <v>-395600</v>
+        <v>-402200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1240,7 +1240,7 @@
         <v>1200</v>
       </c>
       <c r="F24" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G24" s="3">
         <v>1200</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-816700</v>
+        <v>-830400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1739300</v>
+        <v>-1768400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1484200</v>
+        <v>-1509100</v>
       </c>
       <c r="G26" s="3">
-        <v>-773200</v>
+        <v>-786100</v>
       </c>
       <c r="H26" s="3">
-        <v>-396200</v>
+        <v>-402900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-863900</v>
+        <v>-878400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1757400</v>
+        <v>-1786800</v>
       </c>
       <c r="F27" s="3">
-        <v>-3592000</v>
+        <v>-3652200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1164300</v>
+        <v>-1183900</v>
       </c>
       <c r="H27" s="3">
-        <v>-541600</v>
+        <v>-550700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>40700</v>
+        <v>41300</v>
       </c>
       <c r="E32" s="3">
-        <v>-24900</v>
+        <v>-25400</v>
       </c>
       <c r="F32" s="3">
-        <v>-15800</v>
+        <v>-16000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-863900</v>
+        <v>-878400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1757400</v>
+        <v>-1786800</v>
       </c>
       <c r="F33" s="3">
-        <v>-3592000</v>
+        <v>-3652200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1164300</v>
+        <v>-1183900</v>
       </c>
       <c r="H33" s="3">
-        <v>-541600</v>
+        <v>-550700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-863900</v>
+        <v>-878400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1757400</v>
+        <v>-1786800</v>
       </c>
       <c r="F35" s="3">
-        <v>-3592000</v>
+        <v>-3652200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1164300</v>
+        <v>-1183900</v>
       </c>
       <c r="H35" s="3">
-        <v>-541600</v>
+        <v>-550700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5916800</v>
+        <v>6015900</v>
       </c>
       <c r="E41" s="3">
-        <v>132900</v>
+        <v>135100</v>
       </c>
       <c r="F41" s="3">
-        <v>482500</v>
+        <v>490600</v>
       </c>
       <c r="G41" s="3">
-        <v>1155800</v>
+        <v>1175100</v>
       </c>
       <c r="H41" s="3">
-        <v>89500</v>
+        <v>91000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>608300</v>
+        <v>618500</v>
       </c>
       <c r="E42" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="F42" s="3">
-        <v>793700</v>
+        <v>807000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>368900</v>
+        <v>375100</v>
       </c>
       <c r="E43" s="3">
-        <v>434200</v>
+        <v>441500</v>
       </c>
       <c r="F43" s="3">
-        <v>308300</v>
+        <v>313500</v>
       </c>
       <c r="G43" s="3">
-        <v>77900</v>
+        <v>79200</v>
       </c>
       <c r="H43" s="3">
-        <v>28200</v>
+        <v>28600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>166500</v>
+        <v>169300</v>
       </c>
       <c r="E44" s="3">
-        <v>137000</v>
+        <v>139300</v>
       </c>
       <c r="F44" s="3">
-        <v>225600</v>
+        <v>229400</v>
       </c>
       <c r="G44" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54400</v>
+        <v>55300</v>
       </c>
       <c r="E45" s="3">
-        <v>37700</v>
+        <v>38300</v>
       </c>
       <c r="F45" s="3">
-        <v>63700</v>
+        <v>64800</v>
       </c>
       <c r="G45" s="3">
-        <v>32100</v>
+        <v>32700</v>
       </c>
       <c r="H45" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7114900</v>
+        <v>7234100</v>
       </c>
       <c r="E46" s="3">
-        <v>758800</v>
+        <v>771500</v>
       </c>
       <c r="F46" s="3">
-        <v>1873900</v>
+        <v>1905300</v>
       </c>
       <c r="G46" s="3">
-        <v>1279600</v>
+        <v>1301000</v>
       </c>
       <c r="H46" s="3">
-        <v>134700</v>
+        <v>137000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>244700</v>
+        <v>248800</v>
       </c>
       <c r="E47" s="3">
-        <v>119000</v>
+        <v>121000</v>
       </c>
       <c r="F47" s="3">
-        <v>112600</v>
+        <v>114400</v>
       </c>
       <c r="G47" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>992000</v>
+        <v>1008600</v>
       </c>
       <c r="E48" s="3">
-        <v>1183500</v>
+        <v>1203300</v>
       </c>
       <c r="F48" s="3">
-        <v>747300</v>
+        <v>759800</v>
       </c>
       <c r="G48" s="3">
-        <v>294300</v>
+        <v>299200</v>
       </c>
       <c r="H48" s="3">
-        <v>128300</v>
+        <v>130400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31500</v>
+        <v>32000</v>
       </c>
       <c r="E49" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="F49" s="3">
-        <v>33400</v>
+        <v>34000</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30600</v>
+        <v>31200</v>
       </c>
       <c r="E52" s="3">
-        <v>151700</v>
+        <v>154200</v>
       </c>
       <c r="F52" s="3">
-        <v>134200</v>
+        <v>136500</v>
       </c>
       <c r="G52" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="H52" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8413800</v>
+        <v>8554700</v>
       </c>
       <c r="E54" s="3">
-        <v>2245300</v>
+        <v>2283000</v>
       </c>
       <c r="F54" s="3">
-        <v>2901400</v>
+        <v>2950000</v>
       </c>
       <c r="G54" s="3">
-        <v>1611900</v>
+        <v>1638900</v>
       </c>
       <c r="H54" s="3">
-        <v>272600</v>
+        <v>277200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1090800</v>
+        <v>1109000</v>
       </c>
       <c r="E57" s="3">
-        <v>651900</v>
+        <v>662800</v>
       </c>
       <c r="F57" s="3">
-        <v>600100</v>
+        <v>610200</v>
       </c>
       <c r="G57" s="3">
-        <v>99300</v>
+        <v>100900</v>
       </c>
       <c r="H57" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>302400</v>
+        <v>307500</v>
       </c>
       <c r="E58" s="3">
-        <v>192200</v>
+        <v>195400</v>
       </c>
       <c r="F58" s="3">
-        <v>318600</v>
+        <v>323900</v>
       </c>
       <c r="G58" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="H58" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>758900</v>
+        <v>771600</v>
       </c>
       <c r="E59" s="3">
-        <v>618500</v>
+        <v>628900</v>
       </c>
       <c r="F59" s="3">
-        <v>404500</v>
+        <v>411300</v>
       </c>
       <c r="G59" s="3">
-        <v>137000</v>
+        <v>139300</v>
       </c>
       <c r="H59" s="3">
-        <v>79500</v>
+        <v>80800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2152100</v>
+        <v>2188100</v>
       </c>
       <c r="E60" s="3">
-        <v>1462600</v>
+        <v>1487100</v>
       </c>
       <c r="F60" s="3">
-        <v>1323200</v>
+        <v>1345400</v>
       </c>
       <c r="G60" s="3">
-        <v>249200</v>
+        <v>253400</v>
       </c>
       <c r="H60" s="3">
-        <v>111900</v>
+        <v>113800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>922900</v>
+        <v>938300</v>
       </c>
       <c r="E61" s="3">
-        <v>1115400</v>
+        <v>1134100</v>
       </c>
       <c r="F61" s="3">
-        <v>179900</v>
+        <v>182900</v>
       </c>
       <c r="G61" s="3">
-        <v>98900</v>
+        <v>100600</v>
       </c>
       <c r="H61" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>432700</v>
+        <v>439900</v>
       </c>
       <c r="E62" s="3">
-        <v>409800</v>
+        <v>416700</v>
       </c>
       <c r="F62" s="3">
-        <v>143300</v>
+        <v>145700</v>
       </c>
       <c r="G62" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="H62" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4230300</v>
+        <v>4301200</v>
       </c>
       <c r="E66" s="3">
-        <v>3215400</v>
+        <v>3269200</v>
       </c>
       <c r="F66" s="3">
-        <v>1848600</v>
+        <v>1879600</v>
       </c>
       <c r="G66" s="3">
-        <v>371600</v>
+        <v>377800</v>
       </c>
       <c r="H66" s="3">
-        <v>125300</v>
+        <v>127400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3026900</v>
+        <v>3077600</v>
       </c>
       <c r="H70" s="3">
-        <v>748600</v>
+        <v>761100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7952800</v>
+        <v>-8086100</v>
       </c>
       <c r="E72" s="3">
-        <v>-7133300</v>
+        <v>-7252800</v>
       </c>
       <c r="F72" s="3">
-        <v>-5395400</v>
+        <v>-5485800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1803400</v>
+        <v>-1833600</v>
       </c>
       <c r="H72" s="3">
-        <v>-627800</v>
+        <v>-638300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4183500</v>
+        <v>4253600</v>
       </c>
       <c r="E76" s="3">
-        <v>-970000</v>
+        <v>-986300</v>
       </c>
       <c r="F76" s="3">
-        <v>1052800</v>
+        <v>1070400</v>
       </c>
       <c r="G76" s="3">
-        <v>-1786600</v>
+        <v>-1816600</v>
       </c>
       <c r="H76" s="3">
-        <v>-601300</v>
+        <v>-611300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-863900</v>
+        <v>-878400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1757400</v>
+        <v>-1786800</v>
       </c>
       <c r="F81" s="3">
-        <v>-3592000</v>
+        <v>-3652200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1164300</v>
+        <v>-1183900</v>
       </c>
       <c r="H81" s="3">
-        <v>-541600</v>
+        <v>-550700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>161100</v>
+        <v>163800</v>
       </c>
       <c r="E83" s="3">
-        <v>153800</v>
+        <v>156400</v>
       </c>
       <c r="F83" s="3">
-        <v>73000</v>
+        <v>74200</v>
       </c>
       <c r="G83" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="H83" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300400</v>
+        <v>305400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1343000</v>
+        <v>-1365500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1218300</v>
+        <v>-1238700</v>
       </c>
       <c r="G89" s="3">
-        <v>-704400</v>
+        <v>-716200</v>
       </c>
       <c r="H89" s="3">
-        <v>-339000</v>
+        <v>-344700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-173600</v>
+        <v>-176600</v>
       </c>
       <c r="E91" s="3">
-        <v>-262800</v>
+        <v>-267200</v>
       </c>
       <c r="F91" s="3">
-        <v>-407100</v>
+        <v>-413900</v>
       </c>
       <c r="G91" s="3">
-        <v>-171500</v>
+        <v>-174400</v>
       </c>
       <c r="H91" s="3">
-        <v>-100800</v>
+        <v>-102500</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-780800</v>
+        <v>-793900</v>
       </c>
       <c r="E94" s="3">
-        <v>520800</v>
+        <v>529500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1222700</v>
+        <v>-1243200</v>
       </c>
       <c r="G94" s="3">
-        <v>-183300</v>
+        <v>-186300</v>
       </c>
       <c r="H94" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6368200</v>
+        <v>6474900</v>
       </c>
       <c r="E100" s="3">
-        <v>476600</v>
+        <v>484500</v>
       </c>
       <c r="F100" s="3">
-        <v>1786600</v>
+        <v>1816600</v>
       </c>
       <c r="G100" s="3">
-        <v>1981300</v>
+        <v>2014500</v>
       </c>
       <c r="H100" s="3">
-        <v>353000</v>
+        <v>358900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-105000</v>
+        <v>-106800</v>
       </c>
       <c r="E101" s="3">
         <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="G101" s="3">
-        <v>-25900</v>
+        <v>-26300</v>
       </c>
       <c r="H101" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5782800</v>
+        <v>5879600</v>
       </c>
       <c r="E102" s="3">
-        <v>-344100</v>
+        <v>-349800</v>
       </c>
       <c r="F102" s="3">
-        <v>-663100</v>
+        <v>-674200</v>
       </c>
       <c r="G102" s="3">
-        <v>1067700</v>
+        <v>1085600</v>
       </c>
       <c r="H102" s="3">
-        <v>38400</v>
+        <v>39100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -721,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2545300</v>
+        <v>2564900</v>
       </c>
       <c r="E8" s="3">
-        <v>1225100</v>
+        <v>1234500</v>
       </c>
       <c r="F8" s="3">
-        <v>775200</v>
+        <v>781100</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -757,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2252000</v>
+        <v>2269300</v>
       </c>
       <c r="E9" s="3">
-        <v>1412800</v>
+        <v>1423600</v>
       </c>
       <c r="F9" s="3">
-        <v>815200</v>
+        <v>821500</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -793,13 +793,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>293300</v>
+        <v>295600</v>
       </c>
       <c r="E10" s="3">
-        <v>-187700</v>
+        <v>-189100</v>
       </c>
       <c r="F10" s="3">
-        <v>-40100</v>
+        <v>-40400</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>349500</v>
+        <v>352200</v>
       </c>
       <c r="E12" s="3">
-        <v>664000</v>
+        <v>669100</v>
       </c>
       <c r="F12" s="3">
-        <v>609700</v>
+        <v>614400</v>
       </c>
       <c r="G12" s="3">
-        <v>401400</v>
+        <v>404500</v>
       </c>
       <c r="H12" s="3">
-        <v>228200</v>
+        <v>229900</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>91000</v>
+        <v>91700</v>
       </c>
       <c r="E15" s="3">
-        <v>100900</v>
+        <v>101700</v>
       </c>
       <c r="F15" s="3">
-        <v>55300</v>
+        <v>55700</v>
       </c>
       <c r="G15" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="H15" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3266700</v>
+        <v>3291800</v>
       </c>
       <c r="E17" s="3">
-        <v>2959600</v>
+        <v>2982300</v>
       </c>
       <c r="F17" s="3">
-        <v>2277400</v>
+        <v>2294900</v>
       </c>
       <c r="G17" s="3">
-        <v>775500</v>
+        <v>781500</v>
       </c>
       <c r="H17" s="3">
-        <v>407500</v>
+        <v>410600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-721400</v>
+        <v>-726900</v>
       </c>
       <c r="E18" s="3">
-        <v>-1734600</v>
+        <v>-1747900</v>
       </c>
       <c r="F18" s="3">
-        <v>-1502300</v>
+        <v>-1513800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41300</v>
+        <v>-41700</v>
       </c>
       <c r="E20" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="F20" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1126,13 +1126,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-599000</v>
+        <v>-602900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1552900</v>
+        <v>-1564200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1412100</v>
+        <v>-1422600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66700</v>
+        <v>67200</v>
       </c>
       <c r="E22" s="3">
-        <v>58000</v>
+        <v>58500</v>
       </c>
       <c r="F22" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="G22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-829400</v>
+        <v>-835800</v>
       </c>
       <c r="E23" s="3">
-        <v>-1767200</v>
+        <v>-1780800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1505600</v>
+        <v>-1517200</v>
       </c>
       <c r="G23" s="3">
-        <v>-784900</v>
+        <v>-790900</v>
       </c>
       <c r="H23" s="3">
-        <v>-402200</v>
+        <v>-405300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-830400</v>
+        <v>-836800</v>
       </c>
       <c r="E26" s="3">
-        <v>-1768400</v>
+        <v>-1782000</v>
       </c>
       <c r="F26" s="3">
-        <v>-1509100</v>
+        <v>-1520600</v>
       </c>
       <c r="G26" s="3">
-        <v>-786100</v>
+        <v>-792100</v>
       </c>
       <c r="H26" s="3">
-        <v>-402900</v>
+        <v>-406000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-878400</v>
+        <v>-885200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1786800</v>
+        <v>-1800500</v>
       </c>
       <c r="F27" s="3">
-        <v>-3652200</v>
+        <v>-3680200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1183900</v>
+        <v>-1192900</v>
       </c>
       <c r="H27" s="3">
-        <v>-550700</v>
+        <v>-554900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41300</v>
+        <v>41700</v>
       </c>
       <c r="E32" s="3">
-        <v>-25400</v>
+        <v>-25600</v>
       </c>
       <c r="F32" s="3">
-        <v>-16000</v>
+        <v>-16100</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-878400</v>
+        <v>-885200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1786800</v>
+        <v>-1800500</v>
       </c>
       <c r="F33" s="3">
-        <v>-3652200</v>
+        <v>-3680200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1183900</v>
+        <v>-1192900</v>
       </c>
       <c r="H33" s="3">
-        <v>-550700</v>
+        <v>-554900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-878400</v>
+        <v>-885200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1786800</v>
+        <v>-1800500</v>
       </c>
       <c r="F35" s="3">
-        <v>-3652200</v>
+        <v>-3680200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1183900</v>
+        <v>-1192900</v>
       </c>
       <c r="H35" s="3">
-        <v>-550700</v>
+        <v>-554900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6015900</v>
+        <v>6062000</v>
       </c>
       <c r="E41" s="3">
-        <v>135100</v>
+        <v>136100</v>
       </c>
       <c r="F41" s="3">
-        <v>490600</v>
+        <v>494400</v>
       </c>
       <c r="G41" s="3">
-        <v>1175100</v>
+        <v>1184100</v>
       </c>
       <c r="H41" s="3">
-        <v>91000</v>
+        <v>91700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,13 +1775,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>618500</v>
+        <v>623300</v>
       </c>
       <c r="E42" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="F42" s="3">
-        <v>807000</v>
+        <v>813200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>375100</v>
+        <v>378000</v>
       </c>
       <c r="E43" s="3">
-        <v>441500</v>
+        <v>444900</v>
       </c>
       <c r="F43" s="3">
-        <v>313500</v>
+        <v>315900</v>
       </c>
       <c r="G43" s="3">
-        <v>79200</v>
+        <v>79800</v>
       </c>
       <c r="H43" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,16 +1847,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>169300</v>
+        <v>170600</v>
       </c>
       <c r="E44" s="3">
-        <v>139300</v>
+        <v>140300</v>
       </c>
       <c r="F44" s="3">
-        <v>229400</v>
+        <v>231200</v>
       </c>
       <c r="G44" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55300</v>
+        <v>55700</v>
       </c>
       <c r="E45" s="3">
-        <v>38300</v>
+        <v>38600</v>
       </c>
       <c r="F45" s="3">
-        <v>64800</v>
+        <v>65300</v>
       </c>
       <c r="G45" s="3">
-        <v>32700</v>
+        <v>32900</v>
       </c>
       <c r="H45" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7234100</v>
+        <v>7289600</v>
       </c>
       <c r="E46" s="3">
-        <v>771500</v>
+        <v>777400</v>
       </c>
       <c r="F46" s="3">
-        <v>1905300</v>
+        <v>1919900</v>
       </c>
       <c r="G46" s="3">
-        <v>1301000</v>
+        <v>1311000</v>
       </c>
       <c r="H46" s="3">
-        <v>137000</v>
+        <v>138000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1955,16 +1955,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>248800</v>
+        <v>250700</v>
       </c>
       <c r="E47" s="3">
-        <v>121000</v>
+        <v>122000</v>
       </c>
       <c r="F47" s="3">
-        <v>114400</v>
+        <v>115300</v>
       </c>
       <c r="G47" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1008600</v>
+        <v>1016400</v>
       </c>
       <c r="E48" s="3">
-        <v>1203300</v>
+        <v>1212500</v>
       </c>
       <c r="F48" s="3">
-        <v>759800</v>
+        <v>765600</v>
       </c>
       <c r="G48" s="3">
-        <v>299200</v>
+        <v>301500</v>
       </c>
       <c r="H48" s="3">
-        <v>130400</v>
+        <v>131400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32000</v>
+        <v>32300</v>
       </c>
       <c r="E49" s="3">
-        <v>32900</v>
+        <v>33200</v>
       </c>
       <c r="F49" s="3">
-        <v>34000</v>
+        <v>34300</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="E52" s="3">
-        <v>154200</v>
+        <v>155400</v>
       </c>
       <c r="F52" s="3">
-        <v>136500</v>
+        <v>137500</v>
       </c>
       <c r="G52" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="H52" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8554700</v>
+        <v>8620300</v>
       </c>
       <c r="E54" s="3">
-        <v>2283000</v>
+        <v>2300500</v>
       </c>
       <c r="F54" s="3">
-        <v>2950000</v>
+        <v>2972600</v>
       </c>
       <c r="G54" s="3">
-        <v>1638900</v>
+        <v>1651400</v>
       </c>
       <c r="H54" s="3">
-        <v>277200</v>
+        <v>279300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1109000</v>
+        <v>1117500</v>
       </c>
       <c r="E57" s="3">
-        <v>662800</v>
+        <v>667900</v>
       </c>
       <c r="F57" s="3">
-        <v>610200</v>
+        <v>614800</v>
       </c>
       <c r="G57" s="3">
-        <v>100900</v>
+        <v>101700</v>
       </c>
       <c r="H57" s="3">
-        <v>29900</v>
+        <v>30100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,16 +2311,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>307500</v>
+        <v>309800</v>
       </c>
       <c r="E58" s="3">
-        <v>195400</v>
+        <v>196900</v>
       </c>
       <c r="F58" s="3">
-        <v>323900</v>
+        <v>326400</v>
       </c>
       <c r="G58" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="H58" s="3">
         <v>3100</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>771600</v>
+        <v>777500</v>
       </c>
       <c r="E59" s="3">
-        <v>628900</v>
+        <v>633700</v>
       </c>
       <c r="F59" s="3">
-        <v>411300</v>
+        <v>414500</v>
       </c>
       <c r="G59" s="3">
-        <v>139300</v>
+        <v>140400</v>
       </c>
       <c r="H59" s="3">
-        <v>80800</v>
+        <v>81500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2188100</v>
+        <v>2204900</v>
       </c>
       <c r="E60" s="3">
-        <v>1487100</v>
+        <v>1498500</v>
       </c>
       <c r="F60" s="3">
-        <v>1345400</v>
+        <v>1355700</v>
       </c>
       <c r="G60" s="3">
-        <v>253400</v>
+        <v>255300</v>
       </c>
       <c r="H60" s="3">
-        <v>113800</v>
+        <v>114600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,16 +2419,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>938300</v>
+        <v>945500</v>
       </c>
       <c r="E61" s="3">
-        <v>1134100</v>
+        <v>1142700</v>
       </c>
       <c r="F61" s="3">
-        <v>182900</v>
+        <v>184300</v>
       </c>
       <c r="G61" s="3">
-        <v>100600</v>
+        <v>101300</v>
       </c>
       <c r="H61" s="3">
         <v>5900</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>439900</v>
+        <v>443300</v>
       </c>
       <c r="E62" s="3">
-        <v>416700</v>
+        <v>419900</v>
       </c>
       <c r="F62" s="3">
-        <v>145700</v>
+        <v>146800</v>
       </c>
       <c r="G62" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="H62" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4301200</v>
+        <v>4334200</v>
       </c>
       <c r="E66" s="3">
-        <v>3269200</v>
+        <v>3294300</v>
       </c>
       <c r="F66" s="3">
-        <v>1879600</v>
+        <v>1894000</v>
       </c>
       <c r="G66" s="3">
-        <v>377800</v>
+        <v>380700</v>
       </c>
       <c r="H66" s="3">
-        <v>127400</v>
+        <v>128400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3077600</v>
+        <v>3101200</v>
       </c>
       <c r="H70" s="3">
-        <v>761100</v>
+        <v>767000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8086100</v>
+        <v>-8148100</v>
       </c>
       <c r="E72" s="3">
-        <v>-7252800</v>
+        <v>-7308400</v>
       </c>
       <c r="F72" s="3">
-        <v>-5485800</v>
+        <v>-5527900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1833600</v>
+        <v>-1847700</v>
       </c>
       <c r="H72" s="3">
-        <v>-638300</v>
+        <v>-643200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4253600</v>
+        <v>4286200</v>
       </c>
       <c r="E76" s="3">
-        <v>-986300</v>
+        <v>-993800</v>
       </c>
       <c r="F76" s="3">
-        <v>1070400</v>
+        <v>1078600</v>
       </c>
       <c r="G76" s="3">
-        <v>-1816600</v>
+        <v>-1830500</v>
       </c>
       <c r="H76" s="3">
-        <v>-611300</v>
+        <v>-616100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-878400</v>
+        <v>-885200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1786800</v>
+        <v>-1800500</v>
       </c>
       <c r="F81" s="3">
-        <v>-3652200</v>
+        <v>-3680200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1183900</v>
+        <v>-1192900</v>
       </c>
       <c r="H81" s="3">
-        <v>-550700</v>
+        <v>-554900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>163800</v>
+        <v>165100</v>
       </c>
       <c r="E83" s="3">
-        <v>156400</v>
+        <v>157600</v>
       </c>
       <c r="F83" s="3">
-        <v>74200</v>
+        <v>74800</v>
       </c>
       <c r="G83" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="H83" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>305400</v>
+        <v>307800</v>
       </c>
       <c r="E89" s="3">
-        <v>-1365500</v>
+        <v>-1375900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1238700</v>
+        <v>-1248200</v>
       </c>
       <c r="G89" s="3">
-        <v>-716200</v>
+        <v>-721700</v>
       </c>
       <c r="H89" s="3">
-        <v>-344700</v>
+        <v>-347300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-176600</v>
+        <v>-177900</v>
       </c>
       <c r="E91" s="3">
-        <v>-267200</v>
+        <v>-269300</v>
       </c>
       <c r="F91" s="3">
-        <v>-413900</v>
+        <v>-417100</v>
       </c>
       <c r="G91" s="3">
-        <v>-174400</v>
+        <v>-175700</v>
       </c>
       <c r="H91" s="3">
-        <v>-102500</v>
+        <v>-103200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-793900</v>
+        <v>-800000</v>
       </c>
       <c r="E94" s="3">
-        <v>529500</v>
+        <v>533600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1243200</v>
+        <v>-1252700</v>
       </c>
       <c r="G94" s="3">
-        <v>-186300</v>
+        <v>-187800</v>
       </c>
       <c r="H94" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6474900</v>
+        <v>6524500</v>
       </c>
       <c r="E100" s="3">
-        <v>484500</v>
+        <v>488300</v>
       </c>
       <c r="F100" s="3">
-        <v>1816600</v>
+        <v>1830500</v>
       </c>
       <c r="G100" s="3">
-        <v>2014500</v>
+        <v>2030000</v>
       </c>
       <c r="H100" s="3">
-        <v>358900</v>
+        <v>361700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-106800</v>
+        <v>-107600</v>
       </c>
       <c r="E101" s="3">
         <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="G101" s="3">
-        <v>-26300</v>
+        <v>-26500</v>
       </c>
       <c r="H101" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5879600</v>
+        <v>5924700</v>
       </c>
       <c r="E102" s="3">
-        <v>-349800</v>
+        <v>-352500</v>
       </c>
       <c r="F102" s="3">
-        <v>-674200</v>
+        <v>-679400</v>
       </c>
       <c r="G102" s="3">
-        <v>1085600</v>
+        <v>1093900</v>
       </c>
       <c r="H102" s="3">
-        <v>39100</v>
+        <v>39400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,23 +714,26 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2564900</v>
+        <v>5325100</v>
       </c>
       <c r="E8" s="3">
-        <v>1234500</v>
+        <v>2395800</v>
       </c>
       <c r="F8" s="3">
-        <v>781100</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>1153100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>729600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -747,26 +750,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2269300</v>
+        <v>4319900</v>
       </c>
       <c r="E9" s="3">
-        <v>1423600</v>
+        <v>2119700</v>
       </c>
       <c r="F9" s="3">
-        <v>821500</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>1329700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>767300</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -786,23 +792,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>295600</v>
+        <v>1005200</v>
       </c>
       <c r="E10" s="3">
-        <v>-189100</v>
+        <v>276100</v>
       </c>
       <c r="F10" s="3">
-        <v>-40400</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>-176700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-37700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,28 +851,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>352200</v>
+        <v>645100</v>
       </c>
       <c r="E12" s="3">
-        <v>669100</v>
+        <v>328900</v>
       </c>
       <c r="F12" s="3">
-        <v>614400</v>
+        <v>625000</v>
       </c>
       <c r="G12" s="3">
-        <v>404500</v>
+        <v>573900</v>
       </c>
       <c r="H12" s="3">
-        <v>229900</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>377800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>214800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,29 +965,32 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>91700</v>
+        <v>81300</v>
       </c>
       <c r="E15" s="3">
-        <v>101700</v>
+        <v>85600</v>
       </c>
       <c r="F15" s="3">
-        <v>55700</v>
+        <v>95000</v>
       </c>
       <c r="G15" s="3">
-        <v>26500</v>
+        <v>52000</v>
       </c>
       <c r="H15" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>24700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6800</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,28 +1021,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3291800</v>
+        <v>5987600</v>
       </c>
       <c r="E17" s="3">
-        <v>2982300</v>
+        <v>3074800</v>
       </c>
       <c r="F17" s="3">
-        <v>2294900</v>
+        <v>2785700</v>
       </c>
       <c r="G17" s="3">
-        <v>781500</v>
+        <v>2143600</v>
       </c>
       <c r="H17" s="3">
-        <v>410600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>730000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>383500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1031,23 +1057,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-726900</v>
+        <v>-662600</v>
       </c>
       <c r="E18" s="3">
-        <v>-1747900</v>
+        <v>-679000</v>
       </c>
       <c r="F18" s="3">
-        <v>-1513800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-1632600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1414000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,22 +1116,23 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41700</v>
+        <v>170800</v>
       </c>
       <c r="E20" s="3">
-        <v>25600</v>
+        <v>-38900</v>
       </c>
       <c r="F20" s="3">
-        <v>16100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>23900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1119,23 +1152,26 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-602900</v>
+        <v>-237600</v>
       </c>
       <c r="E21" s="3">
-        <v>-1564200</v>
+        <v>-562100</v>
       </c>
       <c r="F21" s="3">
-        <v>-1422600</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-1460100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1328300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1155,29 +1191,32 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>67200</v>
+        <v>93900</v>
       </c>
       <c r="E22" s="3">
-        <v>58500</v>
+        <v>62800</v>
       </c>
       <c r="F22" s="3">
-        <v>19500</v>
+        <v>54600</v>
       </c>
       <c r="G22" s="3">
-        <v>2900</v>
+        <v>18200</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1191,29 +1230,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-835800</v>
+        <v>-585700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1780800</v>
+        <v>-780700</v>
       </c>
       <c r="F23" s="3">
-        <v>-1517200</v>
+        <v>-1663400</v>
       </c>
       <c r="G23" s="3">
-        <v>-790900</v>
+        <v>-1417200</v>
       </c>
       <c r="H23" s="3">
-        <v>-405300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-738800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-378600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1269,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>6200</v>
       </c>
       <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
-        <v>3500</v>
-      </c>
       <c r="G24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
-        <v>700</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,29 +1347,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-836800</v>
+        <v>-591900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1782000</v>
+        <v>-781600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1520600</v>
+        <v>-1664500</v>
       </c>
       <c r="G26" s="3">
-        <v>-792100</v>
+        <v>-1420400</v>
       </c>
       <c r="H26" s="3">
-        <v>-406000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-739900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-379200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1335,29 +1386,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-885200</v>
+        <v>-1557900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1800500</v>
+        <v>-826800</v>
       </c>
       <c r="F27" s="3">
-        <v>-3680200</v>
+        <v>-1681800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1192900</v>
+        <v>-3437600</v>
       </c>
       <c r="H27" s="3">
-        <v>-554900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-1114300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-518300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,23 +1581,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41700</v>
+        <v>-170800</v>
       </c>
       <c r="E32" s="3">
-        <v>-25600</v>
+        <v>38900</v>
       </c>
       <c r="F32" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-23900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-15100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1551,29 +1620,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-885200</v>
+        <v>-1557900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1800500</v>
+        <v>-826800</v>
       </c>
       <c r="F33" s="3">
-        <v>-3680200</v>
+        <v>-1681800</v>
       </c>
       <c r="G33" s="3">
-        <v>-1192900</v>
+        <v>-3437600</v>
       </c>
       <c r="H33" s="3">
-        <v>-554900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-1114300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-518300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,29 +1698,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-885200</v>
+        <v>-1557900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1800500</v>
+        <v>-826800</v>
       </c>
       <c r="F35" s="3">
-        <v>-3680200</v>
+        <v>-1681800</v>
       </c>
       <c r="G35" s="3">
-        <v>-1192900</v>
+        <v>-3437600</v>
       </c>
       <c r="H35" s="3">
-        <v>-554900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-1114300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-518300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1659,35 +1737,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6062000</v>
+        <v>2259600</v>
       </c>
       <c r="E41" s="3">
-        <v>136100</v>
+        <v>5662400</v>
       </c>
       <c r="F41" s="3">
-        <v>494400</v>
+        <v>127100</v>
       </c>
       <c r="G41" s="3">
-        <v>1184100</v>
+        <v>461800</v>
       </c>
       <c r="H41" s="3">
-        <v>91700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>1106100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>85700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,23 +1854,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>623300</v>
+        <v>5460800</v>
       </c>
       <c r="E42" s="3">
-        <v>17500</v>
+        <v>582200</v>
       </c>
       <c r="F42" s="3">
-        <v>813200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>16400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>759600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1801,32 +1890,35 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>378000</v>
+        <v>826900</v>
       </c>
       <c r="E43" s="3">
-        <v>444900</v>
+        <v>353100</v>
       </c>
       <c r="F43" s="3">
-        <v>315900</v>
+        <v>415500</v>
       </c>
       <c r="G43" s="3">
-        <v>79800</v>
+        <v>295000</v>
       </c>
       <c r="H43" s="3">
-        <v>28800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>26900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,29 +1932,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>170600</v>
+        <v>303000</v>
       </c>
       <c r="E44" s="3">
-        <v>140300</v>
+        <v>159400</v>
       </c>
       <c r="F44" s="3">
-        <v>231200</v>
+        <v>131100</v>
       </c>
       <c r="G44" s="3">
-        <v>14100</v>
+        <v>215900</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>13200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55700</v>
+        <v>527900</v>
       </c>
       <c r="E45" s="3">
-        <v>38600</v>
+        <v>52000</v>
       </c>
       <c r="F45" s="3">
-        <v>65300</v>
+        <v>36100</v>
       </c>
       <c r="G45" s="3">
-        <v>32900</v>
+        <v>61000</v>
       </c>
       <c r="H45" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>30700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>16300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7289600</v>
+        <v>9378200</v>
       </c>
       <c r="E46" s="3">
-        <v>777400</v>
+        <v>6809000</v>
       </c>
       <c r="F46" s="3">
-        <v>1919900</v>
+        <v>726200</v>
       </c>
       <c r="G46" s="3">
-        <v>1311000</v>
+        <v>1793300</v>
       </c>
       <c r="H46" s="3">
-        <v>138000</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>1224600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>128900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,29 +2049,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>250700</v>
+        <v>1114800</v>
       </c>
       <c r="E47" s="3">
-        <v>122000</v>
+        <v>234200</v>
       </c>
       <c r="F47" s="3">
-        <v>115300</v>
+        <v>113900</v>
       </c>
       <c r="G47" s="3">
-        <v>15300</v>
+        <v>107700</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>14300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1984,29 +2088,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1016400</v>
+        <v>1540500</v>
       </c>
       <c r="E48" s="3">
-        <v>1212500</v>
+        <v>949400</v>
       </c>
       <c r="F48" s="3">
-        <v>765600</v>
+        <v>1132600</v>
       </c>
       <c r="G48" s="3">
-        <v>301500</v>
+        <v>715200</v>
       </c>
       <c r="H48" s="3">
-        <v>131400</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>281600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>122800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2020,29 +2127,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32300</v>
+        <v>29300</v>
       </c>
       <c r="E49" s="3">
-        <v>33200</v>
+        <v>30100</v>
       </c>
       <c r="F49" s="3">
-        <v>34300</v>
+        <v>31000</v>
       </c>
       <c r="G49" s="3">
+        <v>32000</v>
+      </c>
+      <c r="H49" s="3">
         <v>700</v>
       </c>
-      <c r="H49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,29 +2244,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31400</v>
+        <v>150900</v>
       </c>
       <c r="E52" s="3">
-        <v>155400</v>
+        <v>29300</v>
       </c>
       <c r="F52" s="3">
-        <v>137500</v>
+        <v>145100</v>
       </c>
       <c r="G52" s="3">
-        <v>22900</v>
+        <v>128500</v>
       </c>
       <c r="H52" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>21400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8620300</v>
+        <v>12213700</v>
       </c>
       <c r="E54" s="3">
-        <v>2300500</v>
+        <v>8052000</v>
       </c>
       <c r="F54" s="3">
-        <v>2972600</v>
+        <v>2148800</v>
       </c>
       <c r="G54" s="3">
-        <v>1651400</v>
+        <v>2776600</v>
       </c>
       <c r="H54" s="3">
-        <v>279300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>1542600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>260900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,28 +2398,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1117500</v>
+        <v>2077400</v>
       </c>
       <c r="E57" s="3">
-        <v>667900</v>
+        <v>1043900</v>
       </c>
       <c r="F57" s="3">
-        <v>614800</v>
+        <v>623800</v>
       </c>
       <c r="G57" s="3">
-        <v>101700</v>
+        <v>574300</v>
       </c>
       <c r="H57" s="3">
-        <v>30100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>95000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>28100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>309800</v>
+        <v>1079500</v>
       </c>
       <c r="E58" s="3">
-        <v>196900</v>
+        <v>289400</v>
       </c>
       <c r="F58" s="3">
-        <v>326400</v>
+        <v>184000</v>
       </c>
       <c r="G58" s="3">
-        <v>13200</v>
+        <v>304900</v>
       </c>
       <c r="H58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>12400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2340,29 +2473,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>777500</v>
+        <v>1145700</v>
       </c>
       <c r="E59" s="3">
-        <v>633700</v>
+        <v>726300</v>
       </c>
       <c r="F59" s="3">
-        <v>414500</v>
+        <v>592000</v>
       </c>
       <c r="G59" s="3">
-        <v>140400</v>
+        <v>387100</v>
       </c>
       <c r="H59" s="3">
-        <v>81500</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>131100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>76100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2204900</v>
+        <v>4302600</v>
       </c>
       <c r="E60" s="3">
-        <v>1498500</v>
+        <v>2059500</v>
       </c>
       <c r="F60" s="3">
-        <v>1355700</v>
+        <v>1399800</v>
       </c>
       <c r="G60" s="3">
-        <v>255300</v>
+        <v>1266300</v>
       </c>
       <c r="H60" s="3">
-        <v>114600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>238500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>107100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,29 +2551,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>945500</v>
+        <v>1439800</v>
       </c>
       <c r="E61" s="3">
-        <v>1142700</v>
+        <v>883200</v>
       </c>
       <c r="F61" s="3">
-        <v>184300</v>
+        <v>1067400</v>
       </c>
       <c r="G61" s="3">
-        <v>101300</v>
+        <v>172100</v>
       </c>
       <c r="H61" s="3">
-        <v>5900</v>
+        <v>94700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2448,29 +2590,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>443300</v>
+        <v>862200</v>
       </c>
       <c r="E62" s="3">
-        <v>419900</v>
+        <v>414100</v>
       </c>
       <c r="F62" s="3">
-        <v>146800</v>
+        <v>392200</v>
       </c>
       <c r="G62" s="3">
-        <v>22300</v>
+        <v>137200</v>
       </c>
       <c r="H62" s="3">
-        <v>9700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4334200</v>
+        <v>7098900</v>
       </c>
       <c r="E66" s="3">
-        <v>3294300</v>
+        <v>4048400</v>
       </c>
       <c r="F66" s="3">
-        <v>1894000</v>
+        <v>3077100</v>
       </c>
       <c r="G66" s="3">
-        <v>380700</v>
+        <v>1769100</v>
       </c>
       <c r="H66" s="3">
-        <v>128400</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>355600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>119900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>3101200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>767000</v>
+        <v>2896800</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>716400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8148100</v>
+        <v>-8198200</v>
       </c>
       <c r="E72" s="3">
-        <v>-7308400</v>
+        <v>-7610900</v>
       </c>
       <c r="F72" s="3">
-        <v>-5527900</v>
+        <v>-6826600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1847700</v>
+        <v>-5163500</v>
       </c>
       <c r="H72" s="3">
-        <v>-643200</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-1725900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-600800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,29 +3114,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4286200</v>
+        <v>5114900</v>
       </c>
       <c r="E76" s="3">
-        <v>-993800</v>
+        <v>4003600</v>
       </c>
       <c r="F76" s="3">
-        <v>1078600</v>
+        <v>-928300</v>
       </c>
       <c r="G76" s="3">
-        <v>-1830500</v>
+        <v>1007500</v>
       </c>
       <c r="H76" s="3">
-        <v>-616100</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-1709900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-575400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3192,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,29 +3236,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-885200</v>
+        <v>-1557900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1800500</v>
+        <v>-826800</v>
       </c>
       <c r="F81" s="3">
-        <v>-3680200</v>
+        <v>-1681800</v>
       </c>
       <c r="G81" s="3">
-        <v>-1192900</v>
+        <v>-3437600</v>
       </c>
       <c r="H81" s="3">
-        <v>-554900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-1114300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-518300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,28 +3295,29 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>165100</v>
+        <v>251700</v>
       </c>
       <c r="E83" s="3">
-        <v>157600</v>
+        <v>154200</v>
       </c>
       <c r="F83" s="3">
-        <v>74800</v>
+        <v>147200</v>
       </c>
       <c r="G83" s="3">
-        <v>26500</v>
+        <v>69900</v>
       </c>
       <c r="H83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>24700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>6800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>307800</v>
+        <v>289800</v>
       </c>
       <c r="E89" s="3">
-        <v>-1375900</v>
+        <v>287500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1248200</v>
+        <v>-1285200</v>
       </c>
       <c r="G89" s="3">
-        <v>-721700</v>
+        <v>-1165900</v>
       </c>
       <c r="H89" s="3">
-        <v>-347300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-674100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-324400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,28 +3585,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-177900</v>
+        <v>-601000</v>
       </c>
       <c r="E91" s="3">
-        <v>-269300</v>
+        <v>-166200</v>
       </c>
       <c r="F91" s="3">
-        <v>-417100</v>
+        <v>-251500</v>
       </c>
       <c r="G91" s="3">
-        <v>-175700</v>
+        <v>-389600</v>
       </c>
       <c r="H91" s="3">
-        <v>-103200</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-164100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-96400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-800000</v>
+        <v>-5859700</v>
       </c>
       <c r="E94" s="3">
-        <v>533600</v>
+        <v>-747300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1252700</v>
+        <v>498400</v>
       </c>
       <c r="G94" s="3">
-        <v>-187800</v>
+        <v>-1170200</v>
       </c>
       <c r="H94" s="3">
-        <v>18600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-175400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>17400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6524500</v>
+        <v>2671500</v>
       </c>
       <c r="E100" s="3">
-        <v>488300</v>
+        <v>6094400</v>
       </c>
       <c r="F100" s="3">
-        <v>1830500</v>
+        <v>456100</v>
       </c>
       <c r="G100" s="3">
-        <v>2030000</v>
+        <v>1709800</v>
       </c>
       <c r="H100" s="3">
-        <v>361700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>1896100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>337900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,29 +3950,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-107600</v>
+        <v>-73800</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>-100500</v>
       </c>
       <c r="F101" s="3">
-        <v>-9000</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>-26500</v>
+        <v>-8400</v>
       </c>
       <c r="H101" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>-24800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>6000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3741,29 +3989,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5924700</v>
+        <v>-2972300</v>
       </c>
       <c r="E102" s="3">
-        <v>-352500</v>
+        <v>5534100</v>
       </c>
       <c r="F102" s="3">
-        <v>-679400</v>
+        <v>-329300</v>
       </c>
       <c r="G102" s="3">
-        <v>1093900</v>
+        <v>-634600</v>
       </c>
       <c r="H102" s="3">
-        <v>39400</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>1021800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>36800</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -724,16 +724,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5325100</v>
+        <v>5277000</v>
       </c>
       <c r="E8" s="3">
-        <v>2395800</v>
+        <v>2374100</v>
       </c>
       <c r="F8" s="3">
-        <v>1153100</v>
+        <v>1142700</v>
       </c>
       <c r="G8" s="3">
-        <v>729600</v>
+        <v>723000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -763,16 +763,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4319900</v>
+        <v>4280900</v>
       </c>
       <c r="E9" s="3">
-        <v>2119700</v>
+        <v>2100600</v>
       </c>
       <c r="F9" s="3">
-        <v>1329700</v>
+        <v>1317700</v>
       </c>
       <c r="G9" s="3">
-        <v>767300</v>
+        <v>760400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -802,16 +802,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1005200</v>
+        <v>996100</v>
       </c>
       <c r="E10" s="3">
-        <v>276100</v>
+        <v>273600</v>
       </c>
       <c r="F10" s="3">
-        <v>-176700</v>
+        <v>-175100</v>
       </c>
       <c r="G10" s="3">
-        <v>-37700</v>
+        <v>-37400</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>645100</v>
+        <v>639300</v>
       </c>
       <c r="E12" s="3">
-        <v>328900</v>
+        <v>326000</v>
       </c>
       <c r="F12" s="3">
-        <v>625000</v>
+        <v>619400</v>
       </c>
       <c r="G12" s="3">
-        <v>573900</v>
+        <v>568700</v>
       </c>
       <c r="H12" s="3">
-        <v>377800</v>
+        <v>374400</v>
       </c>
       <c r="I12" s="3">
-        <v>214800</v>
+        <v>212800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -975,22 +975,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>81300</v>
+        <v>80600</v>
       </c>
       <c r="E15" s="3">
-        <v>85600</v>
+        <v>84800</v>
       </c>
       <c r="F15" s="3">
-        <v>95000</v>
+        <v>94100</v>
       </c>
       <c r="G15" s="3">
-        <v>52000</v>
+        <v>51600</v>
       </c>
       <c r="H15" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I15" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5987600</v>
+        <v>5933600</v>
       </c>
       <c r="E17" s="3">
-        <v>3074800</v>
+        <v>3047000</v>
       </c>
       <c r="F17" s="3">
-        <v>2785700</v>
+        <v>2760600</v>
       </c>
       <c r="G17" s="3">
-        <v>2143600</v>
+        <v>2124300</v>
       </c>
       <c r="H17" s="3">
-        <v>730000</v>
+        <v>723400</v>
       </c>
       <c r="I17" s="3">
-        <v>383500</v>
+        <v>380000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,16 +1067,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-662600</v>
+        <v>-656600</v>
       </c>
       <c r="E18" s="3">
-        <v>-679000</v>
+        <v>-672900</v>
       </c>
       <c r="F18" s="3">
-        <v>-1632600</v>
+        <v>-1617900</v>
       </c>
       <c r="G18" s="3">
-        <v>-1414000</v>
+        <v>-1401200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>170800</v>
+        <v>169300</v>
       </c>
       <c r="E20" s="3">
-        <v>-38900</v>
+        <v>-38600</v>
       </c>
       <c r="F20" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="G20" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-237600</v>
+        <v>-238300</v>
       </c>
       <c r="E21" s="3">
-        <v>-562100</v>
+        <v>-558800</v>
       </c>
       <c r="F21" s="3">
-        <v>-1460100</v>
+        <v>-1448600</v>
       </c>
       <c r="G21" s="3">
-        <v>-1328300</v>
+        <v>-1317200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>93900</v>
+        <v>93100</v>
       </c>
       <c r="E22" s="3">
-        <v>62800</v>
+        <v>62200</v>
       </c>
       <c r="F22" s="3">
-        <v>54600</v>
+        <v>54100</v>
       </c>
       <c r="G22" s="3">
-        <v>18200</v>
+        <v>18100</v>
       </c>
       <c r="H22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-585700</v>
+        <v>-580400</v>
       </c>
       <c r="E23" s="3">
-        <v>-780700</v>
+        <v>-773600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1663400</v>
+        <v>-1648400</v>
       </c>
       <c r="G23" s="3">
-        <v>-1417200</v>
+        <v>-1404400</v>
       </c>
       <c r="H23" s="3">
-        <v>-738800</v>
+        <v>-732100</v>
       </c>
       <c r="I23" s="3">
-        <v>-378600</v>
+        <v>-375100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-591900</v>
+        <v>-586600</v>
       </c>
       <c r="E26" s="3">
-        <v>-781600</v>
+        <v>-774600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1664500</v>
+        <v>-1649500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1420400</v>
+        <v>-1407600</v>
       </c>
       <c r="H26" s="3">
-        <v>-739900</v>
+        <v>-733200</v>
       </c>
       <c r="I26" s="3">
-        <v>-379200</v>
+        <v>-375800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1557900</v>
+        <v>-1543900</v>
       </c>
       <c r="E27" s="3">
-        <v>-826800</v>
+        <v>-819300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1681800</v>
+        <v>-1666700</v>
       </c>
       <c r="G27" s="3">
-        <v>-3437600</v>
+        <v>-3406600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1114300</v>
+        <v>-1104200</v>
       </c>
       <c r="I27" s="3">
-        <v>-518300</v>
+        <v>-513700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,16 +1591,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-170800</v>
+        <v>-169300</v>
       </c>
       <c r="E32" s="3">
-        <v>38900</v>
+        <v>38600</v>
       </c>
       <c r="F32" s="3">
-        <v>-23900</v>
+        <v>-23700</v>
       </c>
       <c r="G32" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1557900</v>
+        <v>-1543900</v>
       </c>
       <c r="E33" s="3">
-        <v>-826800</v>
+        <v>-819300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1681800</v>
+        <v>-1666700</v>
       </c>
       <c r="G33" s="3">
-        <v>-3437600</v>
+        <v>-3406600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1114300</v>
+        <v>-1104200</v>
       </c>
       <c r="I33" s="3">
-        <v>-518300</v>
+        <v>-513700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1557900</v>
+        <v>-1543900</v>
       </c>
       <c r="E35" s="3">
-        <v>-826800</v>
+        <v>-819300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1681800</v>
+        <v>-1666700</v>
       </c>
       <c r="G35" s="3">
-        <v>-3437600</v>
+        <v>-3406600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1114300</v>
+        <v>-1104200</v>
       </c>
       <c r="I35" s="3">
-        <v>-518300</v>
+        <v>-513700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2259600</v>
+        <v>2239200</v>
       </c>
       <c r="E41" s="3">
-        <v>5662400</v>
+        <v>5611300</v>
       </c>
       <c r="F41" s="3">
-        <v>127100</v>
+        <v>126000</v>
       </c>
       <c r="G41" s="3">
-        <v>461800</v>
+        <v>457600</v>
       </c>
       <c r="H41" s="3">
-        <v>1106100</v>
+        <v>1096100</v>
       </c>
       <c r="I41" s="3">
-        <v>85700</v>
+        <v>84900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,16 +1864,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5460800</v>
+        <v>5411500</v>
       </c>
       <c r="E42" s="3">
-        <v>582200</v>
+        <v>576900</v>
       </c>
       <c r="F42" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="G42" s="3">
-        <v>759600</v>
+        <v>752700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>826900</v>
+        <v>819500</v>
       </c>
       <c r="E43" s="3">
-        <v>353100</v>
+        <v>349900</v>
       </c>
       <c r="F43" s="3">
-        <v>415500</v>
+        <v>411800</v>
       </c>
       <c r="G43" s="3">
-        <v>295000</v>
+        <v>292400</v>
       </c>
       <c r="H43" s="3">
-        <v>74600</v>
+        <v>73900</v>
       </c>
       <c r="I43" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,19 +1942,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>303000</v>
+        <v>300300</v>
       </c>
       <c r="E44" s="3">
-        <v>159400</v>
+        <v>157900</v>
       </c>
       <c r="F44" s="3">
-        <v>131100</v>
+        <v>129900</v>
       </c>
       <c r="G44" s="3">
-        <v>215900</v>
+        <v>214000</v>
       </c>
       <c r="H44" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>527900</v>
+        <v>523100</v>
       </c>
       <c r="E45" s="3">
-        <v>52000</v>
+        <v>51600</v>
       </c>
       <c r="F45" s="3">
-        <v>36100</v>
+        <v>35700</v>
       </c>
       <c r="G45" s="3">
-        <v>61000</v>
+        <v>60400</v>
       </c>
       <c r="H45" s="3">
-        <v>30700</v>
+        <v>30500</v>
       </c>
       <c r="I45" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9378200</v>
+        <v>9293500</v>
       </c>
       <c r="E46" s="3">
-        <v>6809000</v>
+        <v>6747600</v>
       </c>
       <c r="F46" s="3">
-        <v>726200</v>
+        <v>719600</v>
       </c>
       <c r="G46" s="3">
-        <v>1793300</v>
+        <v>1777100</v>
       </c>
       <c r="H46" s="3">
-        <v>1224600</v>
+        <v>1213500</v>
       </c>
       <c r="I46" s="3">
-        <v>128900</v>
+        <v>127800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,19 +2059,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1114800</v>
+        <v>1104700</v>
       </c>
       <c r="E47" s="3">
-        <v>234200</v>
+        <v>232100</v>
       </c>
       <c r="F47" s="3">
-        <v>113900</v>
+        <v>112900</v>
       </c>
       <c r="G47" s="3">
-        <v>107700</v>
+        <v>106700</v>
       </c>
       <c r="H47" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1540500</v>
+        <v>1526600</v>
       </c>
       <c r="E48" s="3">
-        <v>949400</v>
+        <v>940800</v>
       </c>
       <c r="F48" s="3">
-        <v>1132600</v>
+        <v>1122400</v>
       </c>
       <c r="G48" s="3">
-        <v>715200</v>
+        <v>708700</v>
       </c>
       <c r="H48" s="3">
-        <v>281600</v>
+        <v>279100</v>
       </c>
       <c r="I48" s="3">
-        <v>122800</v>
+        <v>121600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,16 +2137,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29300</v>
+        <v>29100</v>
       </c>
       <c r="E49" s="3">
-        <v>30100</v>
+        <v>29900</v>
       </c>
       <c r="F49" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="G49" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>150900</v>
+        <v>149600</v>
       </c>
       <c r="E52" s="3">
-        <v>29300</v>
+        <v>29100</v>
       </c>
       <c r="F52" s="3">
-        <v>145100</v>
+        <v>143800</v>
       </c>
       <c r="G52" s="3">
-        <v>128500</v>
+        <v>127300</v>
       </c>
       <c r="H52" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="I52" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12213700</v>
+        <v>12103500</v>
       </c>
       <c r="E54" s="3">
-        <v>8052000</v>
+        <v>7979400</v>
       </c>
       <c r="F54" s="3">
-        <v>2148800</v>
+        <v>2129400</v>
       </c>
       <c r="G54" s="3">
-        <v>2776600</v>
+        <v>2751600</v>
       </c>
       <c r="H54" s="3">
-        <v>1542600</v>
+        <v>1528600</v>
       </c>
       <c r="I54" s="3">
-        <v>260900</v>
+        <v>258500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2077400</v>
+        <v>2058700</v>
       </c>
       <c r="E57" s="3">
-        <v>1043900</v>
+        <v>1034400</v>
       </c>
       <c r="F57" s="3">
-        <v>623800</v>
+        <v>618200</v>
       </c>
       <c r="G57" s="3">
-        <v>574300</v>
+        <v>569100</v>
       </c>
       <c r="H57" s="3">
-        <v>95000</v>
+        <v>94200</v>
       </c>
       <c r="I57" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,19 +2444,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1079500</v>
+        <v>1069800</v>
       </c>
       <c r="E58" s="3">
-        <v>289400</v>
+        <v>286800</v>
       </c>
       <c r="F58" s="3">
-        <v>184000</v>
+        <v>182300</v>
       </c>
       <c r="G58" s="3">
-        <v>304900</v>
+        <v>302100</v>
       </c>
       <c r="H58" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="I58" s="3">
         <v>2900</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1145700</v>
+        <v>1135300</v>
       </c>
       <c r="E59" s="3">
-        <v>726300</v>
+        <v>719700</v>
       </c>
       <c r="F59" s="3">
-        <v>592000</v>
+        <v>586600</v>
       </c>
       <c r="G59" s="3">
-        <v>387100</v>
+        <v>383700</v>
       </c>
       <c r="H59" s="3">
-        <v>131100</v>
+        <v>130000</v>
       </c>
       <c r="I59" s="3">
-        <v>76100</v>
+        <v>75400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4302600</v>
+        <v>4263800</v>
       </c>
       <c r="E60" s="3">
-        <v>2059500</v>
+        <v>2041000</v>
       </c>
       <c r="F60" s="3">
-        <v>1399800</v>
+        <v>1387100</v>
       </c>
       <c r="G60" s="3">
-        <v>1266300</v>
+        <v>1254900</v>
       </c>
       <c r="H60" s="3">
-        <v>238500</v>
+        <v>236400</v>
       </c>
       <c r="I60" s="3">
-        <v>107100</v>
+        <v>106100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,19 +2561,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1439800</v>
+        <v>1426800</v>
       </c>
       <c r="E61" s="3">
-        <v>883200</v>
+        <v>875200</v>
       </c>
       <c r="F61" s="3">
-        <v>1067400</v>
+        <v>1057800</v>
       </c>
       <c r="G61" s="3">
-        <v>172100</v>
+        <v>170600</v>
       </c>
       <c r="H61" s="3">
-        <v>94700</v>
+        <v>93800</v>
       </c>
       <c r="I61" s="3">
         <v>5500</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>862200</v>
+        <v>854500</v>
       </c>
       <c r="E62" s="3">
-        <v>414100</v>
+        <v>410400</v>
       </c>
       <c r="F62" s="3">
-        <v>392200</v>
+        <v>388600</v>
       </c>
       <c r="G62" s="3">
-        <v>137200</v>
+        <v>135900</v>
       </c>
       <c r="H62" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="I62" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7098900</v>
+        <v>7034800</v>
       </c>
       <c r="E66" s="3">
-        <v>4048400</v>
+        <v>4011900</v>
       </c>
       <c r="F66" s="3">
-        <v>3077100</v>
+        <v>3049400</v>
       </c>
       <c r="G66" s="3">
-        <v>1769100</v>
+        <v>1753200</v>
       </c>
       <c r="H66" s="3">
-        <v>355600</v>
+        <v>352400</v>
       </c>
       <c r="I66" s="3">
-        <v>119900</v>
+        <v>118800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>2896800</v>
+        <v>2870600</v>
       </c>
       <c r="I70" s="3">
-        <v>716400</v>
+        <v>709900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8198200</v>
+        <v>-8124300</v>
       </c>
       <c r="E72" s="3">
-        <v>-7610900</v>
+        <v>-7542200</v>
       </c>
       <c r="F72" s="3">
-        <v>-6826600</v>
+        <v>-6765000</v>
       </c>
       <c r="G72" s="3">
-        <v>-5163500</v>
+        <v>-5116900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1725900</v>
+        <v>-1710300</v>
       </c>
       <c r="I72" s="3">
-        <v>-600800</v>
+        <v>-595400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5114900</v>
+        <v>5068700</v>
       </c>
       <c r="E76" s="3">
-        <v>4003600</v>
+        <v>3967500</v>
       </c>
       <c r="F76" s="3">
-        <v>-928300</v>
+        <v>-919900</v>
       </c>
       <c r="G76" s="3">
-        <v>1007500</v>
+        <v>998400</v>
       </c>
       <c r="H76" s="3">
-        <v>-1709900</v>
+        <v>-1694400</v>
       </c>
       <c r="I76" s="3">
-        <v>-575400</v>
+        <v>-570200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1557900</v>
+        <v>-1543900</v>
       </c>
       <c r="E81" s="3">
-        <v>-826800</v>
+        <v>-819300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1681800</v>
+        <v>-1666700</v>
       </c>
       <c r="G81" s="3">
-        <v>-3437600</v>
+        <v>-3406600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1114300</v>
+        <v>-1104200</v>
       </c>
       <c r="I81" s="3">
-        <v>-518300</v>
+        <v>-513700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>251700</v>
+        <v>249400</v>
       </c>
       <c r="E83" s="3">
-        <v>154200</v>
+        <v>152800</v>
       </c>
       <c r="F83" s="3">
-        <v>147200</v>
+        <v>145900</v>
       </c>
       <c r="G83" s="3">
-        <v>69900</v>
+        <v>69300</v>
       </c>
       <c r="H83" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="I83" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>289800</v>
+        <v>287200</v>
       </c>
       <c r="E89" s="3">
-        <v>287500</v>
+        <v>284900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1285200</v>
+        <v>-1273600</v>
       </c>
       <c r="G89" s="3">
-        <v>-1165900</v>
+        <v>-1155400</v>
       </c>
       <c r="H89" s="3">
-        <v>-674100</v>
+        <v>-668000</v>
       </c>
       <c r="I89" s="3">
-        <v>-324400</v>
+        <v>-321500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-601000</v>
+        <v>-595600</v>
       </c>
       <c r="E91" s="3">
-        <v>-166200</v>
+        <v>-164700</v>
       </c>
       <c r="F91" s="3">
-        <v>-251500</v>
+        <v>-249200</v>
       </c>
       <c r="G91" s="3">
-        <v>-389600</v>
+        <v>-386100</v>
       </c>
       <c r="H91" s="3">
-        <v>-164100</v>
+        <v>-162700</v>
       </c>
       <c r="I91" s="3">
-        <v>-96400</v>
+        <v>-95600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5859700</v>
+        <v>-5806800</v>
       </c>
       <c r="E94" s="3">
-        <v>-747300</v>
+        <v>-740500</v>
       </c>
       <c r="F94" s="3">
-        <v>498400</v>
+        <v>493900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1170200</v>
+        <v>-1159600</v>
       </c>
       <c r="H94" s="3">
-        <v>-175400</v>
+        <v>-173800</v>
       </c>
       <c r="I94" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2671500</v>
+        <v>2647300</v>
       </c>
       <c r="E100" s="3">
-        <v>6094400</v>
+        <v>6039400</v>
       </c>
       <c r="F100" s="3">
-        <v>456100</v>
+        <v>452000</v>
       </c>
       <c r="G100" s="3">
-        <v>1709800</v>
+        <v>1694400</v>
       </c>
       <c r="H100" s="3">
-        <v>1896100</v>
+        <v>1879000</v>
       </c>
       <c r="I100" s="3">
-        <v>337900</v>
+        <v>334800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-73800</v>
+        <v>-73200</v>
       </c>
       <c r="E101" s="3">
-        <v>-100500</v>
+        <v>-99600</v>
       </c>
       <c r="F101" s="3">
         <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="H101" s="3">
-        <v>-24800</v>
+        <v>-24600</v>
       </c>
       <c r="I101" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2972300</v>
+        <v>-2945500</v>
       </c>
       <c r="E102" s="3">
-        <v>5534100</v>
+        <v>5484200</v>
       </c>
       <c r="F102" s="3">
-        <v>-329300</v>
+        <v>-326300</v>
       </c>
       <c r="G102" s="3">
-        <v>-634600</v>
+        <v>-628900</v>
       </c>
       <c r="H102" s="3">
-        <v>1021800</v>
+        <v>1012600</v>
       </c>
       <c r="I102" s="3">
-        <v>36800</v>
+        <v>36400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -724,16 +724,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5277000</v>
+        <v>5030200</v>
       </c>
       <c r="E8" s="3">
-        <v>2374100</v>
+        <v>2263100</v>
       </c>
       <c r="F8" s="3">
-        <v>1142700</v>
+        <v>1089200</v>
       </c>
       <c r="G8" s="3">
-        <v>723000</v>
+        <v>689200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -763,16 +763,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4280900</v>
+        <v>4080600</v>
       </c>
       <c r="E9" s="3">
-        <v>2100600</v>
+        <v>2002300</v>
       </c>
       <c r="F9" s="3">
-        <v>1317700</v>
+        <v>1256100</v>
       </c>
       <c r="G9" s="3">
-        <v>760400</v>
+        <v>724800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -802,16 +802,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>996100</v>
+        <v>949500</v>
       </c>
       <c r="E10" s="3">
-        <v>273600</v>
+        <v>260800</v>
       </c>
       <c r="F10" s="3">
-        <v>-175100</v>
+        <v>-166900</v>
       </c>
       <c r="G10" s="3">
-        <v>-37400</v>
+        <v>-35600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>639300</v>
+        <v>609400</v>
       </c>
       <c r="E12" s="3">
-        <v>326000</v>
+        <v>310700</v>
       </c>
       <c r="F12" s="3">
-        <v>619400</v>
+        <v>590400</v>
       </c>
       <c r="G12" s="3">
-        <v>568700</v>
+        <v>542100</v>
       </c>
       <c r="H12" s="3">
-        <v>374400</v>
+        <v>356900</v>
       </c>
       <c r="I12" s="3">
-        <v>212800</v>
+        <v>202900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -975,22 +975,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>80600</v>
+        <v>76800</v>
       </c>
       <c r="E15" s="3">
-        <v>84800</v>
+        <v>80900</v>
       </c>
       <c r="F15" s="3">
-        <v>94100</v>
+        <v>89700</v>
       </c>
       <c r="G15" s="3">
-        <v>51600</v>
+        <v>49200</v>
       </c>
       <c r="H15" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="I15" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5933600</v>
+        <v>5656100</v>
       </c>
       <c r="E17" s="3">
-        <v>3047000</v>
+        <v>2904500</v>
       </c>
       <c r="F17" s="3">
-        <v>2760600</v>
+        <v>2631400</v>
       </c>
       <c r="G17" s="3">
-        <v>2124300</v>
+        <v>2024900</v>
       </c>
       <c r="H17" s="3">
-        <v>723400</v>
+        <v>689500</v>
       </c>
       <c r="I17" s="3">
-        <v>380000</v>
+        <v>362300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,16 +1067,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-656600</v>
+        <v>-625900</v>
       </c>
       <c r="E18" s="3">
-        <v>-672900</v>
+        <v>-641400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1617900</v>
+        <v>-1542200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1401200</v>
+        <v>-1335700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>169300</v>
+        <v>161300</v>
       </c>
       <c r="E20" s="3">
-        <v>-38600</v>
+        <v>-36800</v>
       </c>
       <c r="F20" s="3">
-        <v>23700</v>
+        <v>22500</v>
       </c>
       <c r="G20" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-238300</v>
+        <v>-228600</v>
       </c>
       <c r="E21" s="3">
-        <v>-558800</v>
+        <v>-533600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1448600</v>
+        <v>-1381700</v>
       </c>
       <c r="G21" s="3">
-        <v>-1317200</v>
+        <v>-1256000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>93100</v>
+        <v>88700</v>
       </c>
       <c r="E22" s="3">
-        <v>62200</v>
+        <v>59300</v>
       </c>
       <c r="F22" s="3">
-        <v>54100</v>
+        <v>51600</v>
       </c>
       <c r="G22" s="3">
-        <v>18100</v>
+        <v>17200</v>
       </c>
       <c r="H22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-580400</v>
+        <v>-553300</v>
       </c>
       <c r="E23" s="3">
-        <v>-773600</v>
+        <v>-737400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1648400</v>
+        <v>-1571300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1404400</v>
+        <v>-1338700</v>
       </c>
       <c r="H23" s="3">
-        <v>-732100</v>
+        <v>-697800</v>
       </c>
       <c r="I23" s="3">
-        <v>-375100</v>
+        <v>-357600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,19 +1279,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="E24" s="3">
         <v>900</v>
       </c>
       <c r="F24" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G24" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H24" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I24" s="3">
         <v>600</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-586600</v>
+        <v>-559200</v>
       </c>
       <c r="E26" s="3">
-        <v>-774600</v>
+        <v>-738300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1649500</v>
+        <v>-1572400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1407600</v>
+        <v>-1341700</v>
       </c>
       <c r="H26" s="3">
-        <v>-733200</v>
+        <v>-698900</v>
       </c>
       <c r="I26" s="3">
-        <v>-375800</v>
+        <v>-358200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1543900</v>
+        <v>-1471700</v>
       </c>
       <c r="E27" s="3">
-        <v>-819300</v>
+        <v>-781000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1666700</v>
+        <v>-1588700</v>
       </c>
       <c r="G27" s="3">
-        <v>-3406600</v>
+        <v>-3247200</v>
       </c>
       <c r="H27" s="3">
-        <v>-1104200</v>
+        <v>-1052600</v>
       </c>
       <c r="I27" s="3">
-        <v>-513700</v>
+        <v>-489600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,16 +1591,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-169300</v>
+        <v>-161300</v>
       </c>
       <c r="E32" s="3">
-        <v>38600</v>
+        <v>36800</v>
       </c>
       <c r="F32" s="3">
-        <v>-23700</v>
+        <v>-22500</v>
       </c>
       <c r="G32" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1543900</v>
+        <v>-1471700</v>
       </c>
       <c r="E33" s="3">
-        <v>-819300</v>
+        <v>-781000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1666700</v>
+        <v>-1588700</v>
       </c>
       <c r="G33" s="3">
-        <v>-3406600</v>
+        <v>-3247200</v>
       </c>
       <c r="H33" s="3">
-        <v>-1104200</v>
+        <v>-1052600</v>
       </c>
       <c r="I33" s="3">
-        <v>-513700</v>
+        <v>-489600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1543900</v>
+        <v>-1471700</v>
       </c>
       <c r="E35" s="3">
-        <v>-819300</v>
+        <v>-781000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1666700</v>
+        <v>-1588700</v>
       </c>
       <c r="G35" s="3">
-        <v>-3406600</v>
+        <v>-3247200</v>
       </c>
       <c r="H35" s="3">
-        <v>-1104200</v>
+        <v>-1052600</v>
       </c>
       <c r="I35" s="3">
-        <v>-513700</v>
+        <v>-489600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2239200</v>
+        <v>2134500</v>
       </c>
       <c r="E41" s="3">
-        <v>5611300</v>
+        <v>5348800</v>
       </c>
       <c r="F41" s="3">
-        <v>126000</v>
+        <v>120100</v>
       </c>
       <c r="G41" s="3">
-        <v>457600</v>
+        <v>436200</v>
       </c>
       <c r="H41" s="3">
-        <v>1096100</v>
+        <v>1044800</v>
       </c>
       <c r="I41" s="3">
-        <v>84900</v>
+        <v>80900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,16 +1864,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5411500</v>
+        <v>5158400</v>
       </c>
       <c r="E42" s="3">
-        <v>576900</v>
+        <v>549900</v>
       </c>
       <c r="F42" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="G42" s="3">
-        <v>752700</v>
+        <v>717500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>819500</v>
+        <v>781100</v>
       </c>
       <c r="E43" s="3">
-        <v>349900</v>
+        <v>333500</v>
       </c>
       <c r="F43" s="3">
-        <v>411800</v>
+        <v>392500</v>
       </c>
       <c r="G43" s="3">
-        <v>292400</v>
+        <v>278700</v>
       </c>
       <c r="H43" s="3">
-        <v>73900</v>
+        <v>70400</v>
       </c>
       <c r="I43" s="3">
-        <v>26700</v>
+        <v>25500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,19 +1942,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300300</v>
+        <v>286200</v>
       </c>
       <c r="E44" s="3">
-        <v>157900</v>
+        <v>150600</v>
       </c>
       <c r="F44" s="3">
-        <v>129900</v>
+        <v>123800</v>
       </c>
       <c r="G44" s="3">
-        <v>214000</v>
+        <v>204000</v>
       </c>
       <c r="H44" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>523100</v>
+        <v>498600</v>
       </c>
       <c r="E45" s="3">
-        <v>51600</v>
+        <v>49100</v>
       </c>
       <c r="F45" s="3">
-        <v>35700</v>
+        <v>34100</v>
       </c>
       <c r="G45" s="3">
-        <v>60400</v>
+        <v>57600</v>
       </c>
       <c r="H45" s="3">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="I45" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9293500</v>
+        <v>8858900</v>
       </c>
       <c r="E46" s="3">
-        <v>6747600</v>
+        <v>6432000</v>
       </c>
       <c r="F46" s="3">
-        <v>719600</v>
+        <v>686000</v>
       </c>
       <c r="G46" s="3">
-        <v>1777100</v>
+        <v>1694000</v>
       </c>
       <c r="H46" s="3">
-        <v>1213500</v>
+        <v>1156800</v>
       </c>
       <c r="I46" s="3">
-        <v>127800</v>
+        <v>121800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2059,19 +2059,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1104700</v>
+        <v>1053000</v>
       </c>
       <c r="E47" s="3">
-        <v>232100</v>
+        <v>221200</v>
       </c>
       <c r="F47" s="3">
-        <v>112900</v>
+        <v>107600</v>
       </c>
       <c r="G47" s="3">
-        <v>106700</v>
+        <v>101700</v>
       </c>
       <c r="H47" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1526600</v>
+        <v>1455200</v>
       </c>
       <c r="E48" s="3">
-        <v>940800</v>
+        <v>896800</v>
       </c>
       <c r="F48" s="3">
-        <v>1122400</v>
+        <v>1069900</v>
       </c>
       <c r="G48" s="3">
-        <v>708700</v>
+        <v>675600</v>
       </c>
       <c r="H48" s="3">
-        <v>279100</v>
+        <v>266000</v>
       </c>
       <c r="I48" s="3">
-        <v>121600</v>
+        <v>116000</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,19 +2137,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29100</v>
+        <v>27700</v>
       </c>
       <c r="E49" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="F49" s="3">
-        <v>30700</v>
+        <v>29300</v>
       </c>
       <c r="G49" s="3">
-        <v>31700</v>
+        <v>30200</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149600</v>
+        <v>142600</v>
       </c>
       <c r="E52" s="3">
-        <v>29100</v>
+        <v>27700</v>
       </c>
       <c r="F52" s="3">
-        <v>143800</v>
+        <v>137100</v>
       </c>
       <c r="G52" s="3">
-        <v>127300</v>
+        <v>121300</v>
       </c>
       <c r="H52" s="3">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="I52" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12103500</v>
+        <v>11537400</v>
       </c>
       <c r="E54" s="3">
-        <v>7979400</v>
+        <v>7606200</v>
       </c>
       <c r="F54" s="3">
-        <v>2129400</v>
+        <v>2029800</v>
       </c>
       <c r="G54" s="3">
-        <v>2751600</v>
+        <v>2622900</v>
       </c>
       <c r="H54" s="3">
-        <v>1528600</v>
+        <v>1457200</v>
       </c>
       <c r="I54" s="3">
-        <v>258500</v>
+        <v>246500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2058700</v>
+        <v>1962400</v>
       </c>
       <c r="E57" s="3">
-        <v>1034400</v>
+        <v>986100</v>
       </c>
       <c r="F57" s="3">
-        <v>618200</v>
+        <v>589300</v>
       </c>
       <c r="G57" s="3">
-        <v>569100</v>
+        <v>542500</v>
       </c>
       <c r="H57" s="3">
-        <v>94200</v>
+        <v>89700</v>
       </c>
       <c r="I57" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1069800</v>
+        <v>1019700</v>
       </c>
       <c r="E58" s="3">
-        <v>286800</v>
+        <v>273400</v>
       </c>
       <c r="F58" s="3">
-        <v>182300</v>
+        <v>173800</v>
       </c>
       <c r="G58" s="3">
-        <v>302100</v>
+        <v>288000</v>
       </c>
       <c r="H58" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="I58" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1135300</v>
+        <v>1082200</v>
       </c>
       <c r="E59" s="3">
-        <v>719700</v>
+        <v>686100</v>
       </c>
       <c r="F59" s="3">
-        <v>586600</v>
+        <v>559200</v>
       </c>
       <c r="G59" s="3">
-        <v>383700</v>
+        <v>365700</v>
       </c>
       <c r="H59" s="3">
-        <v>130000</v>
+        <v>123900</v>
       </c>
       <c r="I59" s="3">
-        <v>75400</v>
+        <v>71900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4263800</v>
+        <v>4064400</v>
       </c>
       <c r="E60" s="3">
-        <v>2041000</v>
+        <v>1945500</v>
       </c>
       <c r="F60" s="3">
-        <v>1387100</v>
+        <v>1322200</v>
       </c>
       <c r="G60" s="3">
-        <v>1254900</v>
+        <v>1196200</v>
       </c>
       <c r="H60" s="3">
-        <v>236400</v>
+        <v>225300</v>
       </c>
       <c r="I60" s="3">
-        <v>106100</v>
+        <v>101100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1426800</v>
+        <v>1360100</v>
       </c>
       <c r="E61" s="3">
-        <v>875200</v>
+        <v>834300</v>
       </c>
       <c r="F61" s="3">
-        <v>1057800</v>
+        <v>1008300</v>
       </c>
       <c r="G61" s="3">
-        <v>170600</v>
+        <v>162600</v>
       </c>
       <c r="H61" s="3">
-        <v>93800</v>
+        <v>89400</v>
       </c>
       <c r="I61" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>854500</v>
+        <v>814500</v>
       </c>
       <c r="E62" s="3">
-        <v>410400</v>
+        <v>391200</v>
       </c>
       <c r="F62" s="3">
-        <v>388600</v>
+        <v>370500</v>
       </c>
       <c r="G62" s="3">
-        <v>135900</v>
+        <v>129600</v>
       </c>
       <c r="H62" s="3">
-        <v>20600</v>
+        <v>19600</v>
       </c>
       <c r="I62" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7034800</v>
+        <v>6705800</v>
       </c>
       <c r="E66" s="3">
-        <v>4011900</v>
+        <v>3824300</v>
       </c>
       <c r="F66" s="3">
-        <v>3049400</v>
+        <v>2906700</v>
       </c>
       <c r="G66" s="3">
-        <v>1753200</v>
+        <v>1671200</v>
       </c>
       <c r="H66" s="3">
-        <v>352400</v>
+        <v>335900</v>
       </c>
       <c r="I66" s="3">
-        <v>118800</v>
+        <v>113300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>2870600</v>
+        <v>2736400</v>
       </c>
       <c r="I70" s="3">
-        <v>709900</v>
+        <v>676700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8124300</v>
+        <v>-7744300</v>
       </c>
       <c r="E72" s="3">
-        <v>-7542200</v>
+        <v>-7189500</v>
       </c>
       <c r="F72" s="3">
-        <v>-6765000</v>
+        <v>-6448600</v>
       </c>
       <c r="G72" s="3">
-        <v>-5116900</v>
+        <v>-4877500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1710300</v>
+        <v>-1630300</v>
       </c>
       <c r="I72" s="3">
-        <v>-595400</v>
+        <v>-567500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5068700</v>
+        <v>4831600</v>
       </c>
       <c r="E76" s="3">
-        <v>3967500</v>
+        <v>3781900</v>
       </c>
       <c r="F76" s="3">
-        <v>-919900</v>
+        <v>-876900</v>
       </c>
       <c r="G76" s="3">
-        <v>998400</v>
+        <v>951700</v>
       </c>
       <c r="H76" s="3">
-        <v>-1694400</v>
+        <v>-1615200</v>
       </c>
       <c r="I76" s="3">
-        <v>-570200</v>
+        <v>-543500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1543900</v>
+        <v>-1471700</v>
       </c>
       <c r="E81" s="3">
-        <v>-819300</v>
+        <v>-781000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1666700</v>
+        <v>-1588700</v>
       </c>
       <c r="G81" s="3">
-        <v>-3406600</v>
+        <v>-3247200</v>
       </c>
       <c r="H81" s="3">
-        <v>-1104200</v>
+        <v>-1052600</v>
       </c>
       <c r="I81" s="3">
-        <v>-513700</v>
+        <v>-489600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>249400</v>
+        <v>237800</v>
       </c>
       <c r="E83" s="3">
-        <v>152800</v>
+        <v>145700</v>
       </c>
       <c r="F83" s="3">
-        <v>145900</v>
+        <v>139100</v>
       </c>
       <c r="G83" s="3">
-        <v>69300</v>
+        <v>66000</v>
       </c>
       <c r="H83" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="I83" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>287200</v>
+        <v>273700</v>
       </c>
       <c r="E89" s="3">
-        <v>284900</v>
+        <v>271600</v>
       </c>
       <c r="F89" s="3">
-        <v>-1273600</v>
+        <v>-1214100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1155400</v>
+        <v>-1101300</v>
       </c>
       <c r="H89" s="3">
-        <v>-668000</v>
+        <v>-636800</v>
       </c>
       <c r="I89" s="3">
-        <v>-321500</v>
+        <v>-306500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,22 +3592,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-595600</v>
+        <v>-567800</v>
       </c>
       <c r="E91" s="3">
-        <v>-164700</v>
+        <v>-157000</v>
       </c>
       <c r="F91" s="3">
-        <v>-249200</v>
+        <v>-237600</v>
       </c>
       <c r="G91" s="3">
-        <v>-386100</v>
+        <v>-368000</v>
       </c>
       <c r="H91" s="3">
-        <v>-162700</v>
+        <v>-155100</v>
       </c>
       <c r="I91" s="3">
-        <v>-95600</v>
+        <v>-91100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5806800</v>
+        <v>-5535200</v>
       </c>
       <c r="E94" s="3">
-        <v>-740500</v>
+        <v>-705900</v>
       </c>
       <c r="F94" s="3">
-        <v>493900</v>
+        <v>470800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1159600</v>
+        <v>-1105400</v>
       </c>
       <c r="H94" s="3">
-        <v>-173800</v>
+        <v>-165700</v>
       </c>
       <c r="I94" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2647300</v>
+        <v>2523500</v>
       </c>
       <c r="E100" s="3">
-        <v>6039400</v>
+        <v>5757000</v>
       </c>
       <c r="F100" s="3">
-        <v>452000</v>
+        <v>430800</v>
       </c>
       <c r="G100" s="3">
-        <v>1694400</v>
+        <v>1615200</v>
       </c>
       <c r="H100" s="3">
-        <v>1879000</v>
+        <v>1791100</v>
       </c>
       <c r="I100" s="3">
-        <v>334800</v>
+        <v>319100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-73200</v>
+        <v>-69700</v>
       </c>
       <c r="E101" s="3">
-        <v>-99600</v>
+        <v>-94900</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-8300</v>
+        <v>-7900</v>
       </c>
       <c r="H101" s="3">
-        <v>-24600</v>
+        <v>-23400</v>
       </c>
       <c r="I101" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2945500</v>
+        <v>-2807700</v>
       </c>
       <c r="E102" s="3">
-        <v>5484200</v>
+        <v>5227700</v>
       </c>
       <c r="F102" s="3">
-        <v>-326300</v>
+        <v>-311000</v>
       </c>
       <c r="G102" s="3">
-        <v>-628900</v>
+        <v>-599500</v>
       </c>
       <c r="H102" s="3">
-        <v>1012600</v>
+        <v>965200</v>
       </c>
       <c r="I102" s="3">
-        <v>36400</v>
+        <v>34700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>NIO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,26 +717,29 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5030200</v>
+        <v>7076000</v>
       </c>
       <c r="E8" s="3">
-        <v>2263100</v>
+        <v>5189900</v>
       </c>
       <c r="F8" s="3">
-        <v>1089200</v>
+        <v>2335000</v>
       </c>
       <c r="G8" s="3">
-        <v>689200</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>1123800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>711100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -753,29 +756,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4080600</v>
+        <v>6337200</v>
       </c>
       <c r="E9" s="3">
-        <v>2002300</v>
+        <v>4210200</v>
       </c>
       <c r="F9" s="3">
-        <v>1256100</v>
+        <v>2065900</v>
       </c>
       <c r="G9" s="3">
-        <v>724800</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>1296000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>747800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -795,26 +801,29 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>949500</v>
+        <v>738800</v>
       </c>
       <c r="E10" s="3">
-        <v>260800</v>
+        <v>979700</v>
       </c>
       <c r="F10" s="3">
-        <v>-166900</v>
+        <v>269100</v>
       </c>
       <c r="G10" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>-172200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-36700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,31 +864,32 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>609400</v>
+        <v>1556300</v>
       </c>
       <c r="E12" s="3">
-        <v>310700</v>
+        <v>628700</v>
       </c>
       <c r="F12" s="3">
-        <v>590400</v>
+        <v>320600</v>
       </c>
       <c r="G12" s="3">
-        <v>542100</v>
+        <v>609200</v>
       </c>
       <c r="H12" s="3">
-        <v>356900</v>
+        <v>559300</v>
       </c>
       <c r="I12" s="3">
-        <v>202900</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>368200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>209300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,32 +945,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-19900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -968,32 +987,35 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>76800</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>80900</v>
+        <v>79300</v>
       </c>
       <c r="F15" s="3">
-        <v>89700</v>
+        <v>83400</v>
       </c>
       <c r="G15" s="3">
-        <v>49200</v>
+        <v>92600</v>
       </c>
       <c r="H15" s="3">
-        <v>23400</v>
+        <v>50700</v>
       </c>
       <c r="I15" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>24100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,31 +1047,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5656100</v>
+        <v>9302400</v>
       </c>
       <c r="E17" s="3">
-        <v>2904500</v>
+        <v>5835700</v>
       </c>
       <c r="F17" s="3">
-        <v>2631400</v>
+        <v>2996700</v>
       </c>
       <c r="G17" s="3">
-        <v>2024900</v>
+        <v>2715000</v>
       </c>
       <c r="H17" s="3">
-        <v>689500</v>
+        <v>2089200</v>
       </c>
       <c r="I17" s="3">
-        <v>362300</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>711400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>373800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1060,26 +1086,29 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-625900</v>
+        <v>-2226400</v>
       </c>
       <c r="E18" s="3">
-        <v>-641400</v>
+        <v>-645800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1542200</v>
+        <v>-661700</v>
       </c>
       <c r="G18" s="3">
-        <v>-1335700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-1591200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1378100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,25 +1149,26 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>161300</v>
+        <v>208800</v>
       </c>
       <c r="E20" s="3">
-        <v>-36800</v>
+        <v>166500</v>
       </c>
       <c r="F20" s="3">
-        <v>22500</v>
+        <v>-37900</v>
       </c>
       <c r="G20" s="3">
-        <v>14200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>23300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>14700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1155,26 +1188,29 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-228600</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-533600</v>
+        <v>-233500</v>
       </c>
       <c r="F21" s="3">
-        <v>-1381700</v>
+        <v>-549100</v>
       </c>
       <c r="G21" s="3">
-        <v>-1256000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-1424200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1295200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1194,32 +1230,35 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>88700</v>
+        <v>47900</v>
       </c>
       <c r="E22" s="3">
-        <v>59300</v>
+        <v>91500</v>
       </c>
       <c r="F22" s="3">
-        <v>51600</v>
+        <v>61200</v>
       </c>
       <c r="G22" s="3">
-        <v>17200</v>
+        <v>53200</v>
       </c>
       <c r="H22" s="3">
-        <v>2500</v>
+        <v>17800</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1233,32 +1272,35 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-553300</v>
+        <v>-2065500</v>
       </c>
       <c r="E23" s="3">
-        <v>-737400</v>
+        <v>-570800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1571300</v>
+        <v>-760900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1338700</v>
+        <v>-1621100</v>
       </c>
       <c r="H23" s="3">
-        <v>-697800</v>
+        <v>-1381200</v>
       </c>
       <c r="I23" s="3">
-        <v>-357600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-720000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-369000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1272,33 +1314,36 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5900</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
-        <v>3100</v>
-      </c>
       <c r="H24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,32 +1398,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-559200</v>
+        <v>-2073500</v>
       </c>
       <c r="E26" s="3">
-        <v>-738300</v>
+        <v>-576900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1572400</v>
+        <v>-761800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1341700</v>
+        <v>-1622300</v>
       </c>
       <c r="H26" s="3">
-        <v>-698900</v>
+        <v>-1384400</v>
       </c>
       <c r="I26" s="3">
-        <v>-358200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-721100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-369600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1389,32 +1440,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1471700</v>
+        <v>-2091000</v>
       </c>
       <c r="E27" s="3">
-        <v>-781000</v>
+        <v>-1518400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1588700</v>
+        <v>-805800</v>
       </c>
       <c r="G27" s="3">
-        <v>-3247200</v>
+        <v>-1639100</v>
       </c>
       <c r="H27" s="3">
-        <v>-1052600</v>
+        <v>-3350300</v>
       </c>
       <c r="I27" s="3">
-        <v>-489600</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-1086000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-505200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,26 +1650,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-161300</v>
+        <v>-208800</v>
       </c>
       <c r="E32" s="3">
-        <v>36800</v>
+        <v>-166500</v>
       </c>
       <c r="F32" s="3">
-        <v>-22500</v>
+        <v>37900</v>
       </c>
       <c r="G32" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-23300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-14700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1623,32 +1692,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1471700</v>
+        <v>-2091000</v>
       </c>
       <c r="E33" s="3">
-        <v>-781000</v>
+        <v>-1518400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1588700</v>
+        <v>-805800</v>
       </c>
       <c r="G33" s="3">
-        <v>-3247200</v>
+        <v>-1639100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1052600</v>
+        <v>-3350300</v>
       </c>
       <c r="I33" s="3">
-        <v>-489600</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-1086000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-505200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,32 +1776,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1471700</v>
+        <v>-2091000</v>
       </c>
       <c r="E35" s="3">
-        <v>-781000</v>
+        <v>-1518400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1588700</v>
+        <v>-805800</v>
       </c>
       <c r="G35" s="3">
-        <v>-3247200</v>
+        <v>-1639100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1052600</v>
+        <v>-3350300</v>
       </c>
       <c r="I35" s="3">
-        <v>-489600</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-1086000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-505200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1740,38 +1818,41 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,9 +1865,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,31 +1904,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2134500</v>
+        <v>2856300</v>
       </c>
       <c r="E41" s="3">
-        <v>5348800</v>
+        <v>2202200</v>
       </c>
       <c r="F41" s="3">
-        <v>120100</v>
+        <v>5518700</v>
       </c>
       <c r="G41" s="3">
-        <v>436200</v>
+        <v>123900</v>
       </c>
       <c r="H41" s="3">
-        <v>1044800</v>
+        <v>450100</v>
       </c>
       <c r="I41" s="3">
-        <v>80900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>1078000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>83500</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1857,26 +1943,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5158400</v>
+        <v>2753300</v>
       </c>
       <c r="E42" s="3">
-        <v>549900</v>
+        <v>5322200</v>
       </c>
       <c r="F42" s="3">
-        <v>15500</v>
+        <v>567400</v>
       </c>
       <c r="G42" s="3">
-        <v>717500</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>740300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1893,35 +1982,38 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>781100</v>
+        <v>933400</v>
       </c>
       <c r="E43" s="3">
-        <v>333500</v>
+        <v>805900</v>
       </c>
       <c r="F43" s="3">
-        <v>392500</v>
+        <v>344100</v>
       </c>
       <c r="G43" s="3">
-        <v>278700</v>
+        <v>405000</v>
       </c>
       <c r="H43" s="3">
-        <v>70400</v>
+        <v>287500</v>
       </c>
       <c r="I43" s="3">
-        <v>25500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>72700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>26300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1935,32 +2027,35 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>286200</v>
+        <v>1176400</v>
       </c>
       <c r="E44" s="3">
-        <v>150600</v>
+        <v>295300</v>
       </c>
       <c r="F44" s="3">
-        <v>123800</v>
+        <v>155300</v>
       </c>
       <c r="G44" s="3">
-        <v>204000</v>
+        <v>127800</v>
       </c>
       <c r="H44" s="3">
-        <v>12500</v>
+        <v>210400</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1974,32 +2069,35 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>498600</v>
+        <v>775600</v>
       </c>
       <c r="E45" s="3">
-        <v>49100</v>
+        <v>514500</v>
       </c>
       <c r="F45" s="3">
-        <v>34100</v>
+        <v>50700</v>
       </c>
       <c r="G45" s="3">
-        <v>57600</v>
+        <v>35100</v>
       </c>
       <c r="H45" s="3">
-        <v>29000</v>
+        <v>59400</v>
       </c>
       <c r="I45" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>30000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>15900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2013,32 +2111,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8858900</v>
+        <v>8495100</v>
       </c>
       <c r="E46" s="3">
-        <v>6432000</v>
+        <v>9140200</v>
       </c>
       <c r="F46" s="3">
-        <v>686000</v>
+        <v>6636200</v>
       </c>
       <c r="G46" s="3">
-        <v>1694000</v>
+        <v>707800</v>
       </c>
       <c r="H46" s="3">
-        <v>1156800</v>
+        <v>1747800</v>
       </c>
       <c r="I46" s="3">
-        <v>121800</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>1193500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>125700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2052,32 +2153,35 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1053000</v>
+        <v>912900</v>
       </c>
       <c r="E47" s="3">
-        <v>221200</v>
+        <v>1086500</v>
       </c>
       <c r="F47" s="3">
-        <v>107600</v>
+        <v>228200</v>
       </c>
       <c r="G47" s="3">
-        <v>101700</v>
+        <v>111000</v>
       </c>
       <c r="H47" s="3">
-        <v>13500</v>
+        <v>105000</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2091,32 +2195,35 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1455200</v>
+        <v>3308000</v>
       </c>
       <c r="E48" s="3">
-        <v>896800</v>
+        <v>1501400</v>
       </c>
       <c r="F48" s="3">
-        <v>1069900</v>
+        <v>925300</v>
       </c>
       <c r="G48" s="3">
-        <v>675600</v>
+        <v>1103800</v>
       </c>
       <c r="H48" s="3">
-        <v>266000</v>
+        <v>697000</v>
       </c>
       <c r="I48" s="3">
-        <v>116000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>274500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>119600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2130,33 +2237,36 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27700</v>
+        <v>30500</v>
       </c>
       <c r="E49" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="F49" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="G49" s="3">
         <v>30200</v>
       </c>
       <c r="H49" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,32 +2363,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142600</v>
+        <v>1078900</v>
       </c>
       <c r="E52" s="3">
-        <v>27700</v>
+        <v>147100</v>
       </c>
       <c r="F52" s="3">
-        <v>137100</v>
+        <v>28600</v>
       </c>
       <c r="G52" s="3">
-        <v>121300</v>
+        <v>141400</v>
       </c>
       <c r="H52" s="3">
-        <v>20200</v>
+        <v>125200</v>
       </c>
       <c r="I52" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>20900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,32 +2447,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11537400</v>
+        <v>13825400</v>
       </c>
       <c r="E54" s="3">
-        <v>7606200</v>
+        <v>11903700</v>
       </c>
       <c r="F54" s="3">
-        <v>2029800</v>
+        <v>7847700</v>
       </c>
       <c r="G54" s="3">
-        <v>2622900</v>
+        <v>2094300</v>
       </c>
       <c r="H54" s="3">
-        <v>1457200</v>
+        <v>2706200</v>
       </c>
       <c r="I54" s="3">
-        <v>246500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>1503400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>254300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,31 +2528,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1962400</v>
+        <v>3622600</v>
       </c>
       <c r="E57" s="3">
-        <v>986100</v>
+        <v>2024700</v>
       </c>
       <c r="F57" s="3">
-        <v>589300</v>
+        <v>1017400</v>
       </c>
       <c r="G57" s="3">
-        <v>542500</v>
+        <v>608000</v>
       </c>
       <c r="H57" s="3">
-        <v>89700</v>
+        <v>559700</v>
       </c>
       <c r="I57" s="3">
-        <v>26500</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>92600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>27400</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2437,32 +2567,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1019700</v>
+        <v>757900</v>
       </c>
       <c r="E58" s="3">
-        <v>273400</v>
+        <v>1052100</v>
       </c>
       <c r="F58" s="3">
-        <v>173800</v>
+        <v>282000</v>
       </c>
       <c r="G58" s="3">
-        <v>288000</v>
+        <v>179300</v>
       </c>
       <c r="H58" s="3">
-        <v>11700</v>
+        <v>297100</v>
       </c>
       <c r="I58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2476,32 +2609,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1082200</v>
+        <v>2204700</v>
       </c>
       <c r="E59" s="3">
-        <v>686100</v>
+        <v>1116600</v>
       </c>
       <c r="F59" s="3">
-        <v>559200</v>
+        <v>707800</v>
       </c>
       <c r="G59" s="3">
-        <v>365700</v>
+        <v>576900</v>
       </c>
       <c r="H59" s="3">
-        <v>123900</v>
+        <v>377300</v>
       </c>
       <c r="I59" s="3">
-        <v>71900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>127800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>74200</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2515,32 +2651,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4064400</v>
+        <v>6585300</v>
       </c>
       <c r="E60" s="3">
-        <v>1945500</v>
+        <v>4193400</v>
       </c>
       <c r="F60" s="3">
-        <v>1322200</v>
+        <v>2007300</v>
       </c>
       <c r="G60" s="3">
-        <v>1196200</v>
+        <v>1364200</v>
       </c>
       <c r="H60" s="3">
-        <v>225300</v>
+        <v>1234200</v>
       </c>
       <c r="I60" s="3">
-        <v>101100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>232500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>104300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2554,32 +2693,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1360100</v>
+        <v>1563400</v>
       </c>
       <c r="E61" s="3">
-        <v>834300</v>
+        <v>1403300</v>
       </c>
       <c r="F61" s="3">
-        <v>1008300</v>
+        <v>860800</v>
       </c>
       <c r="G61" s="3">
-        <v>162600</v>
+        <v>1040300</v>
       </c>
       <c r="H61" s="3">
-        <v>89400</v>
+        <v>167700</v>
       </c>
       <c r="I61" s="3">
-        <v>5200</v>
+        <v>92300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2593,32 +2735,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>814500</v>
+        <v>1706100</v>
       </c>
       <c r="E62" s="3">
-        <v>391200</v>
+        <v>840300</v>
       </c>
       <c r="F62" s="3">
-        <v>370500</v>
+        <v>403600</v>
       </c>
       <c r="G62" s="3">
-        <v>129600</v>
+        <v>382200</v>
       </c>
       <c r="H62" s="3">
-        <v>19600</v>
+        <v>133700</v>
       </c>
       <c r="I62" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>20300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,32 +2903,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6705800</v>
+        <v>10397500</v>
       </c>
       <c r="E66" s="3">
-        <v>3824300</v>
+        <v>6918700</v>
       </c>
       <c r="F66" s="3">
-        <v>2906700</v>
+        <v>3945700</v>
       </c>
       <c r="G66" s="3">
-        <v>1671200</v>
+        <v>2999000</v>
       </c>
       <c r="H66" s="3">
-        <v>335900</v>
+        <v>1724200</v>
       </c>
       <c r="I66" s="3">
-        <v>113300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>346600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>116900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>2736400</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>676700</v>
+        <v>2823300</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>698200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,32 +3131,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-7744300</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-7189500</v>
+        <v>-7990200</v>
       </c>
       <c r="F72" s="3">
-        <v>-6448600</v>
+        <v>-7417700</v>
       </c>
       <c r="G72" s="3">
-        <v>-4877500</v>
+        <v>-6653400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1630300</v>
+        <v>-5032400</v>
       </c>
       <c r="I72" s="3">
-        <v>-567500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-1682100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-585500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,32 +3299,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4831600</v>
+        <v>3427900</v>
       </c>
       <c r="E76" s="3">
-        <v>3781900</v>
+        <v>4985000</v>
       </c>
       <c r="F76" s="3">
-        <v>-876900</v>
+        <v>3902000</v>
       </c>
       <c r="G76" s="3">
-        <v>951700</v>
+        <v>-904800</v>
       </c>
       <c r="H76" s="3">
-        <v>-1615200</v>
+        <v>981900</v>
       </c>
       <c r="I76" s="3">
-        <v>-543500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-1666500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-560800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,38 +3383,41 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3239,32 +3430,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1471700</v>
+        <v>-2091000</v>
       </c>
       <c r="E81" s="3">
-        <v>-781000</v>
+        <v>-1518400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1588700</v>
+        <v>-805800</v>
       </c>
       <c r="G81" s="3">
-        <v>-3247200</v>
+        <v>-1639100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1052600</v>
+        <v>-3350300</v>
       </c>
       <c r="I81" s="3">
-        <v>-489600</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-1086000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-505200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,31 +3493,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>237800</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>145700</v>
+        <v>245300</v>
       </c>
       <c r="F83" s="3">
-        <v>139100</v>
+        <v>150300</v>
       </c>
       <c r="G83" s="3">
-        <v>66000</v>
+        <v>143500</v>
       </c>
       <c r="H83" s="3">
-        <v>23400</v>
+        <v>68100</v>
       </c>
       <c r="I83" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>24100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,32 +3742,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>273700</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>271600</v>
+        <v>282400</v>
       </c>
       <c r="F89" s="3">
-        <v>-1214100</v>
+        <v>280200</v>
       </c>
       <c r="G89" s="3">
-        <v>-1101300</v>
+        <v>-1252600</v>
       </c>
       <c r="H89" s="3">
-        <v>-636800</v>
+        <v>-1136300</v>
       </c>
       <c r="I89" s="3">
-        <v>-306500</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-657000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-316200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,31 +3805,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-567800</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-157000</v>
+        <v>-585800</v>
       </c>
       <c r="F91" s="3">
-        <v>-237600</v>
+        <v>-162000</v>
       </c>
       <c r="G91" s="3">
-        <v>-368000</v>
+        <v>-245100</v>
       </c>
       <c r="H91" s="3">
-        <v>-155100</v>
+        <v>-379700</v>
       </c>
       <c r="I91" s="3">
-        <v>-91100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-160000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-94000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,32 +3928,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-5535200</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-705900</v>
+        <v>-5711000</v>
       </c>
       <c r="F94" s="3">
-        <v>470800</v>
+        <v>-728300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1105400</v>
+        <v>485700</v>
       </c>
       <c r="H94" s="3">
-        <v>-165700</v>
+        <v>-1140500</v>
       </c>
       <c r="I94" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-170900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>16900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,32 +4156,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>2523500</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>5757000</v>
+        <v>2603700</v>
       </c>
       <c r="F100" s="3">
-        <v>430800</v>
+        <v>5939800</v>
       </c>
       <c r="G100" s="3">
-        <v>1615200</v>
+        <v>444500</v>
       </c>
       <c r="H100" s="3">
-        <v>1791100</v>
+        <v>1666400</v>
       </c>
       <c r="I100" s="3">
-        <v>319100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>1848000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>329300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3953,32 +4198,35 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-69700</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>-94900</v>
+        <v>-71900</v>
       </c>
       <c r="F101" s="3">
-        <v>1400</v>
+        <v>-98000</v>
       </c>
       <c r="G101" s="3">
-        <v>-7900</v>
+        <v>1500</v>
       </c>
       <c r="H101" s="3">
-        <v>-23400</v>
+        <v>-8200</v>
       </c>
       <c r="I101" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>-24100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3992,32 +4240,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-2807700</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>5227700</v>
+        <v>-2896900</v>
       </c>
       <c r="F102" s="3">
-        <v>-311000</v>
+        <v>5393700</v>
       </c>
       <c r="G102" s="3">
-        <v>-599500</v>
+        <v>-320900</v>
       </c>
       <c r="H102" s="3">
-        <v>965200</v>
+        <v>-618500</v>
       </c>
       <c r="I102" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>995900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>35800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>NIO</t>
   </si>
@@ -727,19 +727,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7076000</v>
+        <v>7003500</v>
       </c>
       <c r="E8" s="3">
-        <v>5189900</v>
+        <v>5136800</v>
       </c>
       <c r="F8" s="3">
-        <v>2335000</v>
+        <v>2311100</v>
       </c>
       <c r="G8" s="3">
-        <v>1123800</v>
+        <v>1112300</v>
       </c>
       <c r="H8" s="3">
-        <v>711100</v>
+        <v>703800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -769,19 +769,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6337200</v>
+        <v>6272300</v>
       </c>
       <c r="E9" s="3">
-        <v>4210200</v>
+        <v>4167100</v>
       </c>
       <c r="F9" s="3">
-        <v>2065900</v>
+        <v>2044800</v>
       </c>
       <c r="G9" s="3">
-        <v>1296000</v>
+        <v>1282700</v>
       </c>
       <c r="H9" s="3">
-        <v>747800</v>
+        <v>740200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -811,19 +811,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>738800</v>
+        <v>731200</v>
       </c>
       <c r="E10" s="3">
-        <v>979700</v>
+        <v>969700</v>
       </c>
       <c r="F10" s="3">
-        <v>269100</v>
+        <v>266300</v>
       </c>
       <c r="G10" s="3">
-        <v>-172200</v>
+        <v>-170400</v>
       </c>
       <c r="H10" s="3">
-        <v>-36700</v>
+        <v>-36400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1556300</v>
+        <v>1493000</v>
       </c>
       <c r="E12" s="3">
-        <v>628700</v>
+        <v>622300</v>
       </c>
       <c r="F12" s="3">
-        <v>320600</v>
+        <v>317300</v>
       </c>
       <c r="G12" s="3">
-        <v>609200</v>
+        <v>602900</v>
       </c>
       <c r="H12" s="3">
-        <v>559300</v>
+        <v>553600</v>
       </c>
       <c r="I12" s="3">
-        <v>368200</v>
+        <v>364500</v>
       </c>
       <c r="J12" s="3">
-        <v>209300</v>
+        <v>207200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -996,23 +996,23 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>116200</v>
       </c>
       <c r="E15" s="3">
-        <v>79300</v>
+        <v>78500</v>
       </c>
       <c r="F15" s="3">
-        <v>83400</v>
+        <v>82600</v>
       </c>
       <c r="G15" s="3">
-        <v>92600</v>
+        <v>91600</v>
       </c>
       <c r="H15" s="3">
-        <v>50700</v>
+        <v>50200</v>
       </c>
       <c r="I15" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="J15" s="3">
         <v>6600</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9302400</v>
+        <v>9207200</v>
       </c>
       <c r="E17" s="3">
-        <v>5835700</v>
+        <v>5775900</v>
       </c>
       <c r="F17" s="3">
-        <v>2996700</v>
+        <v>2966000</v>
       </c>
       <c r="G17" s="3">
-        <v>2715000</v>
+        <v>2687200</v>
       </c>
       <c r="H17" s="3">
-        <v>2089200</v>
+        <v>2067800</v>
       </c>
       <c r="I17" s="3">
-        <v>711400</v>
+        <v>704200</v>
       </c>
       <c r="J17" s="3">
-        <v>373800</v>
+        <v>370000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,19 +1096,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2226400</v>
+        <v>-2203700</v>
       </c>
       <c r="E18" s="3">
-        <v>-645800</v>
+        <v>-639100</v>
       </c>
       <c r="F18" s="3">
-        <v>-661700</v>
+        <v>-655000</v>
       </c>
       <c r="G18" s="3">
-        <v>-1591200</v>
+        <v>-1574900</v>
       </c>
       <c r="H18" s="3">
-        <v>-1378100</v>
+        <v>-1364000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>208800</v>
+        <v>206600</v>
       </c>
       <c r="E20" s="3">
-        <v>166500</v>
+        <v>164800</v>
       </c>
       <c r="F20" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="G20" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="H20" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1197,20 +1197,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-1589400</v>
       </c>
       <c r="E21" s="3">
-        <v>-233500</v>
+        <v>-230300</v>
       </c>
       <c r="F21" s="3">
-        <v>-549100</v>
+        <v>-543000</v>
       </c>
       <c r="G21" s="3">
-        <v>-1424200</v>
+        <v>-1409100</v>
       </c>
       <c r="H21" s="3">
-        <v>-1295200</v>
+        <v>-1281700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47900</v>
+        <v>47400</v>
       </c>
       <c r="E22" s="3">
-        <v>91500</v>
+        <v>90600</v>
       </c>
       <c r="F22" s="3">
-        <v>61200</v>
+        <v>60600</v>
       </c>
       <c r="G22" s="3">
-        <v>53200</v>
+        <v>52700</v>
       </c>
       <c r="H22" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="I22" s="3">
         <v>2600</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2065500</v>
+        <v>-2044400</v>
       </c>
       <c r="E23" s="3">
-        <v>-570800</v>
+        <v>-565000</v>
       </c>
       <c r="F23" s="3">
-        <v>-760900</v>
+        <v>-753100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1621100</v>
+        <v>-1604600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1381200</v>
+        <v>-1367000</v>
       </c>
       <c r="I23" s="3">
-        <v>-720000</v>
+        <v>-712600</v>
       </c>
       <c r="J23" s="3">
-        <v>-369000</v>
+        <v>-365200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1324,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E24" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F24" s="3">
         <v>900</v>
@@ -1336,7 +1336,7 @@
         <v>1100</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I24" s="3">
         <v>1100</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2073500</v>
+        <v>-2052200</v>
       </c>
       <c r="E26" s="3">
-        <v>-576900</v>
+        <v>-571000</v>
       </c>
       <c r="F26" s="3">
-        <v>-761800</v>
+        <v>-754000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1622300</v>
+        <v>-1605700</v>
       </c>
       <c r="H26" s="3">
-        <v>-1384400</v>
+        <v>-1370200</v>
       </c>
       <c r="I26" s="3">
-        <v>-721100</v>
+        <v>-713800</v>
       </c>
       <c r="J26" s="3">
-        <v>-369600</v>
+        <v>-365800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2091000</v>
+        <v>-2069600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1518400</v>
+        <v>-1502900</v>
       </c>
       <c r="F27" s="3">
-        <v>-805800</v>
+        <v>-797600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1639100</v>
+        <v>-1622400</v>
       </c>
       <c r="H27" s="3">
-        <v>-3350300</v>
+        <v>-3316100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1086000</v>
+        <v>-1074900</v>
       </c>
       <c r="J27" s="3">
-        <v>-505200</v>
+        <v>-500000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1660,19 +1660,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-208800</v>
+        <v>-206600</v>
       </c>
       <c r="E32" s="3">
-        <v>-166500</v>
+        <v>-164800</v>
       </c>
       <c r="F32" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="G32" s="3">
-        <v>-23300</v>
+        <v>-23000</v>
       </c>
       <c r="H32" s="3">
-        <v>-14700</v>
+        <v>-14500</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2091000</v>
+        <v>-2069600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1518400</v>
+        <v>-1502900</v>
       </c>
       <c r="F33" s="3">
-        <v>-805800</v>
+        <v>-797600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1639100</v>
+        <v>-1622400</v>
       </c>
       <c r="H33" s="3">
-        <v>-3350300</v>
+        <v>-3316100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1086000</v>
+        <v>-1074900</v>
       </c>
       <c r="J33" s="3">
-        <v>-505200</v>
+        <v>-500000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2091000</v>
+        <v>-2069600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1518400</v>
+        <v>-1502900</v>
       </c>
       <c r="F35" s="3">
-        <v>-805800</v>
+        <v>-797600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1639100</v>
+        <v>-1622400</v>
       </c>
       <c r="H35" s="3">
-        <v>-3350300</v>
+        <v>-3316100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1086000</v>
+        <v>-1074900</v>
       </c>
       <c r="J35" s="3">
-        <v>-505200</v>
+        <v>-500000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2856300</v>
+        <v>2827000</v>
       </c>
       <c r="E41" s="3">
-        <v>2202200</v>
+        <v>2179700</v>
       </c>
       <c r="F41" s="3">
-        <v>5518700</v>
+        <v>5462200</v>
       </c>
       <c r="G41" s="3">
-        <v>123900</v>
+        <v>122700</v>
       </c>
       <c r="H41" s="3">
-        <v>450100</v>
+        <v>445500</v>
       </c>
       <c r="I41" s="3">
-        <v>1078000</v>
+        <v>1067000</v>
       </c>
       <c r="J41" s="3">
-        <v>83500</v>
+        <v>82600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1953,19 +1953,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2753300</v>
+        <v>2725200</v>
       </c>
       <c r="E42" s="3">
-        <v>5322200</v>
+        <v>5267700</v>
       </c>
       <c r="F42" s="3">
-        <v>567400</v>
+        <v>561600</v>
       </c>
       <c r="G42" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="H42" s="3">
-        <v>740300</v>
+        <v>732700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>933400</v>
+        <v>1053400</v>
       </c>
       <c r="E43" s="3">
-        <v>805900</v>
+        <v>797700</v>
       </c>
       <c r="F43" s="3">
-        <v>344100</v>
+        <v>340600</v>
       </c>
       <c r="G43" s="3">
-        <v>405000</v>
+        <v>400900</v>
       </c>
       <c r="H43" s="3">
-        <v>287500</v>
+        <v>284600</v>
       </c>
       <c r="I43" s="3">
-        <v>72700</v>
+        <v>71900</v>
       </c>
       <c r="J43" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2037,22 +2037,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1176400</v>
+        <v>1164400</v>
       </c>
       <c r="E44" s="3">
-        <v>295300</v>
+        <v>292300</v>
       </c>
       <c r="F44" s="3">
-        <v>155300</v>
+        <v>153700</v>
       </c>
       <c r="G44" s="3">
-        <v>127800</v>
+        <v>126400</v>
       </c>
       <c r="H44" s="3">
-        <v>210400</v>
+        <v>208300</v>
       </c>
       <c r="I44" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>775600</v>
+        <v>638100</v>
       </c>
       <c r="E45" s="3">
-        <v>514500</v>
+        <v>509200</v>
       </c>
       <c r="F45" s="3">
-        <v>50700</v>
+        <v>50200</v>
       </c>
       <c r="G45" s="3">
-        <v>35100</v>
+        <v>34800</v>
       </c>
       <c r="H45" s="3">
-        <v>59400</v>
+        <v>58800</v>
       </c>
       <c r="I45" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="J45" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8495100</v>
+        <v>8408100</v>
       </c>
       <c r="E46" s="3">
-        <v>9140200</v>
+        <v>9046600</v>
       </c>
       <c r="F46" s="3">
-        <v>6636200</v>
+        <v>6568300</v>
       </c>
       <c r="G46" s="3">
-        <v>707800</v>
+        <v>700500</v>
       </c>
       <c r="H46" s="3">
-        <v>1747800</v>
+        <v>1729900</v>
       </c>
       <c r="I46" s="3">
-        <v>1193500</v>
+        <v>1181300</v>
       </c>
       <c r="J46" s="3">
-        <v>125700</v>
+        <v>124400</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2163,22 +2163,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>912900</v>
+        <v>1749300</v>
       </c>
       <c r="E47" s="3">
-        <v>1086500</v>
+        <v>1075400</v>
       </c>
       <c r="F47" s="3">
-        <v>228200</v>
+        <v>225900</v>
       </c>
       <c r="G47" s="3">
-        <v>111000</v>
+        <v>109900</v>
       </c>
       <c r="H47" s="3">
-        <v>105000</v>
+        <v>103900</v>
       </c>
       <c r="I47" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3308000</v>
+        <v>3281200</v>
       </c>
       <c r="E48" s="3">
-        <v>1501400</v>
+        <v>1486000</v>
       </c>
       <c r="F48" s="3">
-        <v>925300</v>
+        <v>915800</v>
       </c>
       <c r="G48" s="3">
-        <v>1103800</v>
+        <v>1092500</v>
       </c>
       <c r="H48" s="3">
-        <v>697000</v>
+        <v>689900</v>
       </c>
       <c r="I48" s="3">
-        <v>274500</v>
+        <v>271700</v>
       </c>
       <c r="J48" s="3">
-        <v>119600</v>
+        <v>118400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2247,19 +2247,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30500</v>
+        <v>30200</v>
       </c>
       <c r="E49" s="3">
-        <v>28600</v>
+        <v>28300</v>
       </c>
       <c r="F49" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="G49" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="H49" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1078900</v>
+        <v>215100</v>
       </c>
       <c r="E52" s="3">
-        <v>147100</v>
+        <v>145600</v>
       </c>
       <c r="F52" s="3">
-        <v>28600</v>
+        <v>28300</v>
       </c>
       <c r="G52" s="3">
-        <v>141400</v>
+        <v>140000</v>
       </c>
       <c r="H52" s="3">
-        <v>125200</v>
+        <v>123900</v>
       </c>
       <c r="I52" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="J52" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13825400</v>
+        <v>13683900</v>
       </c>
       <c r="E54" s="3">
-        <v>11903700</v>
+        <v>11781900</v>
       </c>
       <c r="F54" s="3">
-        <v>7847700</v>
+        <v>7767400</v>
       </c>
       <c r="G54" s="3">
-        <v>2094300</v>
+        <v>2072800</v>
       </c>
       <c r="H54" s="3">
-        <v>2706200</v>
+        <v>2678500</v>
       </c>
       <c r="I54" s="3">
-        <v>1503400</v>
+        <v>1488000</v>
       </c>
       <c r="J54" s="3">
-        <v>254300</v>
+        <v>251700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3622600</v>
+        <v>4178700</v>
       </c>
       <c r="E57" s="3">
-        <v>2024700</v>
+        <v>2004000</v>
       </c>
       <c r="F57" s="3">
-        <v>1017400</v>
+        <v>1007000</v>
       </c>
       <c r="G57" s="3">
-        <v>608000</v>
+        <v>601800</v>
       </c>
       <c r="H57" s="3">
-        <v>559700</v>
+        <v>554000</v>
       </c>
       <c r="I57" s="3">
-        <v>92600</v>
+        <v>91600</v>
       </c>
       <c r="J57" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2577,22 +2577,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>757900</v>
+        <v>754500</v>
       </c>
       <c r="E58" s="3">
-        <v>1052100</v>
+        <v>1041400</v>
       </c>
       <c r="F58" s="3">
-        <v>282000</v>
+        <v>279200</v>
       </c>
       <c r="G58" s="3">
-        <v>179300</v>
+        <v>177500</v>
       </c>
       <c r="H58" s="3">
-        <v>297100</v>
+        <v>294100</v>
       </c>
       <c r="I58" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="J58" s="3">
         <v>2800</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2204700</v>
+        <v>1584700</v>
       </c>
       <c r="E59" s="3">
-        <v>1116600</v>
+        <v>1105200</v>
       </c>
       <c r="F59" s="3">
-        <v>707800</v>
+        <v>700600</v>
       </c>
       <c r="G59" s="3">
-        <v>576900</v>
+        <v>571000</v>
       </c>
       <c r="H59" s="3">
-        <v>377300</v>
+        <v>373500</v>
       </c>
       <c r="I59" s="3">
-        <v>127800</v>
+        <v>126500</v>
       </c>
       <c r="J59" s="3">
-        <v>74200</v>
+        <v>73400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6585300</v>
+        <v>6517900</v>
       </c>
       <c r="E60" s="3">
-        <v>4193400</v>
+        <v>4150500</v>
       </c>
       <c r="F60" s="3">
-        <v>2007300</v>
+        <v>1986700</v>
       </c>
       <c r="G60" s="3">
-        <v>1364200</v>
+        <v>1350300</v>
       </c>
       <c r="H60" s="3">
-        <v>1234200</v>
+        <v>1221500</v>
       </c>
       <c r="I60" s="3">
-        <v>232500</v>
+        <v>230100</v>
       </c>
       <c r="J60" s="3">
-        <v>104300</v>
+        <v>103300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1563400</v>
+        <v>1549500</v>
       </c>
       <c r="E61" s="3">
-        <v>1403300</v>
+        <v>1388900</v>
       </c>
       <c r="F61" s="3">
-        <v>860800</v>
+        <v>852000</v>
       </c>
       <c r="G61" s="3">
-        <v>1040300</v>
+        <v>1029700</v>
       </c>
       <c r="H61" s="3">
-        <v>167700</v>
+        <v>166000</v>
       </c>
       <c r="I61" s="3">
-        <v>92300</v>
+        <v>91300</v>
       </c>
       <c r="J61" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1706100</v>
+        <v>1686600</v>
       </c>
       <c r="E62" s="3">
-        <v>840300</v>
+        <v>831700</v>
       </c>
       <c r="F62" s="3">
-        <v>403600</v>
+        <v>399500</v>
       </c>
       <c r="G62" s="3">
-        <v>382200</v>
+        <v>378300</v>
       </c>
       <c r="H62" s="3">
-        <v>133700</v>
+        <v>132300</v>
       </c>
       <c r="I62" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="J62" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10397500</v>
+        <v>10291100</v>
       </c>
       <c r="E66" s="3">
-        <v>6918700</v>
+        <v>6847900</v>
       </c>
       <c r="F66" s="3">
-        <v>3945700</v>
+        <v>3905300</v>
       </c>
       <c r="G66" s="3">
-        <v>2999000</v>
+        <v>2968300</v>
       </c>
       <c r="H66" s="3">
-        <v>1724200</v>
+        <v>1706600</v>
       </c>
       <c r="I66" s="3">
-        <v>346600</v>
+        <v>343100</v>
       </c>
       <c r="J66" s="3">
-        <v>116900</v>
+        <v>115700</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>2823300</v>
+        <v>2794400</v>
       </c>
       <c r="J70" s="3">
-        <v>698200</v>
+        <v>691100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3140,26 +3140,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-9938300</v>
       </c>
       <c r="E72" s="3">
-        <v>-7990200</v>
+        <v>-7908400</v>
       </c>
       <c r="F72" s="3">
-        <v>-7417700</v>
+        <v>-7341800</v>
       </c>
       <c r="G72" s="3">
-        <v>-6653400</v>
+        <v>-6585300</v>
       </c>
       <c r="H72" s="3">
-        <v>-5032400</v>
+        <v>-4980900</v>
       </c>
       <c r="I72" s="3">
-        <v>-1682100</v>
+        <v>-1664900</v>
       </c>
       <c r="J72" s="3">
-        <v>-585500</v>
+        <v>-579500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3427900</v>
+        <v>3392900</v>
       </c>
       <c r="E76" s="3">
-        <v>4985000</v>
+        <v>4934000</v>
       </c>
       <c r="F76" s="3">
-        <v>3902000</v>
+        <v>3862000</v>
       </c>
       <c r="G76" s="3">
-        <v>-904800</v>
+        <v>-895500</v>
       </c>
       <c r="H76" s="3">
-        <v>981900</v>
+        <v>971900</v>
       </c>
       <c r="I76" s="3">
-        <v>-1666500</v>
+        <v>-1649400</v>
       </c>
       <c r="J76" s="3">
-        <v>-560800</v>
+        <v>-555100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2091000</v>
+        <v>-2069600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1518400</v>
+        <v>-1502900</v>
       </c>
       <c r="F81" s="3">
-        <v>-805800</v>
+        <v>-797600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1639100</v>
+        <v>-1622400</v>
       </c>
       <c r="H81" s="3">
-        <v>-3350300</v>
+        <v>-3316100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1086000</v>
+        <v>-1074900</v>
       </c>
       <c r="J81" s="3">
-        <v>-505200</v>
+        <v>-500000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3499,23 +3499,23 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>405500</v>
       </c>
       <c r="E83" s="3">
-        <v>245300</v>
+        <v>242800</v>
       </c>
       <c r="F83" s="3">
-        <v>150300</v>
+        <v>148800</v>
       </c>
       <c r="G83" s="3">
-        <v>143500</v>
+        <v>142000</v>
       </c>
       <c r="H83" s="3">
-        <v>68100</v>
+        <v>67400</v>
       </c>
       <c r="I83" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="J83" s="3">
         <v>6600</v>
@@ -3751,26 +3751,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-549600</v>
       </c>
       <c r="E89" s="3">
-        <v>282400</v>
+        <v>279500</v>
       </c>
       <c r="F89" s="3">
-        <v>280200</v>
+        <v>277300</v>
       </c>
       <c r="G89" s="3">
-        <v>-1252600</v>
+        <v>-1239800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1136300</v>
+        <v>-1124700</v>
       </c>
       <c r="I89" s="3">
-        <v>-657000</v>
+        <v>-650300</v>
       </c>
       <c r="J89" s="3">
-        <v>-316200</v>
+        <v>-313000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3811,26 +3811,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-991200</v>
       </c>
       <c r="E91" s="3">
-        <v>-585800</v>
+        <v>-579800</v>
       </c>
       <c r="F91" s="3">
-        <v>-162000</v>
+        <v>-160300</v>
       </c>
       <c r="G91" s="3">
-        <v>-245100</v>
+        <v>-242600</v>
       </c>
       <c r="H91" s="3">
-        <v>-379700</v>
+        <v>-375800</v>
       </c>
       <c r="I91" s="3">
-        <v>-160000</v>
+        <v>-158300</v>
       </c>
       <c r="J91" s="3">
-        <v>-94000</v>
+        <v>-93000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3937,26 +3937,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>1476200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5711000</v>
+        <v>-5652600</v>
       </c>
       <c r="F94" s="3">
-        <v>-728300</v>
+        <v>-720900</v>
       </c>
       <c r="G94" s="3">
-        <v>485700</v>
+        <v>480800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1140500</v>
+        <v>-1128800</v>
       </c>
       <c r="I94" s="3">
-        <v>-170900</v>
+        <v>-169200</v>
       </c>
       <c r="J94" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4165,26 +4165,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-229800</v>
       </c>
       <c r="E100" s="3">
-        <v>2603700</v>
+        <v>2577000</v>
       </c>
       <c r="F100" s="3">
-        <v>5939800</v>
+        <v>5879000</v>
       </c>
       <c r="G100" s="3">
-        <v>444500</v>
+        <v>439900</v>
       </c>
       <c r="H100" s="3">
-        <v>1666400</v>
+        <v>1649400</v>
       </c>
       <c r="I100" s="3">
-        <v>1848000</v>
+        <v>1829100</v>
       </c>
       <c r="J100" s="3">
-        <v>329300</v>
+        <v>325900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4207,23 +4207,23 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-17300</v>
       </c>
       <c r="E101" s="3">
-        <v>-71900</v>
+        <v>-71200</v>
       </c>
       <c r="F101" s="3">
-        <v>-98000</v>
+        <v>-97000</v>
       </c>
       <c r="G101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="I101" s="3">
-        <v>-24100</v>
+        <v>-23900</v>
       </c>
       <c r="J101" s="3">
         <v>5800</v>
@@ -4249,26 +4249,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>679600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2896900</v>
+        <v>-2867200</v>
       </c>
       <c r="F102" s="3">
-        <v>5393700</v>
+        <v>5338500</v>
       </c>
       <c r="G102" s="3">
-        <v>-320900</v>
+        <v>-317600</v>
       </c>
       <c r="H102" s="3">
-        <v>-618500</v>
+        <v>-612200</v>
       </c>
       <c r="I102" s="3">
-        <v>995900</v>
+        <v>985700</v>
       </c>
       <c r="J102" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -727,19 +727,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7003500</v>
+        <v>6788200</v>
       </c>
       <c r="E8" s="3">
-        <v>5136800</v>
+        <v>4978900</v>
       </c>
       <c r="F8" s="3">
-        <v>2311100</v>
+        <v>2240000</v>
       </c>
       <c r="G8" s="3">
-        <v>1112300</v>
+        <v>1078100</v>
       </c>
       <c r="H8" s="3">
-        <v>703800</v>
+        <v>682200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -769,19 +769,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6272300</v>
+        <v>6079500</v>
       </c>
       <c r="E9" s="3">
-        <v>4167100</v>
+        <v>4039000</v>
       </c>
       <c r="F9" s="3">
-        <v>2044800</v>
+        <v>1981900</v>
       </c>
       <c r="G9" s="3">
-        <v>1282700</v>
+        <v>1243300</v>
       </c>
       <c r="H9" s="3">
-        <v>740200</v>
+        <v>717400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -811,19 +811,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>731200</v>
+        <v>708700</v>
       </c>
       <c r="E10" s="3">
-        <v>969700</v>
+        <v>939900</v>
       </c>
       <c r="F10" s="3">
-        <v>266300</v>
+        <v>258100</v>
       </c>
       <c r="G10" s="3">
-        <v>-170400</v>
+        <v>-165200</v>
       </c>
       <c r="H10" s="3">
-        <v>-36400</v>
+        <v>-35300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1493000</v>
+        <v>1447100</v>
       </c>
       <c r="E12" s="3">
-        <v>622300</v>
+        <v>603100</v>
       </c>
       <c r="F12" s="3">
-        <v>317300</v>
+        <v>307600</v>
       </c>
       <c r="G12" s="3">
-        <v>602900</v>
+        <v>584400</v>
       </c>
       <c r="H12" s="3">
-        <v>553600</v>
+        <v>536600</v>
       </c>
       <c r="I12" s="3">
-        <v>364500</v>
+        <v>353300</v>
       </c>
       <c r="J12" s="3">
-        <v>207200</v>
+        <v>200800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-19700</v>
+        <v>-19100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>116200</v>
+        <v>112600</v>
       </c>
       <c r="E15" s="3">
-        <v>78500</v>
+        <v>76100</v>
       </c>
       <c r="F15" s="3">
-        <v>82600</v>
+        <v>80100</v>
       </c>
       <c r="G15" s="3">
-        <v>91600</v>
+        <v>88800</v>
       </c>
       <c r="H15" s="3">
-        <v>50200</v>
+        <v>48700</v>
       </c>
       <c r="I15" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="J15" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9207200</v>
+        <v>8924100</v>
       </c>
       <c r="E17" s="3">
-        <v>5775900</v>
+        <v>5598400</v>
       </c>
       <c r="F17" s="3">
-        <v>2966000</v>
+        <v>2874900</v>
       </c>
       <c r="G17" s="3">
-        <v>2687200</v>
+        <v>2604600</v>
       </c>
       <c r="H17" s="3">
-        <v>2067800</v>
+        <v>2004300</v>
       </c>
       <c r="I17" s="3">
-        <v>704200</v>
+        <v>682500</v>
       </c>
       <c r="J17" s="3">
-        <v>370000</v>
+        <v>358600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,19 +1096,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2203700</v>
+        <v>-2135900</v>
       </c>
       <c r="E18" s="3">
-        <v>-639100</v>
+        <v>-619500</v>
       </c>
       <c r="F18" s="3">
-        <v>-655000</v>
+        <v>-634800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1574900</v>
+        <v>-1526500</v>
       </c>
       <c r="H18" s="3">
-        <v>-1364000</v>
+        <v>-1322100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>206600</v>
+        <v>200300</v>
       </c>
       <c r="E20" s="3">
-        <v>164800</v>
+        <v>159700</v>
       </c>
       <c r="F20" s="3">
-        <v>-37500</v>
+        <v>-36400</v>
       </c>
       <c r="G20" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="H20" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1589400</v>
+        <v>-1542600</v>
       </c>
       <c r="E21" s="3">
-        <v>-230300</v>
+        <v>-224500</v>
       </c>
       <c r="F21" s="3">
-        <v>-543000</v>
+        <v>-527000</v>
       </c>
       <c r="G21" s="3">
-        <v>-1409100</v>
+        <v>-1366500</v>
       </c>
       <c r="H21" s="3">
-        <v>-1281700</v>
+        <v>-1242600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47400</v>
+        <v>45900</v>
       </c>
       <c r="E22" s="3">
-        <v>90600</v>
+        <v>87800</v>
       </c>
       <c r="F22" s="3">
-        <v>60600</v>
+        <v>58700</v>
       </c>
       <c r="G22" s="3">
-        <v>52700</v>
+        <v>51100</v>
       </c>
       <c r="H22" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="I22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2044400</v>
+        <v>-1981600</v>
       </c>
       <c r="E23" s="3">
-        <v>-565000</v>
+        <v>-547600</v>
       </c>
       <c r="F23" s="3">
-        <v>-753100</v>
+        <v>-729900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1604600</v>
+        <v>-1555200</v>
       </c>
       <c r="H23" s="3">
-        <v>-1367000</v>
+        <v>-1325000</v>
       </c>
       <c r="I23" s="3">
-        <v>-712600</v>
+        <v>-690700</v>
       </c>
       <c r="J23" s="3">
-        <v>-365200</v>
+        <v>-353900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1324,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="E24" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="F24" s="3">
         <v>900</v>
@@ -1336,7 +1336,7 @@
         <v>1100</v>
       </c>
       <c r="H24" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I24" s="3">
         <v>1100</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2052200</v>
+        <v>-1989100</v>
       </c>
       <c r="E26" s="3">
-        <v>-571000</v>
+        <v>-553500</v>
       </c>
       <c r="F26" s="3">
-        <v>-754000</v>
+        <v>-730800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1605700</v>
+        <v>-1556300</v>
       </c>
       <c r="H26" s="3">
-        <v>-1370200</v>
+        <v>-1328100</v>
       </c>
       <c r="I26" s="3">
-        <v>-713800</v>
+        <v>-691800</v>
       </c>
       <c r="J26" s="3">
-        <v>-365800</v>
+        <v>-354500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2069600</v>
+        <v>-2006000</v>
       </c>
       <c r="E27" s="3">
-        <v>-1502900</v>
+        <v>-1456700</v>
       </c>
       <c r="F27" s="3">
-        <v>-797600</v>
+        <v>-773100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1622400</v>
+        <v>-1572500</v>
       </c>
       <c r="H27" s="3">
-        <v>-3316100</v>
+        <v>-3214100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1074900</v>
+        <v>-1041800</v>
       </c>
       <c r="J27" s="3">
-        <v>-500000</v>
+        <v>-484600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1660,19 +1660,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-206600</v>
+        <v>-200300</v>
       </c>
       <c r="E32" s="3">
-        <v>-164800</v>
+        <v>-159700</v>
       </c>
       <c r="F32" s="3">
-        <v>37500</v>
+        <v>36400</v>
       </c>
       <c r="G32" s="3">
-        <v>-23000</v>
+        <v>-22300</v>
       </c>
       <c r="H32" s="3">
-        <v>-14500</v>
+        <v>-14100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2069600</v>
+        <v>-2006000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1502900</v>
+        <v>-1456700</v>
       </c>
       <c r="F33" s="3">
-        <v>-797600</v>
+        <v>-773100</v>
       </c>
       <c r="G33" s="3">
-        <v>-1622400</v>
+        <v>-1572500</v>
       </c>
       <c r="H33" s="3">
-        <v>-3316100</v>
+        <v>-3214100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1074900</v>
+        <v>-1041800</v>
       </c>
       <c r="J33" s="3">
-        <v>-500000</v>
+        <v>-484600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2069600</v>
+        <v>-2006000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1502900</v>
+        <v>-1456700</v>
       </c>
       <c r="F35" s="3">
-        <v>-797600</v>
+        <v>-773100</v>
       </c>
       <c r="G35" s="3">
-        <v>-1622400</v>
+        <v>-1572500</v>
       </c>
       <c r="H35" s="3">
-        <v>-3316100</v>
+        <v>-3214100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1074900</v>
+        <v>-1041800</v>
       </c>
       <c r="J35" s="3">
-        <v>-500000</v>
+        <v>-484600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2827000</v>
+        <v>2740100</v>
       </c>
       <c r="E41" s="3">
-        <v>2179700</v>
+        <v>2112700</v>
       </c>
       <c r="F41" s="3">
-        <v>5462200</v>
+        <v>5294300</v>
       </c>
       <c r="G41" s="3">
-        <v>122700</v>
+        <v>118900</v>
       </c>
       <c r="H41" s="3">
-        <v>445500</v>
+        <v>431800</v>
       </c>
       <c r="I41" s="3">
-        <v>1067000</v>
+        <v>1034200</v>
       </c>
       <c r="J41" s="3">
-        <v>82600</v>
+        <v>80100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1953,19 +1953,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2725200</v>
+        <v>2641400</v>
       </c>
       <c r="E42" s="3">
-        <v>5267700</v>
+        <v>5105800</v>
       </c>
       <c r="F42" s="3">
-        <v>561600</v>
+        <v>544300</v>
       </c>
       <c r="G42" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="H42" s="3">
-        <v>732700</v>
+        <v>710200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1053400</v>
+        <v>1021100</v>
       </c>
       <c r="E43" s="3">
-        <v>797700</v>
+        <v>773200</v>
       </c>
       <c r="F43" s="3">
-        <v>340600</v>
+        <v>330100</v>
       </c>
       <c r="G43" s="3">
-        <v>400900</v>
+        <v>388500</v>
       </c>
       <c r="H43" s="3">
-        <v>284600</v>
+        <v>275900</v>
       </c>
       <c r="I43" s="3">
-        <v>71900</v>
+        <v>69700</v>
       </c>
       <c r="J43" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2037,22 +2037,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1164400</v>
+        <v>1128600</v>
       </c>
       <c r="E44" s="3">
-        <v>292300</v>
+        <v>283300</v>
       </c>
       <c r="F44" s="3">
-        <v>153700</v>
+        <v>149000</v>
       </c>
       <c r="G44" s="3">
-        <v>126400</v>
+        <v>122600</v>
       </c>
       <c r="H44" s="3">
-        <v>208300</v>
+        <v>201900</v>
       </c>
       <c r="I44" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>638100</v>
+        <v>618500</v>
       </c>
       <c r="E45" s="3">
-        <v>509200</v>
+        <v>493500</v>
       </c>
       <c r="F45" s="3">
-        <v>50200</v>
+        <v>48600</v>
       </c>
       <c r="G45" s="3">
-        <v>34800</v>
+        <v>33700</v>
       </c>
       <c r="H45" s="3">
-        <v>58800</v>
+        <v>57000</v>
       </c>
       <c r="I45" s="3">
-        <v>29700</v>
+        <v>28700</v>
       </c>
       <c r="J45" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8408100</v>
+        <v>8149700</v>
       </c>
       <c r="E46" s="3">
-        <v>9046600</v>
+        <v>8768500</v>
       </c>
       <c r="F46" s="3">
-        <v>6568300</v>
+        <v>6366400</v>
       </c>
       <c r="G46" s="3">
-        <v>700500</v>
+        <v>679000</v>
       </c>
       <c r="H46" s="3">
-        <v>1729900</v>
+        <v>1676700</v>
       </c>
       <c r="I46" s="3">
-        <v>1181300</v>
+        <v>1145000</v>
       </c>
       <c r="J46" s="3">
-        <v>124400</v>
+        <v>120600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2163,22 +2163,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1749300</v>
+        <v>1695500</v>
       </c>
       <c r="E47" s="3">
-        <v>1075400</v>
+        <v>1042300</v>
       </c>
       <c r="F47" s="3">
-        <v>225900</v>
+        <v>219000</v>
       </c>
       <c r="G47" s="3">
-        <v>109900</v>
+        <v>106500</v>
       </c>
       <c r="H47" s="3">
-        <v>103900</v>
+        <v>100700</v>
       </c>
       <c r="I47" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3281200</v>
+        <v>3180300</v>
       </c>
       <c r="E48" s="3">
-        <v>1486000</v>
+        <v>1440300</v>
       </c>
       <c r="F48" s="3">
-        <v>915800</v>
+        <v>887600</v>
       </c>
       <c r="G48" s="3">
-        <v>1092500</v>
+        <v>1058900</v>
       </c>
       <c r="H48" s="3">
-        <v>689900</v>
+        <v>668700</v>
       </c>
       <c r="I48" s="3">
-        <v>271700</v>
+        <v>263300</v>
       </c>
       <c r="J48" s="3">
-        <v>118400</v>
+        <v>114800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2247,19 +2247,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30200</v>
+        <v>29300</v>
       </c>
       <c r="E49" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="F49" s="3">
-        <v>29100</v>
+        <v>28200</v>
       </c>
       <c r="G49" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H49" s="3">
         <v>29900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>30900</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>215100</v>
+        <v>208500</v>
       </c>
       <c r="E52" s="3">
-        <v>145600</v>
+        <v>141100</v>
       </c>
       <c r="F52" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="G52" s="3">
-        <v>140000</v>
+        <v>135700</v>
       </c>
       <c r="H52" s="3">
-        <v>123900</v>
+        <v>120100</v>
       </c>
       <c r="I52" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="J52" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13683900</v>
+        <v>13263200</v>
       </c>
       <c r="E54" s="3">
-        <v>11781900</v>
+        <v>11419700</v>
       </c>
       <c r="F54" s="3">
-        <v>7767400</v>
+        <v>7528600</v>
       </c>
       <c r="G54" s="3">
-        <v>2072800</v>
+        <v>2009100</v>
       </c>
       <c r="H54" s="3">
-        <v>2678500</v>
+        <v>2596100</v>
       </c>
       <c r="I54" s="3">
-        <v>1488000</v>
+        <v>1442300</v>
       </c>
       <c r="J54" s="3">
-        <v>251700</v>
+        <v>243900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4178700</v>
+        <v>4050200</v>
       </c>
       <c r="E57" s="3">
-        <v>2004000</v>
+        <v>1942400</v>
       </c>
       <c r="F57" s="3">
-        <v>1007000</v>
+        <v>976000</v>
       </c>
       <c r="G57" s="3">
-        <v>601800</v>
+        <v>583300</v>
       </c>
       <c r="H57" s="3">
-        <v>554000</v>
+        <v>537000</v>
       </c>
       <c r="I57" s="3">
-        <v>91600</v>
+        <v>88800</v>
       </c>
       <c r="J57" s="3">
-        <v>27100</v>
+        <v>26300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>754500</v>
+        <v>731300</v>
       </c>
       <c r="E58" s="3">
-        <v>1041400</v>
+        <v>1009300</v>
       </c>
       <c r="F58" s="3">
-        <v>279200</v>
+        <v>270600</v>
       </c>
       <c r="G58" s="3">
-        <v>177500</v>
+        <v>172000</v>
       </c>
       <c r="H58" s="3">
-        <v>294100</v>
+        <v>285000</v>
       </c>
       <c r="I58" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="J58" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1584700</v>
+        <v>1536000</v>
       </c>
       <c r="E59" s="3">
-        <v>1105200</v>
+        <v>1071200</v>
       </c>
       <c r="F59" s="3">
-        <v>700600</v>
+        <v>679100</v>
       </c>
       <c r="G59" s="3">
-        <v>571000</v>
+        <v>553500</v>
       </c>
       <c r="H59" s="3">
-        <v>373500</v>
+        <v>362000</v>
       </c>
       <c r="I59" s="3">
-        <v>126500</v>
+        <v>122600</v>
       </c>
       <c r="J59" s="3">
-        <v>73400</v>
+        <v>71100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6517900</v>
+        <v>6317500</v>
       </c>
       <c r="E60" s="3">
-        <v>4150500</v>
+        <v>4022900</v>
       </c>
       <c r="F60" s="3">
-        <v>1986700</v>
+        <v>1925600</v>
       </c>
       <c r="G60" s="3">
-        <v>1350300</v>
+        <v>1308800</v>
       </c>
       <c r="H60" s="3">
-        <v>1221500</v>
+        <v>1184000</v>
       </c>
       <c r="I60" s="3">
-        <v>230100</v>
+        <v>223000</v>
       </c>
       <c r="J60" s="3">
-        <v>103300</v>
+        <v>100100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1549500</v>
+        <v>1501800</v>
       </c>
       <c r="E61" s="3">
-        <v>1388900</v>
+        <v>1346200</v>
       </c>
       <c r="F61" s="3">
-        <v>852000</v>
+        <v>825800</v>
       </c>
       <c r="G61" s="3">
-        <v>1029700</v>
+        <v>998000</v>
       </c>
       <c r="H61" s="3">
-        <v>166000</v>
+        <v>160900</v>
       </c>
       <c r="I61" s="3">
-        <v>91300</v>
+        <v>88500</v>
       </c>
       <c r="J61" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1686600</v>
+        <v>1634700</v>
       </c>
       <c r="E62" s="3">
-        <v>831700</v>
+        <v>806200</v>
       </c>
       <c r="F62" s="3">
-        <v>399500</v>
+        <v>387200</v>
       </c>
       <c r="G62" s="3">
-        <v>378300</v>
+        <v>366700</v>
       </c>
       <c r="H62" s="3">
-        <v>132300</v>
+        <v>128200</v>
       </c>
       <c r="I62" s="3">
-        <v>20100</v>
+        <v>19400</v>
       </c>
       <c r="J62" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10291100</v>
+        <v>9974700</v>
       </c>
       <c r="E66" s="3">
-        <v>6847900</v>
+        <v>6637400</v>
       </c>
       <c r="F66" s="3">
-        <v>3905300</v>
+        <v>3785200</v>
       </c>
       <c r="G66" s="3">
-        <v>2968300</v>
+        <v>2877100</v>
       </c>
       <c r="H66" s="3">
-        <v>1706600</v>
+        <v>1654100</v>
       </c>
       <c r="I66" s="3">
-        <v>343100</v>
+        <v>332500</v>
       </c>
       <c r="J66" s="3">
-        <v>115700</v>
+        <v>112100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>2794400</v>
+        <v>2708400</v>
       </c>
       <c r="J70" s="3">
-        <v>691100</v>
+        <v>669800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9938300</v>
+        <v>-9632800</v>
       </c>
       <c r="E72" s="3">
-        <v>-7908400</v>
+        <v>-7665300</v>
       </c>
       <c r="F72" s="3">
-        <v>-7341800</v>
+        <v>-7116100</v>
       </c>
       <c r="G72" s="3">
-        <v>-6585300</v>
+        <v>-6382800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4980900</v>
+        <v>-4827800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1664900</v>
+        <v>-1613700</v>
       </c>
       <c r="J72" s="3">
-        <v>-579500</v>
+        <v>-561700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3392900</v>
+        <v>3288600</v>
       </c>
       <c r="E76" s="3">
-        <v>4934000</v>
+        <v>4782300</v>
       </c>
       <c r="F76" s="3">
-        <v>3862000</v>
+        <v>3743300</v>
       </c>
       <c r="G76" s="3">
-        <v>-895500</v>
+        <v>-868000</v>
       </c>
       <c r="H76" s="3">
-        <v>971900</v>
+        <v>942000</v>
       </c>
       <c r="I76" s="3">
-        <v>-1649400</v>
+        <v>-1598600</v>
       </c>
       <c r="J76" s="3">
-        <v>-555100</v>
+        <v>-538000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2069600</v>
+        <v>-2006000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1502900</v>
+        <v>-1456700</v>
       </c>
       <c r="F81" s="3">
-        <v>-797600</v>
+        <v>-773100</v>
       </c>
       <c r="G81" s="3">
-        <v>-1622400</v>
+        <v>-1572500</v>
       </c>
       <c r="H81" s="3">
-        <v>-3316100</v>
+        <v>-3214100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1074900</v>
+        <v>-1041800</v>
       </c>
       <c r="J81" s="3">
-        <v>-500000</v>
+        <v>-484600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>405500</v>
+        <v>393000</v>
       </c>
       <c r="E83" s="3">
-        <v>242800</v>
+        <v>235300</v>
       </c>
       <c r="F83" s="3">
-        <v>148800</v>
+        <v>144200</v>
       </c>
       <c r="G83" s="3">
-        <v>142000</v>
+        <v>137600</v>
       </c>
       <c r="H83" s="3">
-        <v>67400</v>
+        <v>65300</v>
       </c>
       <c r="I83" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="J83" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-549600</v>
+        <v>-532700</v>
       </c>
       <c r="E89" s="3">
-        <v>279500</v>
+        <v>270900</v>
       </c>
       <c r="F89" s="3">
-        <v>277300</v>
+        <v>268800</v>
       </c>
       <c r="G89" s="3">
-        <v>-1239800</v>
+        <v>-1201700</v>
       </c>
       <c r="H89" s="3">
-        <v>-1124700</v>
+        <v>-1090100</v>
       </c>
       <c r="I89" s="3">
-        <v>-650300</v>
+        <v>-630300</v>
       </c>
       <c r="J89" s="3">
-        <v>-313000</v>
+        <v>-303300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-991200</v>
+        <v>-960700</v>
       </c>
       <c r="E91" s="3">
-        <v>-579800</v>
+        <v>-562000</v>
       </c>
       <c r="F91" s="3">
-        <v>-160300</v>
+        <v>-155400</v>
       </c>
       <c r="G91" s="3">
-        <v>-242600</v>
+        <v>-235200</v>
       </c>
       <c r="H91" s="3">
-        <v>-375800</v>
+        <v>-364300</v>
       </c>
       <c r="I91" s="3">
-        <v>-158300</v>
+        <v>-153500</v>
       </c>
       <c r="J91" s="3">
-        <v>-93000</v>
+        <v>-90200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1476200</v>
+        <v>1430800</v>
       </c>
       <c r="E94" s="3">
-        <v>-5652600</v>
+        <v>-5478800</v>
       </c>
       <c r="F94" s="3">
-        <v>-720900</v>
+        <v>-698700</v>
       </c>
       <c r="G94" s="3">
-        <v>480800</v>
+        <v>466000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1128800</v>
+        <v>-1094100</v>
       </c>
       <c r="I94" s="3">
-        <v>-169200</v>
+        <v>-164000</v>
       </c>
       <c r="J94" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-229800</v>
+        <v>-222700</v>
       </c>
       <c r="E100" s="3">
-        <v>2577000</v>
+        <v>2497800</v>
       </c>
       <c r="F100" s="3">
-        <v>5879000</v>
+        <v>5698200</v>
       </c>
       <c r="G100" s="3">
-        <v>439900</v>
+        <v>426400</v>
       </c>
       <c r="H100" s="3">
-        <v>1649400</v>
+        <v>1598700</v>
       </c>
       <c r="I100" s="3">
-        <v>1829100</v>
+        <v>1772900</v>
       </c>
       <c r="J100" s="3">
-        <v>325900</v>
+        <v>315900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17300</v>
+        <v>-16800</v>
       </c>
       <c r="E101" s="3">
-        <v>-71200</v>
+        <v>-69000</v>
       </c>
       <c r="F101" s="3">
-        <v>-97000</v>
+        <v>-94000</v>
       </c>
       <c r="G101" s="3">
         <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="I101" s="3">
-        <v>-23900</v>
+        <v>-23200</v>
       </c>
       <c r="J101" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>679600</v>
+        <v>658700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2867200</v>
+        <v>-2779100</v>
       </c>
       <c r="F102" s="3">
-        <v>5338500</v>
+        <v>5174400</v>
       </c>
       <c r="G102" s="3">
-        <v>-317600</v>
+        <v>-307900</v>
       </c>
       <c r="H102" s="3">
-        <v>-612200</v>
+        <v>-593300</v>
       </c>
       <c r="I102" s="3">
-        <v>985700</v>
+        <v>955400</v>
       </c>
       <c r="J102" s="3">
-        <v>35500</v>
+        <v>34400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NIO_YR_FIN.xlsx
@@ -727,19 +727,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6788200</v>
+        <v>6803000</v>
       </c>
       <c r="E8" s="3">
-        <v>4978900</v>
+        <v>4989700</v>
       </c>
       <c r="F8" s="3">
-        <v>2240000</v>
+        <v>2244900</v>
       </c>
       <c r="G8" s="3">
-        <v>1078100</v>
+        <v>1080500</v>
       </c>
       <c r="H8" s="3">
-        <v>682200</v>
+        <v>683700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -769,19 +769,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6079500</v>
+        <v>6092700</v>
       </c>
       <c r="E9" s="3">
-        <v>4039000</v>
+        <v>4047800</v>
       </c>
       <c r="F9" s="3">
-        <v>1981900</v>
+        <v>1986200</v>
       </c>
       <c r="G9" s="3">
-        <v>1243300</v>
+        <v>1246000</v>
       </c>
       <c r="H9" s="3">
-        <v>717400</v>
+        <v>719000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -811,16 +811,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>708700</v>
+        <v>710300</v>
       </c>
       <c r="E10" s="3">
-        <v>939900</v>
+        <v>941900</v>
       </c>
       <c r="F10" s="3">
-        <v>258100</v>
+        <v>258700</v>
       </c>
       <c r="G10" s="3">
-        <v>-165200</v>
+        <v>-165500</v>
       </c>
       <c r="H10" s="3">
         <v>-35300</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1447100</v>
+        <v>1450300</v>
       </c>
       <c r="E12" s="3">
-        <v>603100</v>
+        <v>604500</v>
       </c>
       <c r="F12" s="3">
-        <v>307600</v>
+        <v>308200</v>
       </c>
       <c r="G12" s="3">
-        <v>584400</v>
+        <v>585700</v>
       </c>
       <c r="H12" s="3">
-        <v>536600</v>
+        <v>537800</v>
       </c>
       <c r="I12" s="3">
-        <v>353300</v>
+        <v>354000</v>
       </c>
       <c r="J12" s="3">
-        <v>200800</v>
+        <v>201300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>112600</v>
+        <v>112900</v>
       </c>
       <c r="E15" s="3">
-        <v>76100</v>
+        <v>76200</v>
       </c>
       <c r="F15" s="3">
-        <v>80100</v>
+        <v>80200</v>
       </c>
       <c r="G15" s="3">
-        <v>88800</v>
+        <v>89000</v>
       </c>
       <c r="H15" s="3">
-        <v>48700</v>
+        <v>48800</v>
       </c>
       <c r="I15" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="J15" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8924100</v>
+        <v>8943600</v>
       </c>
       <c r="E17" s="3">
-        <v>5598400</v>
+        <v>5610600</v>
       </c>
       <c r="F17" s="3">
-        <v>2874900</v>
+        <v>2881100</v>
       </c>
       <c r="G17" s="3">
-        <v>2604600</v>
+        <v>2610300</v>
       </c>
       <c r="H17" s="3">
-        <v>2004300</v>
+        <v>2008600</v>
       </c>
       <c r="I17" s="3">
-        <v>682500</v>
+        <v>684000</v>
       </c>
       <c r="J17" s="3">
-        <v>358600</v>
+        <v>359400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,19 +1096,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2135900</v>
+        <v>-2140600</v>
       </c>
       <c r="E18" s="3">
-        <v>-619500</v>
+        <v>-620800</v>
       </c>
       <c r="F18" s="3">
-        <v>-634800</v>
+        <v>-636200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1526500</v>
+        <v>-1529800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1322100</v>
+        <v>-1325000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200300</v>
+        <v>200700</v>
       </c>
       <c r="E20" s="3">
-        <v>159700</v>
+        <v>160000</v>
       </c>
       <c r="F20" s="3">
-        <v>-36400</v>
+        <v>-36500</v>
       </c>
       <c r="G20" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="H20" s="3">
         <v>14100</v>
@@ -1198,19 +1198,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1542600</v>
+        <v>-1546200</v>
       </c>
       <c r="E21" s="3">
-        <v>-224500</v>
+        <v>-225100</v>
       </c>
       <c r="F21" s="3">
-        <v>-527000</v>
+        <v>-528300</v>
       </c>
       <c r="G21" s="3">
-        <v>-1366500</v>
+        <v>-1369600</v>
       </c>
       <c r="H21" s="3">
-        <v>-1242600</v>
+        <v>-1245400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1240,19 +1240,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45900</v>
+        <v>46000</v>
       </c>
       <c r="E22" s="3">
-        <v>87800</v>
+        <v>88000</v>
       </c>
       <c r="F22" s="3">
-        <v>58700</v>
+        <v>58800</v>
       </c>
       <c r="G22" s="3">
-        <v>51100</v>
+        <v>51200</v>
       </c>
       <c r="H22" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="I22" s="3">
         <v>2500</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1981600</v>
+        <v>-1985900</v>
       </c>
       <c r="E23" s="3">
-        <v>-547600</v>
+        <v>-548800</v>
       </c>
       <c r="F23" s="3">
-        <v>-729900</v>
+        <v>-731500</v>
       </c>
       <c r="G23" s="3">
-        <v>-1555200</v>
+        <v>-1558600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1325000</v>
+        <v>-1327900</v>
       </c>
       <c r="I23" s="3">
-        <v>-690700</v>
+        <v>-692200</v>
       </c>
       <c r="J23" s="3">
-        <v>-353900</v>
+        <v>-354700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1989100</v>
+        <v>-1993500</v>
       </c>
       <c r="E26" s="3">
-        <v>-553500</v>
+        <v>-554700</v>
       </c>
       <c r="F26" s="3">
-        <v>-730800</v>
+        <v>-732400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1556300</v>
+        <v>-1559700</v>
       </c>
       <c r="H26" s="3">
-        <v>-1328100</v>
+        <v>-1331000</v>
       </c>
       <c r="I26" s="3">
-        <v>-691800</v>
+        <v>-693300</v>
       </c>
       <c r="J26" s="3">
-        <v>-354500</v>
+        <v>-355300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2006000</v>
+        <v>-2010400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1456700</v>
+        <v>-1459800</v>
       </c>
       <c r="F27" s="3">
-        <v>-773100</v>
+        <v>-774700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1572500</v>
+        <v>-1575900</v>
       </c>
       <c r="H27" s="3">
-        <v>-3214100</v>
+        <v>-3221100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1041800</v>
+        <v>-1044100</v>
       </c>
       <c r="J27" s="3">
-        <v>-484600</v>
+        <v>-485700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1660,16 +1660,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200300</v>
+        <v>-200700</v>
       </c>
       <c r="E32" s="3">
-        <v>-159700</v>
+        <v>-160000</v>
       </c>
       <c r="F32" s="3">
-        <v>36400</v>
+        <v>36500</v>
       </c>
       <c r="G32" s="3">
-        <v>-22300</v>
+        <v>-22400</v>
       </c>
       <c r="H32" s="3">
         <v>-14100</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2006000</v>
+        <v>-2010400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1456700</v>
+        <v>-1459800</v>
       </c>
       <c r="F33" s="3">
-        <v>-773100</v>
+        <v>-774700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1572500</v>
+        <v>-1575900</v>
       </c>
       <c r="H33" s="3">
-        <v>-3214100</v>
+        <v>-3221100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1041800</v>
+        <v>-1044100</v>
       </c>
       <c r="J33" s="3">
-        <v>-484600</v>
+        <v>-485700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2006000</v>
+        <v>-2010400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1456700</v>
+        <v>-1459800</v>
       </c>
       <c r="F35" s="3">
-        <v>-773100</v>
+        <v>-774700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1572500</v>
+        <v>-1575900</v>
       </c>
       <c r="H35" s="3">
-        <v>-3214100</v>
+        <v>-3221100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1041800</v>
+        <v>-1044100</v>
       </c>
       <c r="J35" s="3">
-        <v>-484600</v>
+        <v>-485700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2740100</v>
+        <v>2746100</v>
       </c>
       <c r="E41" s="3">
-        <v>2112700</v>
+        <v>2117300</v>
       </c>
       <c r="F41" s="3">
-        <v>5294300</v>
+        <v>5305800</v>
       </c>
       <c r="G41" s="3">
-        <v>118900</v>
+        <v>119100</v>
       </c>
       <c r="H41" s="3">
-        <v>431800</v>
+        <v>432700</v>
       </c>
       <c r="I41" s="3">
-        <v>1034200</v>
+        <v>1036400</v>
       </c>
       <c r="J41" s="3">
-        <v>80100</v>
+        <v>80300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1953,19 +1953,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2641400</v>
+        <v>2647100</v>
       </c>
       <c r="E42" s="3">
-        <v>5105800</v>
+        <v>5116900</v>
       </c>
       <c r="F42" s="3">
-        <v>544300</v>
+        <v>545500</v>
       </c>
       <c r="G42" s="3">
         <v>15300</v>
       </c>
       <c r="H42" s="3">
-        <v>710200</v>
+        <v>711800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1021100</v>
+        <v>1023300</v>
       </c>
       <c r="E43" s="3">
-        <v>773200</v>
+        <v>774800</v>
       </c>
       <c r="F43" s="3">
-        <v>330100</v>
+        <v>330800</v>
       </c>
       <c r="G43" s="3">
-        <v>388500</v>
+        <v>389400</v>
       </c>
       <c r="H43" s="3">
-        <v>275900</v>
+        <v>276500</v>
       </c>
       <c r="I43" s="3">
-        <v>69700</v>
+        <v>69900</v>
       </c>
       <c r="J43" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2037,22 +2037,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1128600</v>
+        <v>1131100</v>
       </c>
       <c r="E44" s="3">
-        <v>283300</v>
+        <v>283900</v>
       </c>
       <c r="F44" s="3">
-        <v>149000</v>
+        <v>149300</v>
       </c>
       <c r="G44" s="3">
-        <v>122600</v>
+        <v>122800</v>
       </c>
       <c r="H44" s="3">
-        <v>201900</v>
+        <v>202300</v>
       </c>
       <c r="I44" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>618500</v>
+        <v>619800</v>
       </c>
       <c r="E45" s="3">
-        <v>493500</v>
+        <v>494600</v>
       </c>
       <c r="F45" s="3">
-        <v>48600</v>
+        <v>48800</v>
       </c>
       <c r="G45" s="3">
-        <v>33700</v>
+        <v>33800</v>
       </c>
       <c r="H45" s="3">
-        <v>57000</v>
+        <v>57100</v>
       </c>
       <c r="I45" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="J45" s="3">
         <v>15300</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8149700</v>
+        <v>8167400</v>
       </c>
       <c r="E46" s="3">
-        <v>8768500</v>
+        <v>8787600</v>
       </c>
       <c r="F46" s="3">
-        <v>6366400</v>
+        <v>6380200</v>
       </c>
       <c r="G46" s="3">
-        <v>679000</v>
+        <v>680500</v>
       </c>
       <c r="H46" s="3">
-        <v>1676700</v>
+        <v>1680400</v>
       </c>
       <c r="I46" s="3">
-        <v>1145000</v>
+        <v>1147400</v>
       </c>
       <c r="J46" s="3">
-        <v>120600</v>
+        <v>120800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2163,19 +2163,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1695500</v>
+        <v>1699200</v>
       </c>
       <c r="E47" s="3">
-        <v>1042300</v>
+        <v>1044600</v>
       </c>
       <c r="F47" s="3">
-        <v>219000</v>
+        <v>219400</v>
       </c>
       <c r="G47" s="3">
-        <v>106500</v>
+        <v>106700</v>
       </c>
       <c r="H47" s="3">
-        <v>100700</v>
+        <v>100900</v>
       </c>
       <c r="I47" s="3">
         <v>13400</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3180300</v>
+        <v>3187200</v>
       </c>
       <c r="E48" s="3">
-        <v>1440300</v>
+        <v>1443500</v>
       </c>
       <c r="F48" s="3">
-        <v>887600</v>
+        <v>889600</v>
       </c>
       <c r="G48" s="3">
-        <v>1058900</v>
+        <v>1061300</v>
       </c>
       <c r="H48" s="3">
-        <v>668700</v>
+        <v>670100</v>
       </c>
       <c r="I48" s="3">
-        <v>263300</v>
+        <v>263900</v>
       </c>
       <c r="J48" s="3">
-        <v>114800</v>
+        <v>115000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2247,10 +2247,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="E49" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="F49" s="3">
         <v>28200</v>
@@ -2259,7 +2259,7 @@
         <v>29000</v>
       </c>
       <c r="H49" s="3">
-        <v>29900</v>
+        <v>30000</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -2373,22 +2373,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>208500</v>
+        <v>209000</v>
       </c>
       <c r="E52" s="3">
-        <v>141100</v>
+        <v>141400</v>
       </c>
       <c r="F52" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="G52" s="3">
-        <v>135700</v>
+        <v>136000</v>
       </c>
       <c r="H52" s="3">
-        <v>120100</v>
+        <v>120400</v>
       </c>
       <c r="I52" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="J52" s="3">
         <v>7700</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13263200</v>
+        <v>13292100</v>
       </c>
       <c r="E54" s="3">
-        <v>11419700</v>
+        <v>11444600</v>
       </c>
       <c r="F54" s="3">
-        <v>7528600</v>
+        <v>7545000</v>
       </c>
       <c r="G54" s="3">
-        <v>2009100</v>
+        <v>2013500</v>
       </c>
       <c r="H54" s="3">
-        <v>2596100</v>
+        <v>2601800</v>
       </c>
       <c r="I54" s="3">
-        <v>1442300</v>
+        <v>1445400</v>
       </c>
       <c r="J54" s="3">
-        <v>243900</v>
+        <v>244500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2535,22 +2535,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4050200</v>
+        <v>4059100</v>
       </c>
       <c r="E57" s="3">
-        <v>1942400</v>
+        <v>1946600</v>
       </c>
       <c r="F57" s="3">
-        <v>976000</v>
+        <v>978100</v>
       </c>
       <c r="G57" s="3">
-        <v>583300</v>
+        <v>584500</v>
       </c>
       <c r="H57" s="3">
-        <v>537000</v>
+        <v>538100</v>
       </c>
       <c r="I57" s="3">
-        <v>88800</v>
+        <v>89000</v>
       </c>
       <c r="J57" s="3">
         <v>26300</v>
@@ -2577,22 +2577,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>731300</v>
+        <v>732900</v>
       </c>
       <c r="E58" s="3">
-        <v>1009300</v>
+        <v>1011500</v>
       </c>
       <c r="F58" s="3">
-        <v>270600</v>
+        <v>271200</v>
       </c>
       <c r="G58" s="3">
-        <v>172000</v>
+        <v>172400</v>
       </c>
       <c r="H58" s="3">
-        <v>285000</v>
+        <v>285700</v>
       </c>
       <c r="I58" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="J58" s="3">
         <v>2700</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1536000</v>
+        <v>1539300</v>
       </c>
       <c r="E59" s="3">
-        <v>1071200</v>
+        <v>1073500</v>
       </c>
       <c r="F59" s="3">
-        <v>679100</v>
+        <v>680500</v>
       </c>
       <c r="G59" s="3">
-        <v>553500</v>
+        <v>554700</v>
       </c>
       <c r="H59" s="3">
-        <v>362000</v>
+        <v>362800</v>
       </c>
       <c r="I59" s="3">
-        <v>122600</v>
+        <v>122900</v>
       </c>
       <c r="J59" s="3">
-        <v>71100</v>
+        <v>71300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6317500</v>
+        <v>6331300</v>
       </c>
       <c r="E60" s="3">
-        <v>4022900</v>
+        <v>4031700</v>
       </c>
       <c r="F60" s="3">
-        <v>1925600</v>
+        <v>1929800</v>
       </c>
       <c r="G60" s="3">
-        <v>1308800</v>
+        <v>1311600</v>
       </c>
       <c r="H60" s="3">
-        <v>1184000</v>
+        <v>1186600</v>
       </c>
       <c r="I60" s="3">
-        <v>223000</v>
+        <v>223500</v>
       </c>
       <c r="J60" s="3">
-        <v>100100</v>
+        <v>100300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,22 +2703,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1501800</v>
+        <v>1505100</v>
       </c>
       <c r="E61" s="3">
-        <v>1346200</v>
+        <v>1349200</v>
       </c>
       <c r="F61" s="3">
-        <v>825800</v>
+        <v>827600</v>
       </c>
       <c r="G61" s="3">
-        <v>998000</v>
+        <v>1000200</v>
       </c>
       <c r="H61" s="3">
-        <v>160900</v>
+        <v>161300</v>
       </c>
       <c r="I61" s="3">
-        <v>88500</v>
+        <v>88700</v>
       </c>
       <c r="J61" s="3">
         <v>5200</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1634700</v>
+        <v>1638300</v>
       </c>
       <c r="E62" s="3">
-        <v>806200</v>
+        <v>807900</v>
       </c>
       <c r="F62" s="3">
-        <v>387200</v>
+        <v>388000</v>
       </c>
       <c r="G62" s="3">
-        <v>366700</v>
+        <v>367500</v>
       </c>
       <c r="H62" s="3">
-        <v>128200</v>
+        <v>128500</v>
       </c>
       <c r="I62" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="J62" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9974700</v>
+        <v>9996400</v>
       </c>
       <c r="E66" s="3">
-        <v>6637400</v>
+        <v>6651800</v>
       </c>
       <c r="F66" s="3">
-        <v>3785200</v>
+        <v>3793500</v>
       </c>
       <c r="G66" s="3">
-        <v>2877100</v>
+        <v>2883300</v>
       </c>
       <c r="H66" s="3">
-        <v>1654100</v>
+        <v>1657700</v>
       </c>
       <c r="I66" s="3">
-        <v>332500</v>
+        <v>333200</v>
       </c>
       <c r="J66" s="3">
-        <v>112100</v>
+        <v>112400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>2708400</v>
+        <v>2714300</v>
       </c>
       <c r="J70" s="3">
-        <v>669800</v>
+        <v>671300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9632800</v>
+        <v>-9653800</v>
       </c>
       <c r="E72" s="3">
-        <v>-7665300</v>
+        <v>-7682000</v>
       </c>
       <c r="F72" s="3">
-        <v>-7116100</v>
+        <v>-7131600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6382800</v>
+        <v>-6396700</v>
       </c>
       <c r="H72" s="3">
-        <v>-4827800</v>
+        <v>-4838300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1613700</v>
+        <v>-1617200</v>
       </c>
       <c r="J72" s="3">
-        <v>-561700</v>
+        <v>-562900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3288600</v>
+        <v>3295700</v>
       </c>
       <c r="E76" s="3">
-        <v>4782300</v>
+        <v>4792700</v>
       </c>
       <c r="F76" s="3">
-        <v>3743300</v>
+        <v>3751500</v>
       </c>
       <c r="G76" s="3">
-        <v>-868000</v>
+        <v>-869900</v>
       </c>
       <c r="H76" s="3">
-        <v>942000</v>
+        <v>944100</v>
       </c>
       <c r="I76" s="3">
-        <v>-1598600</v>
+        <v>-1602100</v>
       </c>
       <c r="J76" s="3">
-        <v>-538000</v>
+        <v>-539200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2006000</v>
+        <v>-2010400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1456700</v>
+        <v>-1459800</v>
       </c>
       <c r="F81" s="3">
-        <v>-773100</v>
+        <v>-774700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1572500</v>
+        <v>-1575900</v>
       </c>
       <c r="H81" s="3">
-        <v>-3214100</v>
+        <v>-3221100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1041800</v>
+        <v>-1044100</v>
       </c>
       <c r="J81" s="3">
-        <v>-484600</v>
+        <v>-485700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>393000</v>
+        <v>393800</v>
       </c>
       <c r="E83" s="3">
-        <v>235300</v>
+        <v>235800</v>
       </c>
       <c r="F83" s="3">
-        <v>144200</v>
+        <v>144500</v>
       </c>
       <c r="G83" s="3">
-        <v>137600</v>
+        <v>137900</v>
       </c>
       <c r="H83" s="3">
-        <v>65300</v>
+        <v>65500</v>
       </c>
       <c r="I83" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="J83" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-532700</v>
+        <v>-533800</v>
       </c>
       <c r="E89" s="3">
-        <v>270900</v>
+        <v>271500</v>
       </c>
       <c r="F89" s="3">
-        <v>268800</v>
+        <v>269400</v>
       </c>
       <c r="G89" s="3">
-        <v>-1201700</v>
+        <v>-1204300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1090100</v>
+        <v>-1092500</v>
       </c>
       <c r="I89" s="3">
-        <v>-630300</v>
+        <v>-631700</v>
       </c>
       <c r="J89" s="3">
-        <v>-303300</v>
+        <v>-304000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-960700</v>
+        <v>-962800</v>
       </c>
       <c r="E91" s="3">
-        <v>-562000</v>
+        <v>-563200</v>
       </c>
       <c r="F91" s="3">
-        <v>-155400</v>
+        <v>-155700</v>
       </c>
       <c r="G91" s="3">
-        <v>-235200</v>
+        <v>-235700</v>
       </c>
       <c r="H91" s="3">
-        <v>-364300</v>
+        <v>-365100</v>
       </c>
       <c r="I91" s="3">
-        <v>-153500</v>
+        <v>-153800</v>
       </c>
       <c r="J91" s="3">
-        <v>-90200</v>
+        <v>-90400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1430800</v>
+        <v>1434000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5478800</v>
+        <v>-5490700</v>
       </c>
       <c r="F94" s="3">
-        <v>-698700</v>
+        <v>-700200</v>
       </c>
       <c r="G94" s="3">
-        <v>466000</v>
+        <v>467000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1094100</v>
+        <v>-1096500</v>
       </c>
       <c r="I94" s="3">
-        <v>-164000</v>
+        <v>-164400</v>
       </c>
       <c r="J94" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-222700</v>
+        <v>-223200</v>
       </c>
       <c r="E100" s="3">
-        <v>2497800</v>
+        <v>2503200</v>
       </c>
       <c r="F100" s="3">
-        <v>5698200</v>
+        <v>5710600</v>
       </c>
       <c r="G100" s="3">
-        <v>426400</v>
+        <v>427400</v>
       </c>
       <c r="H100" s="3">
-        <v>1598700</v>
+        <v>1602200</v>
       </c>
       <c r="I100" s="3">
-        <v>1772900</v>
+        <v>1776700</v>
       </c>
       <c r="J100" s="3">
-        <v>315900</v>
+        <v>316600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4211,16 +4211,16 @@
         <v>-16800</v>
       </c>
       <c r="E101" s="3">
-        <v>-69000</v>
+        <v>-69200</v>
       </c>
       <c r="F101" s="3">
-        <v>-94000</v>
+        <v>-94200</v>
       </c>
       <c r="G101" s="3">
         <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="I101" s="3">
         <v>-23200</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>658700</v>
+        <v>660100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2779100</v>
+        <v>-2785100</v>
       </c>
       <c r="F102" s="3">
-        <v>5174400</v>
+        <v>5185600</v>
       </c>
       <c r="G102" s="3">
-        <v>-307900</v>
+        <v>-308500</v>
       </c>
       <c r="H102" s="3">
-        <v>-593300</v>
+        <v>-594600</v>
       </c>
       <c r="I102" s="3">
-        <v>955400</v>
+        <v>957500</v>
       </c>
       <c r="J102" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
